--- a/project_elastic/Project-DatasetGithub.xlsx
+++ b/project_elastic/Project-DatasetGithub.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bardia/Downloads/project_elastic/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bardia/Desktop/MIR/Github1401-18_25/project_elastic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47D84DE-C36D-224D-BDB1-D369AB9B3236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1DB27E-4D6F-2E47-A34F-D0D502FB0376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="transformer" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="427">
   <si>
     <t>bardia</t>
   </si>
@@ -1210,11 +1210,158 @@
   <si>
     <t>https://github.com/envoyproxy/envoy</t>
   </si>
+  <si>
+    <t>https://github.com/kitspace/awesome-electronics</t>
+  </si>
+  <si>
+    <t>https://github.com/yadox666/The-Hackers-Hardware-Toolkit</t>
+  </si>
+  <si>
+    <t>https://github.com/SpinalHDL/SpinalHDL</t>
+  </si>
+  <si>
+    <t>https://github.com/hashicorp/consul</t>
+  </si>
+  <si>
+    <t>https://github.com/dotnet/orleans</t>
+  </si>
+  <si>
+    <t>https://github.com/shinyorg/shiny</t>
+  </si>
+  <si>
+    <t>q5 = "infrastucture support"</t>
+  </si>
+  <si>
+    <t>https://github.com/fchollet/deep-learning-with-python-notebooks</t>
+  </si>
+  <si>
+    <t>https://github.com/pierpaolo28/Artificial-Intelligence-Projects</t>
+  </si>
+  <si>
+    <t> 1</t>
+  </si>
+  <si>
+    <t>https://github.com/OpenRCT2/OpenRCT2</t>
+  </si>
+  <si>
+    <t>https://github.com/panda3d/panda3d</t>
+  </si>
+  <si>
+    <t>https://github.com/terryum/awesome-deep-learning-papers</t>
+  </si>
+  <si>
+    <t>https://github.com/andrewekhalel/MLQuestions</t>
+  </si>
+  <si>
+    <t>https://github.com/GoogleCloudPlatform/microservices-demo</t>
+  </si>
+  <si>
+    <t>https://github.com/TonnyL/Awesome_APIs</t>
+  </si>
+  <si>
+    <t>https://github.com/ToolJet/ToolJet</t>
+  </si>
+  <si>
+    <t>https://github.com/YunaiV/SpringBoot-Labs</t>
+  </si>
+  <si>
+    <t>https://github.com/YunaiV/yudao-cloud</t>
+  </si>
+  <si>
+    <t>https://github.com/0015/ThatProject</t>
+  </si>
+  <si>
+    <t>https://github.com/AAkira/Kotlin-Multiplatform-Libraries</t>
+  </si>
+  <si>
+    <t>https://github.com/AAkira/Napier</t>
+  </si>
+  <si>
+    <t>https://github.com/AFNetworking/AFNetworking</t>
+  </si>
+  <si>
+    <t>https://github.com/ARM-software/ComputeLibrary</t>
+  </si>
+  <si>
+    <t>https://github.com/Activiti/Activiti</t>
+  </si>
+  <si>
+    <t>https://github.com/AllThingsSmitty/jquery-tips-everyone-should-know</t>
+  </si>
+  <si>
+    <t>https://github.com/ESIPFed/Awesome-Earth-Artificial-Intelligence</t>
+  </si>
+  <si>
+    <t>https://github.com/Spandan-Madan/DeepLearningProject</t>
+  </si>
+  <si>
+    <t>https://github.com/The-OpenROAD-Project/OpenLane</t>
+  </si>
+  <si>
+    <t>https://github.com/1998lixin/Hardwarecode</t>
+  </si>
+  <si>
+    <t>https://github.com/ArcadeRenegade/SidebarDiagnostics</t>
+  </si>
+  <si>
+    <t>https://github.com/Arlet/verilog-6502</t>
+  </si>
+  <si>
+    <t>https://github.com/BVLC/caffe</t>
+  </si>
+  <si>
+    <t>https://github.com/BradLarson/GPUImage</t>
+  </si>
+  <si>
+    <t>https://github.com/CTurt/Cinoop</t>
+  </si>
+  <si>
+    <t>https://github.com/CrazyPegasus/macOS-Mojave-Compatibility-hardware-list</t>
+  </si>
+  <si>
+    <t>https://github.com/d2l-ai/d2l-en</t>
+  </si>
+  <si>
+    <t>https://github.com/donnyyou/torchcv</t>
+  </si>
+  <si>
+    <t>https://github.com/Hsankesara/DeepResearch</t>
+  </si>
+  <si>
+    <t>https://github.com/rasbt/deeplearning-models</t>
+  </si>
+  <si>
+    <t>https://github.com/dotnet/aspnetcore</t>
+  </si>
+  <si>
+    <t>https://github.com/eclipse-theia/theia</t>
+  </si>
+  <si>
+    <t>https://github.com/apache/apisix</t>
+  </si>
+  <si>
+    <t>https://github.com/onepanelio/onepanel</t>
+  </si>
+  <si>
+    <t>https://github.com/Zulko/easyAI</t>
+  </si>
+  <si>
+    <t>https://github.com/alfredfrancis/ai-chatbot-framework</t>
+  </si>
+  <si>
+    <t>https://github.com/alibaba/weex</t>
+  </si>
+  <si>
+    <t>https://github.com/micro/micro</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="[$-3000401]0"/>
+  </numFmts>
   <fonts count="36">
     <font>
       <sz val="10"/>
@@ -1472,7 +1619,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1660,6 +1807,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1881,11 +2035,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z946"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A179" sqref="A179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6025,11 +6179,17 @@
       <c r="Z118" s="3"/>
     </row>
     <row r="119" spans="1:26" ht="23">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
+      <c r="A119" s="2"/>
+      <c r="B119" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E119" s="7"/>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
@@ -6053,11 +6213,13 @@
       <c r="Z119" s="3"/>
     </row>
     <row r="120" spans="1:26" ht="23">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
+      <c r="A120" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B120" s="12"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
@@ -6081,11 +6243,19 @@
       <c r="Z120" s="3"/>
     </row>
     <row r="121" spans="1:26" ht="23">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
+      <c r="A121" s="69" t="s">
+        <v>415</v>
+      </c>
+      <c r="B121" s="7">
+        <v>1</v>
+      </c>
+      <c r="C121" s="7">
+        <v>1</v>
+      </c>
+      <c r="D121" s="7">
+        <v>1</v>
+      </c>
+      <c r="E121" s="7"/>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
@@ -6109,11 +6279,19 @@
       <c r="Z121" s="3"/>
     </row>
     <row r="122" spans="1:26" ht="23">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
+      <c r="A122" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B122" s="7">
+        <v>1</v>
+      </c>
+      <c r="C122" s="7">
+        <v>1</v>
+      </c>
+      <c r="D122" s="7">
+        <v>1</v>
+      </c>
+      <c r="E122" s="7"/>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
@@ -6137,11 +6315,19 @@
       <c r="Z122" s="3"/>
     </row>
     <row r="123" spans="1:26" ht="23">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
-      <c r="D123" s="3"/>
-      <c r="E123" s="3"/>
+      <c r="A123" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" s="7">
+        <v>0</v>
+      </c>
+      <c r="C123" s="7">
+        <v>0</v>
+      </c>
+      <c r="D123" s="7">
+        <v>0</v>
+      </c>
+      <c r="E123" s="7"/>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
@@ -6165,11 +6351,19 @@
       <c r="Z123" s="3"/>
     </row>
     <row r="124" spans="1:26" ht="23">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
-      <c r="D124" s="3"/>
-      <c r="E124" s="3"/>
+      <c r="A124" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" s="7">
+        <v>0</v>
+      </c>
+      <c r="C124" s="7">
+        <v>0</v>
+      </c>
+      <c r="D124" s="7">
+        <v>0</v>
+      </c>
+      <c r="E124" s="7"/>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
@@ -6193,11 +6387,19 @@
       <c r="Z124" s="3"/>
     </row>
     <row r="125" spans="1:26" ht="23">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
+      <c r="A125" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="B125" s="7">
+        <v>1</v>
+      </c>
+      <c r="C125" s="7">
+        <v>1</v>
+      </c>
+      <c r="D125" s="7">
+        <v>0</v>
+      </c>
+      <c r="E125" s="7"/>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
@@ -6221,11 +6423,19 @@
       <c r="Z125" s="3"/>
     </row>
     <row r="126" spans="1:26" ht="23">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
+      <c r="A126" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" s="7">
+        <v>1</v>
+      </c>
+      <c r="C126" s="7">
+        <v>1</v>
+      </c>
+      <c r="D126" s="7">
+        <v>1</v>
+      </c>
+      <c r="E126" s="7"/>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
@@ -6249,11 +6459,19 @@
       <c r="Z126" s="3"/>
     </row>
     <row r="127" spans="1:26" ht="23">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
+      <c r="A127" s="69" t="s">
+        <v>416</v>
+      </c>
+      <c r="B127" s="7">
+        <v>0</v>
+      </c>
+      <c r="C127" s="7">
+        <v>0</v>
+      </c>
+      <c r="D127" s="7">
+        <v>0</v>
+      </c>
+      <c r="E127" s="7"/>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
@@ -6277,11 +6495,19 @@
       <c r="Z127" s="3"/>
     </row>
     <row r="128" spans="1:26" ht="23">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
+      <c r="A128" s="69" t="s">
+        <v>417</v>
+      </c>
+      <c r="B128" s="7">
+        <v>1</v>
+      </c>
+      <c r="C128" s="7">
+        <v>1</v>
+      </c>
+      <c r="D128" s="7">
+        <v>1</v>
+      </c>
+      <c r="E128" s="7"/>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
@@ -6305,11 +6531,19 @@
       <c r="Z128" s="3"/>
     </row>
     <row r="129" spans="1:26" ht="23">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
+      <c r="A129" s="69" t="s">
+        <v>418</v>
+      </c>
+      <c r="B129" s="7">
+        <v>0</v>
+      </c>
+      <c r="C129" s="7">
+        <v>0</v>
+      </c>
+      <c r="D129" s="7">
+        <v>0</v>
+      </c>
+      <c r="E129" s="7"/>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
@@ -6333,11 +6567,20 @@
       <c r="Z129" s="3"/>
     </row>
     <row r="130" spans="1:26" ht="23">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
+      <c r="A130" s="8"/>
+      <c r="B130" s="10">
+        <v>1</v>
+      </c>
+      <c r="C130" s="10">
+        <v>1</v>
+      </c>
+      <c r="D130" s="10">
+        <v>1</v>
+      </c>
+      <c r="E130" s="10">
+        <f>ROUND(1/3*(1/B130+1/C130+1/D130),2)</f>
+        <v>1</v>
+      </c>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
@@ -6361,11 +6604,13 @@
       <c r="Z130" s="3"/>
     </row>
     <row r="131" spans="1:26" ht="23">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
-      <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
+      <c r="A131" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B131" s="12"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="12"/>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
@@ -6389,11 +6634,19 @@
       <c r="Z131" s="3"/>
     </row>
     <row r="132" spans="1:26" ht="23">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
+      <c r="A132" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="B132" s="7">
+        <v>1</v>
+      </c>
+      <c r="C132" s="7">
+        <v>1</v>
+      </c>
+      <c r="D132" s="7">
+        <v>1</v>
+      </c>
+      <c r="E132" s="7"/>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
@@ -6417,11 +6670,19 @@
       <c r="Z132" s="3"/>
     </row>
     <row r="133" spans="1:26" ht="23">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
+      <c r="A133" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B133" s="7">
+        <v>1</v>
+      </c>
+      <c r="C133" s="7">
+        <v>1</v>
+      </c>
+      <c r="D133" s="7">
+        <v>0</v>
+      </c>
+      <c r="E133" s="7"/>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
@@ -6445,11 +6706,19 @@
       <c r="Z133" s="3"/>
     </row>
     <row r="134" spans="1:26" ht="23">
-      <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
+      <c r="A134" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="B134" s="7">
+        <v>1</v>
+      </c>
+      <c r="C134" s="7">
+        <v>1</v>
+      </c>
+      <c r="D134" s="7">
+        <v>1</v>
+      </c>
+      <c r="E134" s="7"/>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
@@ -6473,11 +6742,19 @@
       <c r="Z134" s="3"/>
     </row>
     <row r="135" spans="1:26" ht="23">
-      <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
+      <c r="A135" s="69" t="s">
+        <v>227</v>
+      </c>
+      <c r="B135" s="7">
+        <v>1</v>
+      </c>
+      <c r="C135" s="7">
+        <v>1</v>
+      </c>
+      <c r="D135" s="7">
+        <v>1</v>
+      </c>
+      <c r="E135" s="7"/>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
@@ -6501,11 +6778,19 @@
       <c r="Z135" s="3"/>
     </row>
     <row r="136" spans="1:26" ht="23">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="3"/>
-      <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
+      <c r="A136" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="B136" s="7">
+        <v>0</v>
+      </c>
+      <c r="C136" s="7">
+        <v>0</v>
+      </c>
+      <c r="D136" s="7">
+        <v>0</v>
+      </c>
+      <c r="E136" s="7"/>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
@@ -6529,11 +6814,19 @@
       <c r="Z136" s="3"/>
     </row>
     <row r="137" spans="1:26" ht="23">
-      <c r="A137" s="3"/>
-      <c r="B137" s="3"/>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
-      <c r="E137" s="3"/>
+      <c r="A137" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B137" s="7">
+        <v>1</v>
+      </c>
+      <c r="C137" s="7">
+        <v>1</v>
+      </c>
+      <c r="D137" s="7">
+        <v>1</v>
+      </c>
+      <c r="E137" s="7"/>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
@@ -6557,11 +6850,19 @@
       <c r="Z137" s="3"/>
     </row>
     <row r="138" spans="1:26" ht="23">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
+      <c r="A138" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B138" s="7">
+        <v>1</v>
+      </c>
+      <c r="C138" s="7">
+        <v>1</v>
+      </c>
+      <c r="D138" s="7">
+        <v>1</v>
+      </c>
+      <c r="E138" s="7"/>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
@@ -6585,11 +6886,19 @@
       <c r="Z138" s="3"/>
     </row>
     <row r="139" spans="1:26" ht="23">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
-      <c r="E139" s="3"/>
+      <c r="A139" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="B139" s="7">
+        <v>1</v>
+      </c>
+      <c r="C139" s="7">
+        <v>1</v>
+      </c>
+      <c r="D139" s="7">
+        <v>1</v>
+      </c>
+      <c r="E139" s="7"/>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
@@ -6613,11 +6922,19 @@
       <c r="Z139" s="3"/>
     </row>
     <row r="140" spans="1:26" ht="23">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
-      <c r="C140" s="3"/>
-      <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
+      <c r="A140" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="B140" s="7">
+        <v>0</v>
+      </c>
+      <c r="C140" s="7">
+        <v>0</v>
+      </c>
+      <c r="D140" s="7">
+        <v>0</v>
+      </c>
+      <c r="E140" s="7"/>
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
@@ -6641,11 +6958,20 @@
       <c r="Z140" s="3"/>
     </row>
     <row r="141" spans="1:26" ht="23">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="3"/>
-      <c r="D141" s="3"/>
-      <c r="E141" s="3"/>
+      <c r="A141" s="8"/>
+      <c r="B141" s="10">
+        <v>1</v>
+      </c>
+      <c r="C141" s="10">
+        <v>1</v>
+      </c>
+      <c r="D141" s="10">
+        <v>1</v>
+      </c>
+      <c r="E141" s="10">
+        <f>ROUND(1/3*(1/B141+1/C141+1/D141),2)</f>
+        <v>1</v>
+      </c>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
@@ -6669,11 +6995,13 @@
       <c r="Z141" s="3"/>
     </row>
     <row r="142" spans="1:26" ht="23">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
-      <c r="D142" s="3"/>
-      <c r="E142" s="3"/>
+      <c r="A142" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B142" s="12"/>
+      <c r="C142" s="12"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="12"/>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
@@ -6697,11 +7025,19 @@
       <c r="Z142" s="3"/>
     </row>
     <row r="143" spans="1:26" ht="23">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
-      <c r="D143" s="3"/>
-      <c r="E143" s="3"/>
+      <c r="A143" s="69" t="s">
+        <v>419</v>
+      </c>
+      <c r="B143" s="7">
+        <v>1</v>
+      </c>
+      <c r="C143" s="7">
+        <v>1</v>
+      </c>
+      <c r="D143" s="7">
+        <v>1</v>
+      </c>
+      <c r="E143" s="7"/>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
@@ -6725,11 +7061,19 @@
       <c r="Z143" s="3"/>
     </row>
     <row r="144" spans="1:26" ht="23">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
-      <c r="D144" s="3"/>
-      <c r="E144" s="3"/>
+      <c r="A144" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="B144" s="7">
+        <v>1</v>
+      </c>
+      <c r="C144" s="7">
+        <v>1</v>
+      </c>
+      <c r="D144" s="7">
+        <v>1</v>
+      </c>
+      <c r="E144" s="7"/>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
@@ -6753,11 +7097,19 @@
       <c r="Z144" s="3"/>
     </row>
     <row r="145" spans="1:26" ht="23">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
-      <c r="D145" s="3"/>
-      <c r="E145" s="3"/>
+      <c r="A145" s="69" t="s">
+        <v>363</v>
+      </c>
+      <c r="B145" s="7">
+        <v>1</v>
+      </c>
+      <c r="C145" s="7">
+        <v>1</v>
+      </c>
+      <c r="D145" s="7">
+        <v>1</v>
+      </c>
+      <c r="E145" s="7"/>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
@@ -6781,11 +7133,19 @@
       <c r="Z145" s="3"/>
     </row>
     <row r="146" spans="1:26" ht="23">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
-      <c r="D146" s="3"/>
-      <c r="E146" s="3"/>
+      <c r="A146" s="69" t="s">
+        <v>420</v>
+      </c>
+      <c r="B146" s="7">
+        <v>1</v>
+      </c>
+      <c r="C146" s="7">
+        <v>1</v>
+      </c>
+      <c r="D146" s="7">
+        <v>1</v>
+      </c>
+      <c r="E146" s="7"/>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
@@ -6809,11 +7169,19 @@
       <c r="Z146" s="3"/>
     </row>
     <row r="147" spans="1:26" ht="23">
-      <c r="A147" s="3"/>
-      <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
-      <c r="D147" s="3"/>
-      <c r="E147" s="3"/>
+      <c r="A147" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="B147" s="7">
+        <v>0</v>
+      </c>
+      <c r="C147" s="7">
+        <v>0</v>
+      </c>
+      <c r="D147" s="7">
+        <v>0</v>
+      </c>
+      <c r="E147" s="7"/>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
@@ -6837,11 +7205,19 @@
       <c r="Z147" s="3"/>
     </row>
     <row r="148" spans="1:26" ht="23">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
-      <c r="D148" s="3"/>
-      <c r="E148" s="3"/>
+      <c r="A148" s="69" t="s">
+        <v>421</v>
+      </c>
+      <c r="B148" s="7">
+        <v>0</v>
+      </c>
+      <c r="C148" s="7">
+        <v>0</v>
+      </c>
+      <c r="D148" s="7">
+        <v>0</v>
+      </c>
+      <c r="E148" s="7"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
@@ -6865,11 +7241,19 @@
       <c r="Z148" s="3"/>
     </row>
     <row r="149" spans="1:26" ht="23">
-      <c r="A149" s="3"/>
-      <c r="B149" s="3"/>
-      <c r="C149" s="3"/>
-      <c r="D149" s="3"/>
-      <c r="E149" s="3"/>
+      <c r="A149" s="69" t="s">
+        <v>422</v>
+      </c>
+      <c r="B149" s="7">
+        <v>0</v>
+      </c>
+      <c r="C149" s="7">
+        <v>0</v>
+      </c>
+      <c r="D149" s="7">
+        <v>0</v>
+      </c>
+      <c r="E149" s="7"/>
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
@@ -6893,11 +7277,19 @@
       <c r="Z149" s="3"/>
     </row>
     <row r="150" spans="1:26" ht="23">
-      <c r="A150" s="3"/>
-      <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
-      <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
+      <c r="A150" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="B150" s="7">
+        <v>0</v>
+      </c>
+      <c r="C150" s="7">
+        <v>0</v>
+      </c>
+      <c r="D150" s="7">
+        <v>0</v>
+      </c>
+      <c r="E150" s="7"/>
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
@@ -6921,11 +7313,19 @@
       <c r="Z150" s="3"/>
     </row>
     <row r="151" spans="1:26" ht="23">
-      <c r="A151" s="3"/>
-      <c r="B151" s="3"/>
-      <c r="C151" s="3"/>
-      <c r="D151" s="3"/>
-      <c r="E151" s="3"/>
+      <c r="A151" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="B151" s="7">
+        <v>0</v>
+      </c>
+      <c r="C151" s="7">
+        <v>0</v>
+      </c>
+      <c r="D151" s="7">
+        <v>0</v>
+      </c>
+      <c r="E151" s="7"/>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
@@ -6949,11 +7349,20 @@
       <c r="Z151" s="3"/>
     </row>
     <row r="152" spans="1:26" ht="23">
-      <c r="A152" s="3"/>
-      <c r="B152" s="3"/>
-      <c r="C152" s="3"/>
-      <c r="D152" s="3"/>
-      <c r="E152" s="3"/>
+      <c r="A152" s="8"/>
+      <c r="B152" s="10">
+        <v>1</v>
+      </c>
+      <c r="C152" s="10">
+        <v>1</v>
+      </c>
+      <c r="D152" s="10">
+        <v>1</v>
+      </c>
+      <c r="E152" s="10">
+        <f>ROUND(1/3*(1/B152+1/C152+1/D152),2)</f>
+        <v>1</v>
+      </c>
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
@@ -6977,11 +7386,13 @@
       <c r="Z152" s="3"/>
     </row>
     <row r="153" spans="1:26" ht="23">
-      <c r="A153" s="3"/>
-      <c r="B153" s="3"/>
-      <c r="C153" s="3"/>
-      <c r="D153" s="3"/>
-      <c r="E153" s="3"/>
+      <c r="A153" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B153" s="12"/>
+      <c r="C153" s="12"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12"/>
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
@@ -7005,11 +7416,19 @@
       <c r="Z153" s="3"/>
     </row>
     <row r="154" spans="1:26" ht="23">
-      <c r="A154" s="3"/>
-      <c r="B154" s="3"/>
-      <c r="C154" s="3"/>
-      <c r="D154" s="3"/>
-      <c r="E154" s="3"/>
+      <c r="A154" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="B154" s="7">
+        <v>1</v>
+      </c>
+      <c r="C154" s="7">
+        <v>1</v>
+      </c>
+      <c r="D154" s="7">
+        <v>1</v>
+      </c>
+      <c r="E154" s="7"/>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
@@ -7033,11 +7452,19 @@
       <c r="Z154" s="3"/>
     </row>
     <row r="155" spans="1:26" ht="23">
-      <c r="A155" s="3"/>
-      <c r="B155" s="3"/>
-      <c r="C155" s="3"/>
-      <c r="D155" s="3"/>
-      <c r="E155" s="3"/>
+      <c r="A155" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="B155" s="7">
+        <v>0</v>
+      </c>
+      <c r="C155" s="7">
+        <v>0</v>
+      </c>
+      <c r="D155" s="7">
+        <v>0</v>
+      </c>
+      <c r="E155" s="7"/>
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
@@ -7061,11 +7488,19 @@
       <c r="Z155" s="3"/>
     </row>
     <row r="156" spans="1:26" ht="23">
-      <c r="A156" s="3"/>
-      <c r="B156" s="3"/>
-      <c r="C156" s="3"/>
-      <c r="D156" s="3"/>
-      <c r="E156" s="3"/>
+      <c r="A156" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="B156" s="7">
+        <v>1</v>
+      </c>
+      <c r="C156" s="7">
+        <v>1</v>
+      </c>
+      <c r="D156" s="7">
+        <v>1</v>
+      </c>
+      <c r="E156" s="7"/>
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
@@ -7089,11 +7524,19 @@
       <c r="Z156" s="3"/>
     </row>
     <row r="157" spans="1:26" ht="23">
-      <c r="A157" s="3"/>
-      <c r="B157" s="3"/>
-      <c r="C157" s="3"/>
-      <c r="D157" s="3"/>
-      <c r="E157" s="3"/>
+      <c r="A157" s="69" t="s">
+        <v>423</v>
+      </c>
+      <c r="B157" s="7">
+        <v>0</v>
+      </c>
+      <c r="C157" s="7">
+        <v>0</v>
+      </c>
+      <c r="D157" s="7">
+        <v>0</v>
+      </c>
+      <c r="E157" s="7"/>
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
@@ -7117,11 +7560,19 @@
       <c r="Z157" s="3"/>
     </row>
     <row r="158" spans="1:26" ht="23">
-      <c r="A158" s="3"/>
-      <c r="B158" s="3"/>
-      <c r="C158" s="3"/>
-      <c r="D158" s="3"/>
-      <c r="E158" s="3"/>
+      <c r="A158" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="B158" s="7">
+        <v>0</v>
+      </c>
+      <c r="C158" s="7">
+        <v>0</v>
+      </c>
+      <c r="D158" s="7">
+        <v>1</v>
+      </c>
+      <c r="E158" s="7"/>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
@@ -7145,11 +7596,19 @@
       <c r="Z158" s="3"/>
     </row>
     <row r="159" spans="1:26" ht="23">
-      <c r="A159" s="3"/>
-      <c r="B159" s="3"/>
-      <c r="C159" s="3"/>
-      <c r="D159" s="3"/>
-      <c r="E159" s="3"/>
+      <c r="A159" s="69" t="s">
+        <v>280</v>
+      </c>
+      <c r="B159" s="7">
+        <v>1</v>
+      </c>
+      <c r="C159" s="7">
+        <v>0</v>
+      </c>
+      <c r="D159" s="7">
+        <v>0</v>
+      </c>
+      <c r="E159" s="7"/>
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
@@ -7173,11 +7632,19 @@
       <c r="Z159" s="3"/>
     </row>
     <row r="160" spans="1:26" ht="23">
-      <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
-      <c r="C160" s="3"/>
-      <c r="D160" s="3"/>
-      <c r="E160" s="3"/>
+      <c r="A160" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="B160" s="7">
+        <v>1</v>
+      </c>
+      <c r="C160" s="7">
+        <v>0</v>
+      </c>
+      <c r="D160" s="7">
+        <v>0</v>
+      </c>
+      <c r="E160" s="7"/>
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
@@ -7201,11 +7668,19 @@
       <c r="Z160" s="3"/>
     </row>
     <row r="161" spans="1:26" ht="23">
-      <c r="A161" s="3"/>
-      <c r="B161" s="3"/>
-      <c r="C161" s="3"/>
-      <c r="D161" s="3"/>
-      <c r="E161" s="3"/>
+      <c r="A161" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="B161" s="7">
+        <v>0</v>
+      </c>
+      <c r="C161" s="7">
+        <v>0</v>
+      </c>
+      <c r="D161" s="7">
+        <v>0</v>
+      </c>
+      <c r="E161" s="7"/>
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
@@ -7229,11 +7704,19 @@
       <c r="Z161" s="3"/>
     </row>
     <row r="162" spans="1:26" ht="23">
-      <c r="A162" s="3"/>
-      <c r="B162" s="3"/>
-      <c r="C162" s="3"/>
-      <c r="D162" s="3"/>
-      <c r="E162" s="3"/>
+      <c r="A162" s="69" t="s">
+        <v>424</v>
+      </c>
+      <c r="B162" s="7">
+        <v>1</v>
+      </c>
+      <c r="C162" s="7">
+        <v>1</v>
+      </c>
+      <c r="D162" s="7">
+        <v>1</v>
+      </c>
+      <c r="E162" s="7"/>
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
@@ -7257,11 +7740,20 @@
       <c r="Z162" s="3"/>
     </row>
     <row r="163" spans="1:26" ht="23">
-      <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
-      <c r="C163" s="3"/>
-      <c r="D163" s="3"/>
-      <c r="E163" s="3"/>
+      <c r="A163" s="8"/>
+      <c r="B163" s="10">
+        <v>1</v>
+      </c>
+      <c r="C163" s="10">
+        <v>1</v>
+      </c>
+      <c r="D163" s="10">
+        <v>1</v>
+      </c>
+      <c r="E163" s="10">
+        <f>ROUND(1/3*(1/B163+1/C163+1/D163),2)</f>
+        <v>1</v>
+      </c>
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
@@ -7285,11 +7777,13 @@
       <c r="Z163" s="3"/>
     </row>
     <row r="164" spans="1:26" ht="23">
-      <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
-      <c r="C164" s="3"/>
-      <c r="D164" s="3"/>
-      <c r="E164" s="3"/>
+      <c r="A164" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B164" s="12"/>
+      <c r="C164" s="12"/>
+      <c r="D164" s="12"/>
+      <c r="E164" s="12"/>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
@@ -7313,11 +7807,19 @@
       <c r="Z164" s="3"/>
     </row>
     <row r="165" spans="1:26" ht="23">
-      <c r="A165" s="3"/>
-      <c r="B165" s="3"/>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
-      <c r="E165" s="3"/>
+      <c r="A165" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="B165" s="7">
+        <v>1</v>
+      </c>
+      <c r="C165" s="7">
+        <v>1</v>
+      </c>
+      <c r="D165" s="7">
+        <v>1</v>
+      </c>
+      <c r="E165" s="7"/>
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
@@ -7341,11 +7843,19 @@
       <c r="Z165" s="3"/>
     </row>
     <row r="166" spans="1:26" ht="23">
-      <c r="A166" s="3"/>
-      <c r="B166" s="3"/>
-      <c r="C166" s="3"/>
-      <c r="D166" s="3"/>
-      <c r="E166" s="3"/>
+      <c r="A166" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="B166" s="7">
+        <v>1</v>
+      </c>
+      <c r="C166" s="7">
+        <v>1</v>
+      </c>
+      <c r="D166" s="7">
+        <v>1</v>
+      </c>
+      <c r="E166" s="7"/>
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
@@ -7369,11 +7879,19 @@
       <c r="Z166" s="3"/>
     </row>
     <row r="167" spans="1:26" ht="23">
-      <c r="A167" s="3"/>
-      <c r="B167" s="3"/>
-      <c r="C167" s="3"/>
-      <c r="D167" s="3"/>
-      <c r="E167" s="3"/>
+      <c r="A167" s="69" t="s">
+        <v>419</v>
+      </c>
+      <c r="B167" s="7">
+        <v>1</v>
+      </c>
+      <c r="C167" s="7">
+        <v>1</v>
+      </c>
+      <c r="D167" s="7">
+        <v>0</v>
+      </c>
+      <c r="E167" s="7"/>
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
@@ -7397,11 +7915,19 @@
       <c r="Z167" s="3"/>
     </row>
     <row r="168" spans="1:26" ht="23">
-      <c r="A168" s="3"/>
-      <c r="B168" s="3"/>
-      <c r="C168" s="3"/>
-      <c r="D168" s="3"/>
-      <c r="E168" s="3"/>
+      <c r="A168" s="69" t="s">
+        <v>425</v>
+      </c>
+      <c r="B168" s="7">
+        <v>1</v>
+      </c>
+      <c r="C168" s="7">
+        <v>0</v>
+      </c>
+      <c r="D168" s="7">
+        <v>1</v>
+      </c>
+      <c r="E168" s="7"/>
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
@@ -7425,11 +7951,19 @@
       <c r="Z168" s="3"/>
     </row>
     <row r="169" spans="1:26" ht="23">
-      <c r="A169" s="3"/>
-      <c r="B169" s="3"/>
-      <c r="C169" s="3"/>
-      <c r="D169" s="3"/>
-      <c r="E169" s="3"/>
+      <c r="A169" s="69" t="s">
+        <v>426</v>
+      </c>
+      <c r="B169" s="7">
+        <v>1</v>
+      </c>
+      <c r="C169" s="7">
+        <v>1</v>
+      </c>
+      <c r="D169" s="7">
+        <v>0</v>
+      </c>
+      <c r="E169" s="7"/>
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
@@ -7453,11 +7987,19 @@
       <c r="Z169" s="3"/>
     </row>
     <row r="170" spans="1:26" ht="23">
-      <c r="A170" s="3"/>
-      <c r="B170" s="3"/>
-      <c r="C170" s="3"/>
-      <c r="D170" s="3"/>
-      <c r="E170" s="3"/>
+      <c r="A170" s="69" t="s">
+        <v>420</v>
+      </c>
+      <c r="B170" s="7">
+        <v>0</v>
+      </c>
+      <c r="C170" s="7">
+        <v>0</v>
+      </c>
+      <c r="D170" s="7">
+        <v>0</v>
+      </c>
+      <c r="E170" s="7"/>
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
@@ -7481,11 +8023,19 @@
       <c r="Z170" s="3"/>
     </row>
     <row r="171" spans="1:26" ht="23">
-      <c r="A171" s="3"/>
-      <c r="B171" s="3"/>
-      <c r="C171" s="3"/>
-      <c r="D171" s="3"/>
-      <c r="E171" s="3"/>
+      <c r="A171" s="69" t="s">
+        <v>422</v>
+      </c>
+      <c r="B171" s="7">
+        <v>1</v>
+      </c>
+      <c r="C171" s="7">
+        <v>0</v>
+      </c>
+      <c r="D171" s="7">
+        <v>0</v>
+      </c>
+      <c r="E171" s="7"/>
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
@@ -7509,11 +8059,19 @@
       <c r="Z171" s="3"/>
     </row>
     <row r="172" spans="1:26" ht="23">
-      <c r="A172" s="3"/>
-      <c r="B172" s="3"/>
-      <c r="C172" s="3"/>
-      <c r="D172" s="3"/>
-      <c r="E172" s="3"/>
+      <c r="A172" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="B172" s="7">
+        <v>1</v>
+      </c>
+      <c r="C172" s="7">
+        <v>1</v>
+      </c>
+      <c r="D172" s="7">
+        <v>1</v>
+      </c>
+      <c r="E172" s="7"/>
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
@@ -7537,11 +8095,19 @@
       <c r="Z172" s="3"/>
     </row>
     <row r="173" spans="1:26" ht="23">
-      <c r="A173" s="3"/>
-      <c r="B173" s="3"/>
-      <c r="C173" s="3"/>
-      <c r="D173" s="3"/>
-      <c r="E173" s="3"/>
+      <c r="A173" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="B173" s="7">
+        <v>0</v>
+      </c>
+      <c r="C173" s="7">
+        <v>0</v>
+      </c>
+      <c r="D173" s="7">
+        <v>0</v>
+      </c>
+      <c r="E173" s="7"/>
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
@@ -7565,11 +8131,20 @@
       <c r="Z173" s="3"/>
     </row>
     <row r="174" spans="1:26" ht="23">
-      <c r="A174" s="3"/>
-      <c r="B174" s="3"/>
-      <c r="C174" s="3"/>
-      <c r="D174" s="3"/>
-      <c r="E174" s="3"/>
+      <c r="A174" s="8"/>
+      <c r="B174" s="10">
+        <v>1</v>
+      </c>
+      <c r="C174" s="10">
+        <v>1</v>
+      </c>
+      <c r="D174" s="10">
+        <v>1</v>
+      </c>
+      <c r="E174" s="10">
+        <f>ROUND(1/3*(1/B174+1/C174+1/D174),2)</f>
+        <v>1</v>
+      </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
@@ -7593,11 +8168,25 @@
       <c r="Z174" s="3"/>
     </row>
     <row r="175" spans="1:26" ht="23">
-      <c r="A175" s="3"/>
-      <c r="B175" s="3"/>
-      <c r="C175" s="3"/>
-      <c r="D175" s="3"/>
-      <c r="E175" s="3"/>
+      <c r="A175" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B175" s="46">
+        <f>ROUND(AVERAGE(1/B130,1/B141,1/B152, 1/B163, 1/B174), 2)</f>
+        <v>1</v>
+      </c>
+      <c r="C175" s="46">
+        <f>ROUND(AVERAGE(1/C130,1/C141,1/C152, 1/C163, 1/C174), 2)</f>
+        <v>1</v>
+      </c>
+      <c r="D175" s="46">
+        <f>ROUND(AVERAGE(1/D130,1/D141,1/D152, 1/D163, 1/D174), 2)</f>
+        <v>1</v>
+      </c>
+      <c r="E175" s="46">
+        <f>ROUND(AVERAGE(B175:D175),2)</f>
+        <v>1</v>
+      </c>
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
@@ -29207,1518 +29796,6 @@
       <c r="X946" s="3"/>
       <c r="Y946" s="3"/>
       <c r="Z946" s="3"/>
-    </row>
-    <row r="947" spans="1:26" ht="23">
-      <c r="A947" s="3"/>
-      <c r="B947" s="3"/>
-      <c r="C947" s="3"/>
-      <c r="D947" s="3"/>
-      <c r="E947" s="3"/>
-      <c r="F947" s="3"/>
-      <c r="G947" s="3"/>
-      <c r="H947" s="3"/>
-      <c r="I947" s="3"/>
-      <c r="J947" s="3"/>
-      <c r="K947" s="3"/>
-      <c r="L947" s="3"/>
-      <c r="M947" s="3"/>
-      <c r="N947" s="3"/>
-      <c r="O947" s="3"/>
-      <c r="P947" s="3"/>
-      <c r="Q947" s="3"/>
-      <c r="R947" s="3"/>
-      <c r="S947" s="3"/>
-      <c r="T947" s="3"/>
-      <c r="U947" s="3"/>
-      <c r="V947" s="3"/>
-      <c r="W947" s="3"/>
-      <c r="X947" s="3"/>
-      <c r="Y947" s="3"/>
-      <c r="Z947" s="3"/>
-    </row>
-    <row r="948" spans="1:26" ht="23">
-      <c r="A948" s="3"/>
-      <c r="B948" s="3"/>
-      <c r="C948" s="3"/>
-      <c r="D948" s="3"/>
-      <c r="E948" s="3"/>
-      <c r="F948" s="3"/>
-      <c r="G948" s="3"/>
-      <c r="H948" s="3"/>
-      <c r="I948" s="3"/>
-      <c r="J948" s="3"/>
-      <c r="K948" s="3"/>
-      <c r="L948" s="3"/>
-      <c r="M948" s="3"/>
-      <c r="N948" s="3"/>
-      <c r="O948" s="3"/>
-      <c r="P948" s="3"/>
-      <c r="Q948" s="3"/>
-      <c r="R948" s="3"/>
-      <c r="S948" s="3"/>
-      <c r="T948" s="3"/>
-      <c r="U948" s="3"/>
-      <c r="V948" s="3"/>
-      <c r="W948" s="3"/>
-      <c r="X948" s="3"/>
-      <c r="Y948" s="3"/>
-      <c r="Z948" s="3"/>
-    </row>
-    <row r="949" spans="1:26" ht="23">
-      <c r="A949" s="3"/>
-      <c r="B949" s="3"/>
-      <c r="C949" s="3"/>
-      <c r="D949" s="3"/>
-      <c r="E949" s="3"/>
-      <c r="F949" s="3"/>
-      <c r="G949" s="3"/>
-      <c r="H949" s="3"/>
-      <c r="I949" s="3"/>
-      <c r="J949" s="3"/>
-      <c r="K949" s="3"/>
-      <c r="L949" s="3"/>
-      <c r="M949" s="3"/>
-      <c r="N949" s="3"/>
-      <c r="O949" s="3"/>
-      <c r="P949" s="3"/>
-      <c r="Q949" s="3"/>
-      <c r="R949" s="3"/>
-      <c r="S949" s="3"/>
-      <c r="T949" s="3"/>
-      <c r="U949" s="3"/>
-      <c r="V949" s="3"/>
-      <c r="W949" s="3"/>
-      <c r="X949" s="3"/>
-      <c r="Y949" s="3"/>
-      <c r="Z949" s="3"/>
-    </row>
-    <row r="950" spans="1:26" ht="23">
-      <c r="A950" s="3"/>
-      <c r="B950" s="3"/>
-      <c r="C950" s="3"/>
-      <c r="D950" s="3"/>
-      <c r="E950" s="3"/>
-      <c r="F950" s="3"/>
-      <c r="G950" s="3"/>
-      <c r="H950" s="3"/>
-      <c r="I950" s="3"/>
-      <c r="J950" s="3"/>
-      <c r="K950" s="3"/>
-      <c r="L950" s="3"/>
-      <c r="M950" s="3"/>
-      <c r="N950" s="3"/>
-      <c r="O950" s="3"/>
-      <c r="P950" s="3"/>
-      <c r="Q950" s="3"/>
-      <c r="R950" s="3"/>
-      <c r="S950" s="3"/>
-      <c r="T950" s="3"/>
-      <c r="U950" s="3"/>
-      <c r="V950" s="3"/>
-      <c r="W950" s="3"/>
-      <c r="X950" s="3"/>
-      <c r="Y950" s="3"/>
-      <c r="Z950" s="3"/>
-    </row>
-    <row r="951" spans="1:26" ht="23">
-      <c r="A951" s="3"/>
-      <c r="B951" s="3"/>
-      <c r="C951" s="3"/>
-      <c r="D951" s="3"/>
-      <c r="E951" s="3"/>
-      <c r="F951" s="3"/>
-      <c r="G951" s="3"/>
-      <c r="H951" s="3"/>
-      <c r="I951" s="3"/>
-      <c r="J951" s="3"/>
-      <c r="K951" s="3"/>
-      <c r="L951" s="3"/>
-      <c r="M951" s="3"/>
-      <c r="N951" s="3"/>
-      <c r="O951" s="3"/>
-      <c r="P951" s="3"/>
-      <c r="Q951" s="3"/>
-      <c r="R951" s="3"/>
-      <c r="S951" s="3"/>
-      <c r="T951" s="3"/>
-      <c r="U951" s="3"/>
-      <c r="V951" s="3"/>
-      <c r="W951" s="3"/>
-      <c r="X951" s="3"/>
-      <c r="Y951" s="3"/>
-      <c r="Z951" s="3"/>
-    </row>
-    <row r="952" spans="1:26" ht="23">
-      <c r="A952" s="3"/>
-      <c r="B952" s="3"/>
-      <c r="C952" s="3"/>
-      <c r="D952" s="3"/>
-      <c r="E952" s="3"/>
-      <c r="F952" s="3"/>
-      <c r="G952" s="3"/>
-      <c r="H952" s="3"/>
-      <c r="I952" s="3"/>
-      <c r="J952" s="3"/>
-      <c r="K952" s="3"/>
-      <c r="L952" s="3"/>
-      <c r="M952" s="3"/>
-      <c r="N952" s="3"/>
-      <c r="O952" s="3"/>
-      <c r="P952" s="3"/>
-      <c r="Q952" s="3"/>
-      <c r="R952" s="3"/>
-      <c r="S952" s="3"/>
-      <c r="T952" s="3"/>
-      <c r="U952" s="3"/>
-      <c r="V952" s="3"/>
-      <c r="W952" s="3"/>
-      <c r="X952" s="3"/>
-      <c r="Y952" s="3"/>
-      <c r="Z952" s="3"/>
-    </row>
-    <row r="953" spans="1:26" ht="23">
-      <c r="A953" s="3"/>
-      <c r="B953" s="3"/>
-      <c r="C953" s="3"/>
-      <c r="D953" s="3"/>
-      <c r="E953" s="3"/>
-      <c r="F953" s="3"/>
-      <c r="G953" s="3"/>
-      <c r="H953" s="3"/>
-      <c r="I953" s="3"/>
-      <c r="J953" s="3"/>
-      <c r="K953" s="3"/>
-      <c r="L953" s="3"/>
-      <c r="M953" s="3"/>
-      <c r="N953" s="3"/>
-      <c r="O953" s="3"/>
-      <c r="P953" s="3"/>
-      <c r="Q953" s="3"/>
-      <c r="R953" s="3"/>
-      <c r="S953" s="3"/>
-      <c r="T953" s="3"/>
-      <c r="U953" s="3"/>
-      <c r="V953" s="3"/>
-      <c r="W953" s="3"/>
-      <c r="X953" s="3"/>
-      <c r="Y953" s="3"/>
-      <c r="Z953" s="3"/>
-    </row>
-    <row r="954" spans="1:26" ht="23">
-      <c r="A954" s="3"/>
-      <c r="B954" s="3"/>
-      <c r="C954" s="3"/>
-      <c r="D954" s="3"/>
-      <c r="E954" s="3"/>
-      <c r="F954" s="3"/>
-      <c r="G954" s="3"/>
-      <c r="H954" s="3"/>
-      <c r="I954" s="3"/>
-      <c r="J954" s="3"/>
-      <c r="K954" s="3"/>
-      <c r="L954" s="3"/>
-      <c r="M954" s="3"/>
-      <c r="N954" s="3"/>
-      <c r="O954" s="3"/>
-      <c r="P954" s="3"/>
-      <c r="Q954" s="3"/>
-      <c r="R954" s="3"/>
-      <c r="S954" s="3"/>
-      <c r="T954" s="3"/>
-      <c r="U954" s="3"/>
-      <c r="V954" s="3"/>
-      <c r="W954" s="3"/>
-      <c r="X954" s="3"/>
-      <c r="Y954" s="3"/>
-      <c r="Z954" s="3"/>
-    </row>
-    <row r="955" spans="1:26" ht="23">
-      <c r="A955" s="3"/>
-      <c r="B955" s="3"/>
-      <c r="C955" s="3"/>
-      <c r="D955" s="3"/>
-      <c r="E955" s="3"/>
-      <c r="F955" s="3"/>
-      <c r="G955" s="3"/>
-      <c r="H955" s="3"/>
-      <c r="I955" s="3"/>
-      <c r="J955" s="3"/>
-      <c r="K955" s="3"/>
-      <c r="L955" s="3"/>
-      <c r="M955" s="3"/>
-      <c r="N955" s="3"/>
-      <c r="O955" s="3"/>
-      <c r="P955" s="3"/>
-      <c r="Q955" s="3"/>
-      <c r="R955" s="3"/>
-      <c r="S955" s="3"/>
-      <c r="T955" s="3"/>
-      <c r="U955" s="3"/>
-      <c r="V955" s="3"/>
-      <c r="W955" s="3"/>
-      <c r="X955" s="3"/>
-      <c r="Y955" s="3"/>
-      <c r="Z955" s="3"/>
-    </row>
-    <row r="956" spans="1:26" ht="23">
-      <c r="A956" s="3"/>
-      <c r="B956" s="3"/>
-      <c r="C956" s="3"/>
-      <c r="D956" s="3"/>
-      <c r="E956" s="3"/>
-      <c r="F956" s="3"/>
-      <c r="G956" s="3"/>
-      <c r="H956" s="3"/>
-      <c r="I956" s="3"/>
-      <c r="J956" s="3"/>
-      <c r="K956" s="3"/>
-      <c r="L956" s="3"/>
-      <c r="M956" s="3"/>
-      <c r="N956" s="3"/>
-      <c r="O956" s="3"/>
-      <c r="P956" s="3"/>
-      <c r="Q956" s="3"/>
-      <c r="R956" s="3"/>
-      <c r="S956" s="3"/>
-      <c r="T956" s="3"/>
-      <c r="U956" s="3"/>
-      <c r="V956" s="3"/>
-      <c r="W956" s="3"/>
-      <c r="X956" s="3"/>
-      <c r="Y956" s="3"/>
-      <c r="Z956" s="3"/>
-    </row>
-    <row r="957" spans="1:26" ht="23">
-      <c r="A957" s="3"/>
-      <c r="B957" s="3"/>
-      <c r="C957" s="3"/>
-      <c r="D957" s="3"/>
-      <c r="E957" s="3"/>
-      <c r="F957" s="3"/>
-      <c r="G957" s="3"/>
-      <c r="H957" s="3"/>
-      <c r="I957" s="3"/>
-      <c r="J957" s="3"/>
-      <c r="K957" s="3"/>
-      <c r="L957" s="3"/>
-      <c r="M957" s="3"/>
-      <c r="N957" s="3"/>
-      <c r="O957" s="3"/>
-      <c r="P957" s="3"/>
-      <c r="Q957" s="3"/>
-      <c r="R957" s="3"/>
-      <c r="S957" s="3"/>
-      <c r="T957" s="3"/>
-      <c r="U957" s="3"/>
-      <c r="V957" s="3"/>
-      <c r="W957" s="3"/>
-      <c r="X957" s="3"/>
-      <c r="Y957" s="3"/>
-      <c r="Z957" s="3"/>
-    </row>
-    <row r="958" spans="1:26" ht="23">
-      <c r="A958" s="3"/>
-      <c r="B958" s="3"/>
-      <c r="C958" s="3"/>
-      <c r="D958" s="3"/>
-      <c r="E958" s="3"/>
-      <c r="F958" s="3"/>
-      <c r="G958" s="3"/>
-      <c r="H958" s="3"/>
-      <c r="I958" s="3"/>
-      <c r="J958" s="3"/>
-      <c r="K958" s="3"/>
-      <c r="L958" s="3"/>
-      <c r="M958" s="3"/>
-      <c r="N958" s="3"/>
-      <c r="O958" s="3"/>
-      <c r="P958" s="3"/>
-      <c r="Q958" s="3"/>
-      <c r="R958" s="3"/>
-      <c r="S958" s="3"/>
-      <c r="T958" s="3"/>
-      <c r="U958" s="3"/>
-      <c r="V958" s="3"/>
-      <c r="W958" s="3"/>
-      <c r="X958" s="3"/>
-      <c r="Y958" s="3"/>
-      <c r="Z958" s="3"/>
-    </row>
-    <row r="959" spans="1:26" ht="23">
-      <c r="A959" s="3"/>
-      <c r="B959" s="3"/>
-      <c r="C959" s="3"/>
-      <c r="D959" s="3"/>
-      <c r="E959" s="3"/>
-      <c r="F959" s="3"/>
-      <c r="G959" s="3"/>
-      <c r="H959" s="3"/>
-      <c r="I959" s="3"/>
-      <c r="J959" s="3"/>
-      <c r="K959" s="3"/>
-      <c r="L959" s="3"/>
-      <c r="M959" s="3"/>
-      <c r="N959" s="3"/>
-      <c r="O959" s="3"/>
-      <c r="P959" s="3"/>
-      <c r="Q959" s="3"/>
-      <c r="R959" s="3"/>
-      <c r="S959" s="3"/>
-      <c r="T959" s="3"/>
-      <c r="U959" s="3"/>
-      <c r="V959" s="3"/>
-      <c r="W959" s="3"/>
-      <c r="X959" s="3"/>
-      <c r="Y959" s="3"/>
-      <c r="Z959" s="3"/>
-    </row>
-    <row r="960" spans="1:26" ht="23">
-      <c r="A960" s="3"/>
-      <c r="B960" s="3"/>
-      <c r="C960" s="3"/>
-      <c r="D960" s="3"/>
-      <c r="E960" s="3"/>
-      <c r="F960" s="3"/>
-      <c r="G960" s="3"/>
-      <c r="H960" s="3"/>
-      <c r="I960" s="3"/>
-      <c r="J960" s="3"/>
-      <c r="K960" s="3"/>
-      <c r="L960" s="3"/>
-      <c r="M960" s="3"/>
-      <c r="N960" s="3"/>
-      <c r="O960" s="3"/>
-      <c r="P960" s="3"/>
-      <c r="Q960" s="3"/>
-      <c r="R960" s="3"/>
-      <c r="S960" s="3"/>
-      <c r="T960" s="3"/>
-      <c r="U960" s="3"/>
-      <c r="V960" s="3"/>
-      <c r="W960" s="3"/>
-      <c r="X960" s="3"/>
-      <c r="Y960" s="3"/>
-      <c r="Z960" s="3"/>
-    </row>
-    <row r="961" spans="1:26" ht="23">
-      <c r="A961" s="3"/>
-      <c r="B961" s="3"/>
-      <c r="C961" s="3"/>
-      <c r="D961" s="3"/>
-      <c r="E961" s="3"/>
-      <c r="F961" s="3"/>
-      <c r="G961" s="3"/>
-      <c r="H961" s="3"/>
-      <c r="I961" s="3"/>
-      <c r="J961" s="3"/>
-      <c r="K961" s="3"/>
-      <c r="L961" s="3"/>
-      <c r="M961" s="3"/>
-      <c r="N961" s="3"/>
-      <c r="O961" s="3"/>
-      <c r="P961" s="3"/>
-      <c r="Q961" s="3"/>
-      <c r="R961" s="3"/>
-      <c r="S961" s="3"/>
-      <c r="T961" s="3"/>
-      <c r="U961" s="3"/>
-      <c r="V961" s="3"/>
-      <c r="W961" s="3"/>
-      <c r="X961" s="3"/>
-      <c r="Y961" s="3"/>
-      <c r="Z961" s="3"/>
-    </row>
-    <row r="962" spans="1:26" ht="23">
-      <c r="A962" s="3"/>
-      <c r="B962" s="3"/>
-      <c r="C962" s="3"/>
-      <c r="D962" s="3"/>
-      <c r="E962" s="3"/>
-      <c r="F962" s="3"/>
-      <c r="G962" s="3"/>
-      <c r="H962" s="3"/>
-      <c r="I962" s="3"/>
-      <c r="J962" s="3"/>
-      <c r="K962" s="3"/>
-      <c r="L962" s="3"/>
-      <c r="M962" s="3"/>
-      <c r="N962" s="3"/>
-      <c r="O962" s="3"/>
-      <c r="P962" s="3"/>
-      <c r="Q962" s="3"/>
-      <c r="R962" s="3"/>
-      <c r="S962" s="3"/>
-      <c r="T962" s="3"/>
-      <c r="U962" s="3"/>
-      <c r="V962" s="3"/>
-      <c r="W962" s="3"/>
-      <c r="X962" s="3"/>
-      <c r="Y962" s="3"/>
-      <c r="Z962" s="3"/>
-    </row>
-    <row r="963" spans="1:26" ht="23">
-      <c r="A963" s="3"/>
-      <c r="B963" s="3"/>
-      <c r="C963" s="3"/>
-      <c r="D963" s="3"/>
-      <c r="E963" s="3"/>
-      <c r="F963" s="3"/>
-      <c r="G963" s="3"/>
-      <c r="H963" s="3"/>
-      <c r="I963" s="3"/>
-      <c r="J963" s="3"/>
-      <c r="K963" s="3"/>
-      <c r="L963" s="3"/>
-      <c r="M963" s="3"/>
-      <c r="N963" s="3"/>
-      <c r="O963" s="3"/>
-      <c r="P963" s="3"/>
-      <c r="Q963" s="3"/>
-      <c r="R963" s="3"/>
-      <c r="S963" s="3"/>
-      <c r="T963" s="3"/>
-      <c r="U963" s="3"/>
-      <c r="V963" s="3"/>
-      <c r="W963" s="3"/>
-      <c r="X963" s="3"/>
-      <c r="Y963" s="3"/>
-      <c r="Z963" s="3"/>
-    </row>
-    <row r="964" spans="1:26" ht="23">
-      <c r="A964" s="3"/>
-      <c r="B964" s="3"/>
-      <c r="C964" s="3"/>
-      <c r="D964" s="3"/>
-      <c r="E964" s="3"/>
-      <c r="F964" s="3"/>
-      <c r="G964" s="3"/>
-      <c r="H964" s="3"/>
-      <c r="I964" s="3"/>
-      <c r="J964" s="3"/>
-      <c r="K964" s="3"/>
-      <c r="L964" s="3"/>
-      <c r="M964" s="3"/>
-      <c r="N964" s="3"/>
-      <c r="O964" s="3"/>
-      <c r="P964" s="3"/>
-      <c r="Q964" s="3"/>
-      <c r="R964" s="3"/>
-      <c r="S964" s="3"/>
-      <c r="T964" s="3"/>
-      <c r="U964" s="3"/>
-      <c r="V964" s="3"/>
-      <c r="W964" s="3"/>
-      <c r="X964" s="3"/>
-      <c r="Y964" s="3"/>
-      <c r="Z964" s="3"/>
-    </row>
-    <row r="965" spans="1:26" ht="23">
-      <c r="A965" s="3"/>
-      <c r="B965" s="3"/>
-      <c r="C965" s="3"/>
-      <c r="D965" s="3"/>
-      <c r="E965" s="3"/>
-      <c r="F965" s="3"/>
-      <c r="G965" s="3"/>
-      <c r="H965" s="3"/>
-      <c r="I965" s="3"/>
-      <c r="J965" s="3"/>
-      <c r="K965" s="3"/>
-      <c r="L965" s="3"/>
-      <c r="M965" s="3"/>
-      <c r="N965" s="3"/>
-      <c r="O965" s="3"/>
-      <c r="P965" s="3"/>
-      <c r="Q965" s="3"/>
-      <c r="R965" s="3"/>
-      <c r="S965" s="3"/>
-      <c r="T965" s="3"/>
-      <c r="U965" s="3"/>
-      <c r="V965" s="3"/>
-      <c r="W965" s="3"/>
-      <c r="X965" s="3"/>
-      <c r="Y965" s="3"/>
-      <c r="Z965" s="3"/>
-    </row>
-    <row r="966" spans="1:26" ht="23">
-      <c r="A966" s="3"/>
-      <c r="B966" s="3"/>
-      <c r="C966" s="3"/>
-      <c r="D966" s="3"/>
-      <c r="E966" s="3"/>
-      <c r="F966" s="3"/>
-      <c r="G966" s="3"/>
-      <c r="H966" s="3"/>
-      <c r="I966" s="3"/>
-      <c r="J966" s="3"/>
-      <c r="K966" s="3"/>
-      <c r="L966" s="3"/>
-      <c r="M966" s="3"/>
-      <c r="N966" s="3"/>
-      <c r="O966" s="3"/>
-      <c r="P966" s="3"/>
-      <c r="Q966" s="3"/>
-      <c r="R966" s="3"/>
-      <c r="S966" s="3"/>
-      <c r="T966" s="3"/>
-      <c r="U966" s="3"/>
-      <c r="V966" s="3"/>
-      <c r="W966" s="3"/>
-      <c r="X966" s="3"/>
-      <c r="Y966" s="3"/>
-      <c r="Z966" s="3"/>
-    </row>
-    <row r="967" spans="1:26" ht="23">
-      <c r="A967" s="3"/>
-      <c r="B967" s="3"/>
-      <c r="C967" s="3"/>
-      <c r="D967" s="3"/>
-      <c r="E967" s="3"/>
-      <c r="F967" s="3"/>
-      <c r="G967" s="3"/>
-      <c r="H967" s="3"/>
-      <c r="I967" s="3"/>
-      <c r="J967" s="3"/>
-      <c r="K967" s="3"/>
-      <c r="L967" s="3"/>
-      <c r="M967" s="3"/>
-      <c r="N967" s="3"/>
-      <c r="O967" s="3"/>
-      <c r="P967" s="3"/>
-      <c r="Q967" s="3"/>
-      <c r="R967" s="3"/>
-      <c r="S967" s="3"/>
-      <c r="T967" s="3"/>
-      <c r="U967" s="3"/>
-      <c r="V967" s="3"/>
-      <c r="W967" s="3"/>
-      <c r="X967" s="3"/>
-      <c r="Y967" s="3"/>
-      <c r="Z967" s="3"/>
-    </row>
-    <row r="968" spans="1:26" ht="23">
-      <c r="A968" s="3"/>
-      <c r="B968" s="3"/>
-      <c r="C968" s="3"/>
-      <c r="D968" s="3"/>
-      <c r="E968" s="3"/>
-      <c r="F968" s="3"/>
-      <c r="G968" s="3"/>
-      <c r="H968" s="3"/>
-      <c r="I968" s="3"/>
-      <c r="J968" s="3"/>
-      <c r="K968" s="3"/>
-      <c r="L968" s="3"/>
-      <c r="M968" s="3"/>
-      <c r="N968" s="3"/>
-      <c r="O968" s="3"/>
-      <c r="P968" s="3"/>
-      <c r="Q968" s="3"/>
-      <c r="R968" s="3"/>
-      <c r="S968" s="3"/>
-      <c r="T968" s="3"/>
-      <c r="U968" s="3"/>
-      <c r="V968" s="3"/>
-      <c r="W968" s="3"/>
-      <c r="X968" s="3"/>
-      <c r="Y968" s="3"/>
-      <c r="Z968" s="3"/>
-    </row>
-    <row r="969" spans="1:26" ht="23">
-      <c r="A969" s="3"/>
-      <c r="B969" s="3"/>
-      <c r="C969" s="3"/>
-      <c r="D969" s="3"/>
-      <c r="E969" s="3"/>
-      <c r="F969" s="3"/>
-      <c r="G969" s="3"/>
-      <c r="H969" s="3"/>
-      <c r="I969" s="3"/>
-      <c r="J969" s="3"/>
-      <c r="K969" s="3"/>
-      <c r="L969" s="3"/>
-      <c r="M969" s="3"/>
-      <c r="N969" s="3"/>
-      <c r="O969" s="3"/>
-      <c r="P969" s="3"/>
-      <c r="Q969" s="3"/>
-      <c r="R969" s="3"/>
-      <c r="S969" s="3"/>
-      <c r="T969" s="3"/>
-      <c r="U969" s="3"/>
-      <c r="V969" s="3"/>
-      <c r="W969" s="3"/>
-      <c r="X969" s="3"/>
-      <c r="Y969" s="3"/>
-      <c r="Z969" s="3"/>
-    </row>
-    <row r="970" spans="1:26" ht="23">
-      <c r="A970" s="3"/>
-      <c r="B970" s="3"/>
-      <c r="C970" s="3"/>
-      <c r="D970" s="3"/>
-      <c r="E970" s="3"/>
-      <c r="F970" s="3"/>
-      <c r="G970" s="3"/>
-      <c r="H970" s="3"/>
-      <c r="I970" s="3"/>
-      <c r="J970" s="3"/>
-      <c r="K970" s="3"/>
-      <c r="L970" s="3"/>
-      <c r="M970" s="3"/>
-      <c r="N970" s="3"/>
-      <c r="O970" s="3"/>
-      <c r="P970" s="3"/>
-      <c r="Q970" s="3"/>
-      <c r="R970" s="3"/>
-      <c r="S970" s="3"/>
-      <c r="T970" s="3"/>
-      <c r="U970" s="3"/>
-      <c r="V970" s="3"/>
-      <c r="W970" s="3"/>
-      <c r="X970" s="3"/>
-      <c r="Y970" s="3"/>
-      <c r="Z970" s="3"/>
-    </row>
-    <row r="971" spans="1:26" ht="23">
-      <c r="A971" s="3"/>
-      <c r="B971" s="3"/>
-      <c r="C971" s="3"/>
-      <c r="D971" s="3"/>
-      <c r="E971" s="3"/>
-      <c r="F971" s="3"/>
-      <c r="G971" s="3"/>
-      <c r="H971" s="3"/>
-      <c r="I971" s="3"/>
-      <c r="J971" s="3"/>
-      <c r="K971" s="3"/>
-      <c r="L971" s="3"/>
-      <c r="M971" s="3"/>
-      <c r="N971" s="3"/>
-      <c r="O971" s="3"/>
-      <c r="P971" s="3"/>
-      <c r="Q971" s="3"/>
-      <c r="R971" s="3"/>
-      <c r="S971" s="3"/>
-      <c r="T971" s="3"/>
-      <c r="U971" s="3"/>
-      <c r="V971" s="3"/>
-      <c r="W971" s="3"/>
-      <c r="X971" s="3"/>
-      <c r="Y971" s="3"/>
-      <c r="Z971" s="3"/>
-    </row>
-    <row r="972" spans="1:26" ht="23">
-      <c r="A972" s="3"/>
-      <c r="B972" s="3"/>
-      <c r="C972" s="3"/>
-      <c r="D972" s="3"/>
-      <c r="E972" s="3"/>
-      <c r="F972" s="3"/>
-      <c r="G972" s="3"/>
-      <c r="H972" s="3"/>
-      <c r="I972" s="3"/>
-      <c r="J972" s="3"/>
-      <c r="K972" s="3"/>
-      <c r="L972" s="3"/>
-      <c r="M972" s="3"/>
-      <c r="N972" s="3"/>
-      <c r="O972" s="3"/>
-      <c r="P972" s="3"/>
-      <c r="Q972" s="3"/>
-      <c r="R972" s="3"/>
-      <c r="S972" s="3"/>
-      <c r="T972" s="3"/>
-      <c r="U972" s="3"/>
-      <c r="V972" s="3"/>
-      <c r="W972" s="3"/>
-      <c r="X972" s="3"/>
-      <c r="Y972" s="3"/>
-      <c r="Z972" s="3"/>
-    </row>
-    <row r="973" spans="1:26" ht="23">
-      <c r="A973" s="3"/>
-      <c r="B973" s="3"/>
-      <c r="C973" s="3"/>
-      <c r="D973" s="3"/>
-      <c r="E973" s="3"/>
-      <c r="F973" s="3"/>
-      <c r="G973" s="3"/>
-      <c r="H973" s="3"/>
-      <c r="I973" s="3"/>
-      <c r="J973" s="3"/>
-      <c r="K973" s="3"/>
-      <c r="L973" s="3"/>
-      <c r="M973" s="3"/>
-      <c r="N973" s="3"/>
-      <c r="O973" s="3"/>
-      <c r="P973" s="3"/>
-      <c r="Q973" s="3"/>
-      <c r="R973" s="3"/>
-      <c r="S973" s="3"/>
-      <c r="T973" s="3"/>
-      <c r="U973" s="3"/>
-      <c r="V973" s="3"/>
-      <c r="W973" s="3"/>
-      <c r="X973" s="3"/>
-      <c r="Y973" s="3"/>
-      <c r="Z973" s="3"/>
-    </row>
-    <row r="974" spans="1:26" ht="23">
-      <c r="A974" s="3"/>
-      <c r="B974" s="3"/>
-      <c r="C974" s="3"/>
-      <c r="D974" s="3"/>
-      <c r="E974" s="3"/>
-      <c r="F974" s="3"/>
-      <c r="G974" s="3"/>
-      <c r="H974" s="3"/>
-      <c r="I974" s="3"/>
-      <c r="J974" s="3"/>
-      <c r="K974" s="3"/>
-      <c r="L974" s="3"/>
-      <c r="M974" s="3"/>
-      <c r="N974" s="3"/>
-      <c r="O974" s="3"/>
-      <c r="P974" s="3"/>
-      <c r="Q974" s="3"/>
-      <c r="R974" s="3"/>
-      <c r="S974" s="3"/>
-      <c r="T974" s="3"/>
-      <c r="U974" s="3"/>
-      <c r="V974" s="3"/>
-      <c r="W974" s="3"/>
-      <c r="X974" s="3"/>
-      <c r="Y974" s="3"/>
-      <c r="Z974" s="3"/>
-    </row>
-    <row r="975" spans="1:26" ht="23">
-      <c r="A975" s="3"/>
-      <c r="B975" s="3"/>
-      <c r="C975" s="3"/>
-      <c r="D975" s="3"/>
-      <c r="E975" s="3"/>
-      <c r="F975" s="3"/>
-      <c r="G975" s="3"/>
-      <c r="H975" s="3"/>
-      <c r="I975" s="3"/>
-      <c r="J975" s="3"/>
-      <c r="K975" s="3"/>
-      <c r="L975" s="3"/>
-      <c r="M975" s="3"/>
-      <c r="N975" s="3"/>
-      <c r="O975" s="3"/>
-      <c r="P975" s="3"/>
-      <c r="Q975" s="3"/>
-      <c r="R975" s="3"/>
-      <c r="S975" s="3"/>
-      <c r="T975" s="3"/>
-      <c r="U975" s="3"/>
-      <c r="V975" s="3"/>
-      <c r="W975" s="3"/>
-      <c r="X975" s="3"/>
-      <c r="Y975" s="3"/>
-      <c r="Z975" s="3"/>
-    </row>
-    <row r="976" spans="1:26" ht="23">
-      <c r="A976" s="3"/>
-      <c r="B976" s="3"/>
-      <c r="C976" s="3"/>
-      <c r="D976" s="3"/>
-      <c r="E976" s="3"/>
-      <c r="F976" s="3"/>
-      <c r="G976" s="3"/>
-      <c r="H976" s="3"/>
-      <c r="I976" s="3"/>
-      <c r="J976" s="3"/>
-      <c r="K976" s="3"/>
-      <c r="L976" s="3"/>
-      <c r="M976" s="3"/>
-      <c r="N976" s="3"/>
-      <c r="O976" s="3"/>
-      <c r="P976" s="3"/>
-      <c r="Q976" s="3"/>
-      <c r="R976" s="3"/>
-      <c r="S976" s="3"/>
-      <c r="T976" s="3"/>
-      <c r="U976" s="3"/>
-      <c r="V976" s="3"/>
-      <c r="W976" s="3"/>
-      <c r="X976" s="3"/>
-      <c r="Y976" s="3"/>
-      <c r="Z976" s="3"/>
-    </row>
-    <row r="977" spans="1:26" ht="23">
-      <c r="A977" s="3"/>
-      <c r="B977" s="3"/>
-      <c r="C977" s="3"/>
-      <c r="D977" s="3"/>
-      <c r="E977" s="3"/>
-      <c r="F977" s="3"/>
-      <c r="G977" s="3"/>
-      <c r="H977" s="3"/>
-      <c r="I977" s="3"/>
-      <c r="J977" s="3"/>
-      <c r="K977" s="3"/>
-      <c r="L977" s="3"/>
-      <c r="M977" s="3"/>
-      <c r="N977" s="3"/>
-      <c r="O977" s="3"/>
-      <c r="P977" s="3"/>
-      <c r="Q977" s="3"/>
-      <c r="R977" s="3"/>
-      <c r="S977" s="3"/>
-      <c r="T977" s="3"/>
-      <c r="U977" s="3"/>
-      <c r="V977" s="3"/>
-      <c r="W977" s="3"/>
-      <c r="X977" s="3"/>
-      <c r="Y977" s="3"/>
-      <c r="Z977" s="3"/>
-    </row>
-    <row r="978" spans="1:26" ht="23">
-      <c r="A978" s="3"/>
-      <c r="B978" s="3"/>
-      <c r="C978" s="3"/>
-      <c r="D978" s="3"/>
-      <c r="E978" s="3"/>
-      <c r="F978" s="3"/>
-      <c r="G978" s="3"/>
-      <c r="H978" s="3"/>
-      <c r="I978" s="3"/>
-      <c r="J978" s="3"/>
-      <c r="K978" s="3"/>
-      <c r="L978" s="3"/>
-      <c r="M978" s="3"/>
-      <c r="N978" s="3"/>
-      <c r="O978" s="3"/>
-      <c r="P978" s="3"/>
-      <c r="Q978" s="3"/>
-      <c r="R978" s="3"/>
-      <c r="S978" s="3"/>
-      <c r="T978" s="3"/>
-      <c r="U978" s="3"/>
-      <c r="V978" s="3"/>
-      <c r="W978" s="3"/>
-      <c r="X978" s="3"/>
-      <c r="Y978" s="3"/>
-      <c r="Z978" s="3"/>
-    </row>
-    <row r="979" spans="1:26" ht="23">
-      <c r="A979" s="3"/>
-      <c r="B979" s="3"/>
-      <c r="C979" s="3"/>
-      <c r="D979" s="3"/>
-      <c r="E979" s="3"/>
-      <c r="F979" s="3"/>
-      <c r="G979" s="3"/>
-      <c r="H979" s="3"/>
-      <c r="I979" s="3"/>
-      <c r="J979" s="3"/>
-      <c r="K979" s="3"/>
-      <c r="L979" s="3"/>
-      <c r="M979" s="3"/>
-      <c r="N979" s="3"/>
-      <c r="O979" s="3"/>
-      <c r="P979" s="3"/>
-      <c r="Q979" s="3"/>
-      <c r="R979" s="3"/>
-      <c r="S979" s="3"/>
-      <c r="T979" s="3"/>
-      <c r="U979" s="3"/>
-      <c r="V979" s="3"/>
-      <c r="W979" s="3"/>
-      <c r="X979" s="3"/>
-      <c r="Y979" s="3"/>
-      <c r="Z979" s="3"/>
-    </row>
-    <row r="980" spans="1:26" ht="23">
-      <c r="A980" s="3"/>
-      <c r="B980" s="3"/>
-      <c r="C980" s="3"/>
-      <c r="D980" s="3"/>
-      <c r="E980" s="3"/>
-      <c r="F980" s="3"/>
-      <c r="G980" s="3"/>
-      <c r="H980" s="3"/>
-      <c r="I980" s="3"/>
-      <c r="J980" s="3"/>
-      <c r="K980" s="3"/>
-      <c r="L980" s="3"/>
-      <c r="M980" s="3"/>
-      <c r="N980" s="3"/>
-      <c r="O980" s="3"/>
-      <c r="P980" s="3"/>
-      <c r="Q980" s="3"/>
-      <c r="R980" s="3"/>
-      <c r="S980" s="3"/>
-      <c r="T980" s="3"/>
-      <c r="U980" s="3"/>
-      <c r="V980" s="3"/>
-      <c r="W980" s="3"/>
-      <c r="X980" s="3"/>
-      <c r="Y980" s="3"/>
-      <c r="Z980" s="3"/>
-    </row>
-    <row r="981" spans="1:26" ht="23">
-      <c r="A981" s="3"/>
-      <c r="B981" s="3"/>
-      <c r="C981" s="3"/>
-      <c r="D981" s="3"/>
-      <c r="E981" s="3"/>
-      <c r="F981" s="3"/>
-      <c r="G981" s="3"/>
-      <c r="H981" s="3"/>
-      <c r="I981" s="3"/>
-      <c r="J981" s="3"/>
-      <c r="K981" s="3"/>
-      <c r="L981" s="3"/>
-      <c r="M981" s="3"/>
-      <c r="N981" s="3"/>
-      <c r="O981" s="3"/>
-      <c r="P981" s="3"/>
-      <c r="Q981" s="3"/>
-      <c r="R981" s="3"/>
-      <c r="S981" s="3"/>
-      <c r="T981" s="3"/>
-      <c r="U981" s="3"/>
-      <c r="V981" s="3"/>
-      <c r="W981" s="3"/>
-      <c r="X981" s="3"/>
-      <c r="Y981" s="3"/>
-      <c r="Z981" s="3"/>
-    </row>
-    <row r="982" spans="1:26" ht="23">
-      <c r="A982" s="3"/>
-      <c r="B982" s="3"/>
-      <c r="C982" s="3"/>
-      <c r="D982" s="3"/>
-      <c r="E982" s="3"/>
-      <c r="F982" s="3"/>
-      <c r="G982" s="3"/>
-      <c r="H982" s="3"/>
-      <c r="I982" s="3"/>
-      <c r="J982" s="3"/>
-      <c r="K982" s="3"/>
-      <c r="L982" s="3"/>
-      <c r="M982" s="3"/>
-      <c r="N982" s="3"/>
-      <c r="O982" s="3"/>
-      <c r="P982" s="3"/>
-      <c r="Q982" s="3"/>
-      <c r="R982" s="3"/>
-      <c r="S982" s="3"/>
-      <c r="T982" s="3"/>
-      <c r="U982" s="3"/>
-      <c r="V982" s="3"/>
-      <c r="W982" s="3"/>
-      <c r="X982" s="3"/>
-      <c r="Y982" s="3"/>
-      <c r="Z982" s="3"/>
-    </row>
-    <row r="983" spans="1:26" ht="23">
-      <c r="A983" s="3"/>
-      <c r="B983" s="3"/>
-      <c r="C983" s="3"/>
-      <c r="D983" s="3"/>
-      <c r="E983" s="3"/>
-      <c r="F983" s="3"/>
-      <c r="G983" s="3"/>
-      <c r="H983" s="3"/>
-      <c r="I983" s="3"/>
-      <c r="J983" s="3"/>
-      <c r="K983" s="3"/>
-      <c r="L983" s="3"/>
-      <c r="M983" s="3"/>
-      <c r="N983" s="3"/>
-      <c r="O983" s="3"/>
-      <c r="P983" s="3"/>
-      <c r="Q983" s="3"/>
-      <c r="R983" s="3"/>
-      <c r="S983" s="3"/>
-      <c r="T983" s="3"/>
-      <c r="U983" s="3"/>
-      <c r="V983" s="3"/>
-      <c r="W983" s="3"/>
-      <c r="X983" s="3"/>
-      <c r="Y983" s="3"/>
-      <c r="Z983" s="3"/>
-    </row>
-    <row r="984" spans="1:26" ht="23">
-      <c r="A984" s="3"/>
-      <c r="B984" s="3"/>
-      <c r="C984" s="3"/>
-      <c r="D984" s="3"/>
-      <c r="E984" s="3"/>
-      <c r="F984" s="3"/>
-      <c r="G984" s="3"/>
-      <c r="H984" s="3"/>
-      <c r="I984" s="3"/>
-      <c r="J984" s="3"/>
-      <c r="K984" s="3"/>
-      <c r="L984" s="3"/>
-      <c r="M984" s="3"/>
-      <c r="N984" s="3"/>
-      <c r="O984" s="3"/>
-      <c r="P984" s="3"/>
-      <c r="Q984" s="3"/>
-      <c r="R984" s="3"/>
-      <c r="S984" s="3"/>
-      <c r="T984" s="3"/>
-      <c r="U984" s="3"/>
-      <c r="V984" s="3"/>
-      <c r="W984" s="3"/>
-      <c r="X984" s="3"/>
-      <c r="Y984" s="3"/>
-      <c r="Z984" s="3"/>
-    </row>
-    <row r="985" spans="1:26" ht="23">
-      <c r="A985" s="3"/>
-      <c r="B985" s="3"/>
-      <c r="C985" s="3"/>
-      <c r="D985" s="3"/>
-      <c r="E985" s="3"/>
-      <c r="F985" s="3"/>
-      <c r="G985" s="3"/>
-      <c r="H985" s="3"/>
-      <c r="I985" s="3"/>
-      <c r="J985" s="3"/>
-      <c r="K985" s="3"/>
-      <c r="L985" s="3"/>
-      <c r="M985" s="3"/>
-      <c r="N985" s="3"/>
-      <c r="O985" s="3"/>
-      <c r="P985" s="3"/>
-      <c r="Q985" s="3"/>
-      <c r="R985" s="3"/>
-      <c r="S985" s="3"/>
-      <c r="T985" s="3"/>
-      <c r="U985" s="3"/>
-      <c r="V985" s="3"/>
-      <c r="W985" s="3"/>
-      <c r="X985" s="3"/>
-      <c r="Y985" s="3"/>
-      <c r="Z985" s="3"/>
-    </row>
-    <row r="986" spans="1:26" ht="23">
-      <c r="A986" s="3"/>
-      <c r="B986" s="3"/>
-      <c r="C986" s="3"/>
-      <c r="D986" s="3"/>
-      <c r="E986" s="3"/>
-      <c r="F986" s="3"/>
-      <c r="G986" s="3"/>
-      <c r="H986" s="3"/>
-      <c r="I986" s="3"/>
-      <c r="J986" s="3"/>
-      <c r="K986" s="3"/>
-      <c r="L986" s="3"/>
-      <c r="M986" s="3"/>
-      <c r="N986" s="3"/>
-      <c r="O986" s="3"/>
-      <c r="P986" s="3"/>
-      <c r="Q986" s="3"/>
-      <c r="R986" s="3"/>
-      <c r="S986" s="3"/>
-      <c r="T986" s="3"/>
-      <c r="U986" s="3"/>
-      <c r="V986" s="3"/>
-      <c r="W986" s="3"/>
-      <c r="X986" s="3"/>
-      <c r="Y986" s="3"/>
-      <c r="Z986" s="3"/>
-    </row>
-    <row r="987" spans="1:26" ht="23">
-      <c r="A987" s="3"/>
-      <c r="B987" s="3"/>
-      <c r="C987" s="3"/>
-      <c r="D987" s="3"/>
-      <c r="E987" s="3"/>
-      <c r="F987" s="3"/>
-      <c r="G987" s="3"/>
-      <c r="H987" s="3"/>
-      <c r="I987" s="3"/>
-      <c r="J987" s="3"/>
-      <c r="K987" s="3"/>
-      <c r="L987" s="3"/>
-      <c r="M987" s="3"/>
-      <c r="N987" s="3"/>
-      <c r="O987" s="3"/>
-      <c r="P987" s="3"/>
-      <c r="Q987" s="3"/>
-      <c r="R987" s="3"/>
-      <c r="S987" s="3"/>
-      <c r="T987" s="3"/>
-      <c r="U987" s="3"/>
-      <c r="V987" s="3"/>
-      <c r="W987" s="3"/>
-      <c r="X987" s="3"/>
-      <c r="Y987" s="3"/>
-      <c r="Z987" s="3"/>
-    </row>
-    <row r="988" spans="1:26" ht="23">
-      <c r="A988" s="3"/>
-      <c r="B988" s="3"/>
-      <c r="C988" s="3"/>
-      <c r="D988" s="3"/>
-      <c r="E988" s="3"/>
-      <c r="F988" s="3"/>
-      <c r="G988" s="3"/>
-      <c r="H988" s="3"/>
-      <c r="I988" s="3"/>
-      <c r="J988" s="3"/>
-      <c r="K988" s="3"/>
-      <c r="L988" s="3"/>
-      <c r="M988" s="3"/>
-      <c r="N988" s="3"/>
-      <c r="O988" s="3"/>
-      <c r="P988" s="3"/>
-      <c r="Q988" s="3"/>
-      <c r="R988" s="3"/>
-      <c r="S988" s="3"/>
-      <c r="T988" s="3"/>
-      <c r="U988" s="3"/>
-      <c r="V988" s="3"/>
-      <c r="W988" s="3"/>
-      <c r="X988" s="3"/>
-      <c r="Y988" s="3"/>
-      <c r="Z988" s="3"/>
-    </row>
-    <row r="989" spans="1:26" ht="23">
-      <c r="A989" s="3"/>
-      <c r="B989" s="3"/>
-      <c r="C989" s="3"/>
-      <c r="D989" s="3"/>
-      <c r="E989" s="3"/>
-      <c r="F989" s="3"/>
-      <c r="G989" s="3"/>
-      <c r="H989" s="3"/>
-      <c r="I989" s="3"/>
-      <c r="J989" s="3"/>
-      <c r="K989" s="3"/>
-      <c r="L989" s="3"/>
-      <c r="M989" s="3"/>
-      <c r="N989" s="3"/>
-      <c r="O989" s="3"/>
-      <c r="P989" s="3"/>
-      <c r="Q989" s="3"/>
-      <c r="R989" s="3"/>
-      <c r="S989" s="3"/>
-      <c r="T989" s="3"/>
-      <c r="U989" s="3"/>
-      <c r="V989" s="3"/>
-      <c r="W989" s="3"/>
-      <c r="X989" s="3"/>
-      <c r="Y989" s="3"/>
-      <c r="Z989" s="3"/>
-    </row>
-    <row r="990" spans="1:26" ht="23">
-      <c r="A990" s="3"/>
-      <c r="B990" s="3"/>
-      <c r="C990" s="3"/>
-      <c r="D990" s="3"/>
-      <c r="E990" s="3"/>
-      <c r="F990" s="3"/>
-      <c r="G990" s="3"/>
-      <c r="H990" s="3"/>
-      <c r="I990" s="3"/>
-      <c r="J990" s="3"/>
-      <c r="K990" s="3"/>
-      <c r="L990" s="3"/>
-      <c r="M990" s="3"/>
-      <c r="N990" s="3"/>
-      <c r="O990" s="3"/>
-      <c r="P990" s="3"/>
-      <c r="Q990" s="3"/>
-      <c r="R990" s="3"/>
-      <c r="S990" s="3"/>
-      <c r="T990" s="3"/>
-      <c r="U990" s="3"/>
-      <c r="V990" s="3"/>
-      <c r="W990" s="3"/>
-      <c r="X990" s="3"/>
-      <c r="Y990" s="3"/>
-      <c r="Z990" s="3"/>
-    </row>
-    <row r="991" spans="1:26" ht="23">
-      <c r="A991" s="3"/>
-      <c r="B991" s="3"/>
-      <c r="C991" s="3"/>
-      <c r="D991" s="3"/>
-      <c r="E991" s="3"/>
-      <c r="F991" s="3"/>
-      <c r="G991" s="3"/>
-      <c r="H991" s="3"/>
-      <c r="I991" s="3"/>
-      <c r="J991" s="3"/>
-      <c r="K991" s="3"/>
-      <c r="L991" s="3"/>
-      <c r="M991" s="3"/>
-      <c r="N991" s="3"/>
-      <c r="O991" s="3"/>
-      <c r="P991" s="3"/>
-      <c r="Q991" s="3"/>
-      <c r="R991" s="3"/>
-      <c r="S991" s="3"/>
-      <c r="T991" s="3"/>
-      <c r="U991" s="3"/>
-      <c r="V991" s="3"/>
-      <c r="W991" s="3"/>
-      <c r="X991" s="3"/>
-      <c r="Y991" s="3"/>
-      <c r="Z991" s="3"/>
-    </row>
-    <row r="992" spans="1:26" ht="23">
-      <c r="A992" s="3"/>
-      <c r="B992" s="3"/>
-      <c r="C992" s="3"/>
-      <c r="D992" s="3"/>
-      <c r="E992" s="3"/>
-      <c r="F992" s="3"/>
-      <c r="G992" s="3"/>
-      <c r="H992" s="3"/>
-      <c r="I992" s="3"/>
-      <c r="J992" s="3"/>
-      <c r="K992" s="3"/>
-      <c r="L992" s="3"/>
-      <c r="M992" s="3"/>
-      <c r="N992" s="3"/>
-      <c r="O992" s="3"/>
-      <c r="P992" s="3"/>
-      <c r="Q992" s="3"/>
-      <c r="R992" s="3"/>
-      <c r="S992" s="3"/>
-      <c r="T992" s="3"/>
-      <c r="U992" s="3"/>
-      <c r="V992" s="3"/>
-      <c r="W992" s="3"/>
-      <c r="X992" s="3"/>
-      <c r="Y992" s="3"/>
-      <c r="Z992" s="3"/>
-    </row>
-    <row r="993" spans="1:26" ht="23">
-      <c r="A993" s="3"/>
-      <c r="B993" s="3"/>
-      <c r="C993" s="3"/>
-      <c r="D993" s="3"/>
-      <c r="E993" s="3"/>
-      <c r="F993" s="3"/>
-      <c r="G993" s="3"/>
-      <c r="H993" s="3"/>
-      <c r="I993" s="3"/>
-      <c r="J993" s="3"/>
-      <c r="K993" s="3"/>
-      <c r="L993" s="3"/>
-      <c r="M993" s="3"/>
-      <c r="N993" s="3"/>
-      <c r="O993" s="3"/>
-      <c r="P993" s="3"/>
-      <c r="Q993" s="3"/>
-      <c r="R993" s="3"/>
-      <c r="S993" s="3"/>
-      <c r="T993" s="3"/>
-      <c r="U993" s="3"/>
-      <c r="V993" s="3"/>
-      <c r="W993" s="3"/>
-      <c r="X993" s="3"/>
-      <c r="Y993" s="3"/>
-      <c r="Z993" s="3"/>
-    </row>
-    <row r="994" spans="1:26" ht="23">
-      <c r="A994" s="3"/>
-      <c r="B994" s="3"/>
-      <c r="C994" s="3"/>
-      <c r="D994" s="3"/>
-      <c r="E994" s="3"/>
-      <c r="F994" s="3"/>
-      <c r="G994" s="3"/>
-      <c r="H994" s="3"/>
-      <c r="I994" s="3"/>
-      <c r="J994" s="3"/>
-      <c r="K994" s="3"/>
-      <c r="L994" s="3"/>
-      <c r="M994" s="3"/>
-      <c r="N994" s="3"/>
-      <c r="O994" s="3"/>
-      <c r="P994" s="3"/>
-      <c r="Q994" s="3"/>
-      <c r="R994" s="3"/>
-      <c r="S994" s="3"/>
-      <c r="T994" s="3"/>
-      <c r="U994" s="3"/>
-      <c r="V994" s="3"/>
-      <c r="W994" s="3"/>
-      <c r="X994" s="3"/>
-      <c r="Y994" s="3"/>
-      <c r="Z994" s="3"/>
-    </row>
-    <row r="995" spans="1:26" ht="23">
-      <c r="A995" s="3"/>
-      <c r="B995" s="3"/>
-      <c r="C995" s="3"/>
-      <c r="D995" s="3"/>
-      <c r="E995" s="3"/>
-      <c r="F995" s="3"/>
-      <c r="G995" s="3"/>
-      <c r="H995" s="3"/>
-      <c r="I995" s="3"/>
-      <c r="J995" s="3"/>
-      <c r="K995" s="3"/>
-      <c r="L995" s="3"/>
-      <c r="M995" s="3"/>
-      <c r="N995" s="3"/>
-      <c r="O995" s="3"/>
-      <c r="P995" s="3"/>
-      <c r="Q995" s="3"/>
-      <c r="R995" s="3"/>
-      <c r="S995" s="3"/>
-      <c r="T995" s="3"/>
-      <c r="U995" s="3"/>
-      <c r="V995" s="3"/>
-      <c r="W995" s="3"/>
-      <c r="X995" s="3"/>
-      <c r="Y995" s="3"/>
-      <c r="Z995" s="3"/>
-    </row>
-    <row r="996" spans="1:26" ht="23">
-      <c r="A996" s="3"/>
-      <c r="B996" s="3"/>
-      <c r="C996" s="3"/>
-      <c r="D996" s="3"/>
-      <c r="E996" s="3"/>
-      <c r="F996" s="3"/>
-      <c r="G996" s="3"/>
-      <c r="H996" s="3"/>
-      <c r="I996" s="3"/>
-      <c r="J996" s="3"/>
-      <c r="K996" s="3"/>
-      <c r="L996" s="3"/>
-      <c r="M996" s="3"/>
-      <c r="N996" s="3"/>
-      <c r="O996" s="3"/>
-      <c r="P996" s="3"/>
-      <c r="Q996" s="3"/>
-      <c r="R996" s="3"/>
-      <c r="S996" s="3"/>
-      <c r="T996" s="3"/>
-      <c r="U996" s="3"/>
-      <c r="V996" s="3"/>
-      <c r="W996" s="3"/>
-      <c r="X996" s="3"/>
-      <c r="Y996" s="3"/>
-      <c r="Z996" s="3"/>
-    </row>
-    <row r="997" spans="1:26" ht="23">
-      <c r="A997" s="3"/>
-      <c r="B997" s="3"/>
-      <c r="C997" s="3"/>
-      <c r="D997" s="3"/>
-      <c r="E997" s="3"/>
-      <c r="F997" s="3"/>
-      <c r="G997" s="3"/>
-      <c r="H997" s="3"/>
-      <c r="I997" s="3"/>
-      <c r="J997" s="3"/>
-      <c r="K997" s="3"/>
-      <c r="L997" s="3"/>
-      <c r="M997" s="3"/>
-      <c r="N997" s="3"/>
-      <c r="O997" s="3"/>
-      <c r="P997" s="3"/>
-      <c r="Q997" s="3"/>
-      <c r="R997" s="3"/>
-      <c r="S997" s="3"/>
-      <c r="T997" s="3"/>
-      <c r="U997" s="3"/>
-      <c r="V997" s="3"/>
-      <c r="W997" s="3"/>
-      <c r="X997" s="3"/>
-      <c r="Y997" s="3"/>
-      <c r="Z997" s="3"/>
-    </row>
-    <row r="998" spans="1:26" ht="23">
-      <c r="A998" s="3"/>
-      <c r="B998" s="3"/>
-      <c r="C998" s="3"/>
-      <c r="D998" s="3"/>
-      <c r="E998" s="3"/>
-      <c r="F998" s="3"/>
-      <c r="G998" s="3"/>
-      <c r="H998" s="3"/>
-      <c r="I998" s="3"/>
-      <c r="J998" s="3"/>
-      <c r="K998" s="3"/>
-      <c r="L998" s="3"/>
-      <c r="M998" s="3"/>
-      <c r="N998" s="3"/>
-      <c r="O998" s="3"/>
-      <c r="P998" s="3"/>
-      <c r="Q998" s="3"/>
-      <c r="R998" s="3"/>
-      <c r="S998" s="3"/>
-      <c r="T998" s="3"/>
-      <c r="U998" s="3"/>
-      <c r="V998" s="3"/>
-      <c r="W998" s="3"/>
-      <c r="X998" s="3"/>
-      <c r="Y998" s="3"/>
-      <c r="Z998" s="3"/>
-    </row>
-    <row r="999" spans="1:26" ht="23">
-      <c r="A999" s="3"/>
-      <c r="B999" s="3"/>
-      <c r="C999" s="3"/>
-      <c r="D999" s="3"/>
-      <c r="E999" s="3"/>
-      <c r="F999" s="3"/>
-      <c r="G999" s="3"/>
-      <c r="H999" s="3"/>
-      <c r="I999" s="3"/>
-      <c r="J999" s="3"/>
-      <c r="K999" s="3"/>
-      <c r="L999" s="3"/>
-      <c r="M999" s="3"/>
-      <c r="N999" s="3"/>
-      <c r="O999" s="3"/>
-      <c r="P999" s="3"/>
-      <c r="Q999" s="3"/>
-      <c r="R999" s="3"/>
-      <c r="S999" s="3"/>
-      <c r="T999" s="3"/>
-      <c r="U999" s="3"/>
-      <c r="V999" s="3"/>
-      <c r="W999" s="3"/>
-      <c r="X999" s="3"/>
-      <c r="Y999" s="3"/>
-      <c r="Z999" s="3"/>
-    </row>
-    <row r="1000" spans="1:26" ht="23">
-      <c r="A1000" s="3"/>
-      <c r="B1000" s="3"/>
-      <c r="C1000" s="3"/>
-      <c r="D1000" s="3"/>
-      <c r="E1000" s="3"/>
-      <c r="F1000" s="3"/>
-      <c r="G1000" s="3"/>
-      <c r="H1000" s="3"/>
-      <c r="I1000" s="3"/>
-      <c r="J1000" s="3"/>
-      <c r="K1000" s="3"/>
-      <c r="L1000" s="3"/>
-      <c r="M1000" s="3"/>
-      <c r="N1000" s="3"/>
-      <c r="O1000" s="3"/>
-      <c r="P1000" s="3"/>
-      <c r="Q1000" s="3"/>
-      <c r="R1000" s="3"/>
-      <c r="S1000" s="3"/>
-      <c r="T1000" s="3"/>
-      <c r="U1000" s="3"/>
-      <c r="V1000" s="3"/>
-      <c r="W1000" s="3"/>
-      <c r="X1000" s="3"/>
-      <c r="Y1000" s="3"/>
-      <c r="Z1000" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -30811,6 +29888,51 @@
     <hyperlink ref="A108" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
     <hyperlink ref="A109" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
     <hyperlink ref="A19" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A121" r:id="rId90" xr:uid="{D08B4AF4-9CE3-804A-AFB5-7B982CFB0E2F}"/>
+    <hyperlink ref="A122" r:id="rId91" xr:uid="{C49FA7D6-71E6-F343-8473-80237F88F9EA}"/>
+    <hyperlink ref="A123" r:id="rId92" xr:uid="{2497597D-4EB5-C640-B18D-DD9D4B5D33BF}"/>
+    <hyperlink ref="A124" r:id="rId93" xr:uid="{198DE2DF-7000-1449-81F9-FE9D71142D91}"/>
+    <hyperlink ref="A125" r:id="rId94" xr:uid="{83931B97-A4C0-764F-B27C-D08E2FFA9474}"/>
+    <hyperlink ref="A126" r:id="rId95" xr:uid="{4DA00772-148E-D642-BDD5-6B20B9E03061}"/>
+    <hyperlink ref="A127" r:id="rId96" xr:uid="{5AC68AD4-C30D-4B40-908A-49BCEA635463}"/>
+    <hyperlink ref="A128" r:id="rId97" xr:uid="{9D45559B-F6B5-4847-8A24-936D54A545B9}"/>
+    <hyperlink ref="A129" r:id="rId98" xr:uid="{4368399C-6E45-914A-B9CA-6394FF99EFA8}"/>
+    <hyperlink ref="A132" r:id="rId99" xr:uid="{C441EB6D-76FB-A44D-A6F2-FECB31956EE9}"/>
+    <hyperlink ref="A133" r:id="rId100" xr:uid="{D8370793-030F-5346-9302-7E0685526A63}"/>
+    <hyperlink ref="A134" r:id="rId101" xr:uid="{8B9EB1C9-7CBE-C849-AAF9-38A4B1B67B3B}"/>
+    <hyperlink ref="A135" r:id="rId102" xr:uid="{755D63D0-D0BA-D54E-8EA1-98324C192445}"/>
+    <hyperlink ref="A136" r:id="rId103" xr:uid="{FAF04A37-2669-874D-ADC1-4D52B6C1D62D}"/>
+    <hyperlink ref="A137" r:id="rId104" xr:uid="{072F2C9D-CBB4-C14C-A5C1-216D54B20E37}"/>
+    <hyperlink ref="A138" r:id="rId105" xr:uid="{0FDE4DFB-4D55-F343-B896-F5265C9453E8}"/>
+    <hyperlink ref="A139" r:id="rId106" xr:uid="{485DC830-3448-2A42-91F7-9F65BCCCFF1D}"/>
+    <hyperlink ref="A140" r:id="rId107" xr:uid="{2708379E-0C68-2547-995B-7A83353DBFDE}"/>
+    <hyperlink ref="A143" r:id="rId108" xr:uid="{DA05CF30-B257-6C4B-B460-51A12D9E4F29}"/>
+    <hyperlink ref="A144" r:id="rId109" xr:uid="{3C147E09-B728-4D4E-911F-D00166EFC1E4}"/>
+    <hyperlink ref="A145" r:id="rId110" xr:uid="{FE211852-E05A-E142-9B48-B3806A0EC19B}"/>
+    <hyperlink ref="A146" r:id="rId111" xr:uid="{AD1B33ED-53C2-BE49-A780-22AD79E52747}"/>
+    <hyperlink ref="A147" r:id="rId112" xr:uid="{6890B465-DF2C-7E44-B67F-63F8E5EE9C7D}"/>
+    <hyperlink ref="A148" r:id="rId113" xr:uid="{8CEE0A47-3AA9-3A45-868A-3FC5BD770D03}"/>
+    <hyperlink ref="A149" r:id="rId114" xr:uid="{D3386B41-9D89-F541-BD05-7AB98CFD7A58}"/>
+    <hyperlink ref="A150" r:id="rId115" xr:uid="{5F927588-6804-7244-A151-5088D05EF577}"/>
+    <hyperlink ref="A151" r:id="rId116" xr:uid="{185614E9-D476-EB47-A42B-B19EDB0163B8}"/>
+    <hyperlink ref="A154" r:id="rId117" xr:uid="{A05EEDAC-CCC9-274B-922B-472DA885D82D}"/>
+    <hyperlink ref="A155" r:id="rId118" xr:uid="{D6BFB830-F2FC-754D-8D55-6489CD1CAD4C}"/>
+    <hyperlink ref="A156" r:id="rId119" xr:uid="{CA996375-B123-AA4B-A839-CBD415790A7E}"/>
+    <hyperlink ref="A157" r:id="rId120" xr:uid="{2C4F4193-E8FE-8447-B6EB-CD97875A2234}"/>
+    <hyperlink ref="A158" r:id="rId121" xr:uid="{A494901A-6EAD-7D48-88AB-085673FF388B}"/>
+    <hyperlink ref="A159" r:id="rId122" xr:uid="{0085C815-A742-9B4B-8E85-08754EC785CC}"/>
+    <hyperlink ref="A160" r:id="rId123" xr:uid="{1315E1B4-8827-8D4F-A644-009F1003C9CD}"/>
+    <hyperlink ref="A161" r:id="rId124" xr:uid="{F6BBD36D-D704-3A46-9CC0-0D2386CE89AF}"/>
+    <hyperlink ref="A162" r:id="rId125" xr:uid="{B7AF9196-029E-EE49-85E3-B3143DF873BB}"/>
+    <hyperlink ref="A165" r:id="rId126" xr:uid="{C8441DEA-DDBF-DF4C-921A-C0C6752597B8}"/>
+    <hyperlink ref="A166" r:id="rId127" xr:uid="{1982E8CE-CCE8-0049-A7D2-4910A49465BD}"/>
+    <hyperlink ref="A167" r:id="rId128" xr:uid="{DDB5AFB4-7959-624A-83E3-EAFA558299C2}"/>
+    <hyperlink ref="A168" r:id="rId129" xr:uid="{04A0FF79-067E-9646-9D13-22678EBAAF86}"/>
+    <hyperlink ref="A169" r:id="rId130" xr:uid="{A7623B95-A8C4-674C-B4D2-1638C3072BE7}"/>
+    <hyperlink ref="A170" r:id="rId131" xr:uid="{9C644F5C-4E3C-534E-9FBE-8DAB96D82EF8}"/>
+    <hyperlink ref="A171" r:id="rId132" xr:uid="{B5ECEC39-861E-6945-A198-66A425E27CC4}"/>
+    <hyperlink ref="A172" r:id="rId133" xr:uid="{C5B664E1-9CAC-3F4B-A50E-23C4606A1A1D}"/>
+    <hyperlink ref="A173" r:id="rId134" xr:uid="{9D3766AD-2D80-2646-854E-ADAA3F208A26}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30821,11 +29943,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1009"/>
+  <dimension ref="A1:Z949"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B190" sqref="B190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -33185,489 +32307,1021 @@
       <c r="E122" s="18"/>
     </row>
     <row r="123" spans="1:26" ht="23">
-      <c r="A123" s="3"/>
-      <c r="B123" s="18"/>
-      <c r="C123" s="18"/>
-      <c r="D123" s="18"/>
-      <c r="E123" s="18"/>
+      <c r="A123" s="2"/>
+      <c r="B123" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E123" s="46"/>
     </row>
     <row r="124" spans="1:26" ht="23">
-      <c r="A124" s="3"/>
-      <c r="B124" s="18"/>
-      <c r="C124" s="18"/>
-      <c r="D124" s="18"/>
-      <c r="E124" s="18"/>
+      <c r="A124" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B124" s="21"/>
+      <c r="C124" s="21"/>
+      <c r="D124" s="21"/>
+      <c r="E124" s="21"/>
+      <c r="F124" s="22"/>
+      <c r="G124" s="22"/>
+      <c r="H124" s="22"/>
+      <c r="I124" s="22"/>
     </row>
     <row r="125" spans="1:26" ht="23">
-      <c r="A125" s="3"/>
-      <c r="B125" s="18"/>
-      <c r="C125" s="18"/>
-      <c r="D125" s="18"/>
-      <c r="E125" s="18"/>
+      <c r="A125" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B125" s="25"/>
+      <c r="C125" s="25"/>
+      <c r="D125" s="25"/>
+      <c r="E125" s="25"/>
+      <c r="F125" s="26"/>
+      <c r="G125" s="26"/>
+      <c r="H125" s="26"/>
+      <c r="I125" s="26"/>
     </row>
     <row r="126" spans="1:26" ht="23">
-      <c r="A126" s="3"/>
-      <c r="B126" s="18"/>
-      <c r="C126" s="18"/>
-      <c r="D126" s="18"/>
-      <c r="E126" s="18"/>
+      <c r="A126" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126" s="60">
+        <v>0</v>
+      </c>
+      <c r="C126" s="60">
+        <v>0</v>
+      </c>
+      <c r="D126" s="60">
+        <v>0</v>
+      </c>
+      <c r="E126" s="31"/>
+      <c r="F126" s="30"/>
+      <c r="G126" s="30"/>
+      <c r="H126" s="30"/>
+      <c r="I126" s="30"/>
     </row>
     <row r="127" spans="1:26" ht="23">
-      <c r="A127" s="3"/>
-      <c r="B127" s="18"/>
-      <c r="C127" s="18"/>
-      <c r="D127" s="18"/>
-      <c r="E127" s="18"/>
+      <c r="A127" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="B127" s="31">
+        <v>0</v>
+      </c>
+      <c r="C127" s="31">
+        <v>0</v>
+      </c>
+      <c r="D127" s="60">
+        <v>0</v>
+      </c>
+      <c r="E127" s="31"/>
+      <c r="F127" s="30"/>
+      <c r="G127" s="30"/>
+      <c r="H127" s="30"/>
+      <c r="I127" s="30"/>
     </row>
     <row r="128" spans="1:26" ht="23">
-      <c r="A128" s="3"/>
-      <c r="B128" s="18"/>
-      <c r="C128" s="18"/>
-      <c r="D128" s="18"/>
-      <c r="E128" s="18"/>
-    </row>
-    <row r="129" spans="1:5" ht="23">
-      <c r="A129" s="3"/>
-      <c r="B129" s="18"/>
-      <c r="C129" s="18"/>
-      <c r="D129" s="18"/>
-      <c r="E129" s="18"/>
-    </row>
-    <row r="130" spans="1:5" ht="23">
-      <c r="A130" s="3"/>
-      <c r="B130" s="18"/>
-      <c r="C130" s="18"/>
-      <c r="D130" s="18"/>
-      <c r="E130" s="18"/>
-    </row>
-    <row r="131" spans="1:5" ht="23">
-      <c r="A131" s="3"/>
-      <c r="B131" s="18"/>
-      <c r="C131" s="18"/>
-      <c r="D131" s="18"/>
-      <c r="E131" s="18"/>
-    </row>
-    <row r="132" spans="1:5" ht="23">
-      <c r="A132" s="3"/>
-      <c r="B132" s="18"/>
-      <c r="C132" s="18"/>
-      <c r="D132" s="18"/>
-      <c r="E132" s="18"/>
-    </row>
-    <row r="133" spans="1:5" ht="23">
-      <c r="A133" s="3"/>
-      <c r="B133" s="18"/>
-      <c r="C133" s="18"/>
-      <c r="D133" s="18"/>
-      <c r="E133" s="18"/>
-    </row>
-    <row r="134" spans="1:5" ht="23">
-      <c r="A134" s="3"/>
-      <c r="B134" s="18"/>
-      <c r="C134" s="18"/>
-      <c r="D134" s="18"/>
-      <c r="E134" s="18"/>
-    </row>
-    <row r="135" spans="1:5" ht="23">
-      <c r="A135" s="3"/>
-      <c r="B135" s="18"/>
-      <c r="C135" s="18"/>
-      <c r="D135" s="18"/>
-      <c r="E135" s="18"/>
-    </row>
-    <row r="136" spans="1:5" ht="23">
-      <c r="A136" s="3"/>
-      <c r="B136" s="18"/>
-      <c r="C136" s="18"/>
-      <c r="D136" s="18"/>
-      <c r="E136" s="18"/>
-    </row>
-    <row r="137" spans="1:5" ht="23">
-      <c r="A137" s="3"/>
-      <c r="B137" s="18"/>
-      <c r="C137" s="18"/>
-      <c r="D137" s="18"/>
-      <c r="E137" s="18"/>
-    </row>
-    <row r="138" spans="1:5" ht="23">
-      <c r="A138" s="3"/>
-      <c r="B138" s="18"/>
-      <c r="C138" s="18"/>
-      <c r="D138" s="18"/>
-      <c r="E138" s="18"/>
-    </row>
-    <row r="139" spans="1:5" ht="23">
-      <c r="A139" s="3"/>
-      <c r="B139" s="18"/>
-      <c r="C139" s="18"/>
-      <c r="D139" s="18"/>
-      <c r="E139" s="18"/>
-    </row>
-    <row r="140" spans="1:5" ht="23">
-      <c r="A140" s="3"/>
-      <c r="B140" s="18"/>
-      <c r="C140" s="18"/>
-      <c r="D140" s="18"/>
-      <c r="E140" s="18"/>
-    </row>
-    <row r="141" spans="1:5" ht="23">
-      <c r="A141" s="3"/>
-      <c r="B141" s="18"/>
-      <c r="C141" s="18"/>
-      <c r="D141" s="18"/>
-      <c r="E141" s="18"/>
-    </row>
-    <row r="142" spans="1:5" ht="23">
-      <c r="A142" s="3"/>
-      <c r="B142" s="18"/>
-      <c r="C142" s="18"/>
-      <c r="D142" s="18"/>
-      <c r="E142" s="18"/>
-    </row>
-    <row r="143" spans="1:5" ht="23">
-      <c r="A143" s="3"/>
-      <c r="B143" s="18"/>
-      <c r="C143" s="18"/>
-      <c r="D143" s="18"/>
-      <c r="E143" s="18"/>
-    </row>
-    <row r="144" spans="1:5" ht="23">
-      <c r="A144" s="3"/>
-      <c r="B144" s="18"/>
-      <c r="C144" s="18"/>
-      <c r="D144" s="18"/>
-      <c r="E144" s="18"/>
-    </row>
-    <row r="145" spans="1:5" ht="23">
-      <c r="A145" s="3"/>
-      <c r="B145" s="18"/>
-      <c r="C145" s="18"/>
-      <c r="D145" s="18"/>
-      <c r="E145" s="18"/>
-    </row>
-    <row r="146" spans="1:5" ht="23">
-      <c r="A146" s="3"/>
-      <c r="B146" s="18"/>
-      <c r="C146" s="18"/>
-      <c r="D146" s="18"/>
-      <c r="E146" s="18"/>
-    </row>
-    <row r="147" spans="1:5" ht="23">
-      <c r="A147" s="3"/>
-      <c r="B147" s="18"/>
-      <c r="C147" s="18"/>
-      <c r="D147" s="18"/>
-      <c r="E147" s="18"/>
-    </row>
-    <row r="148" spans="1:5" ht="23">
-      <c r="A148" s="3"/>
-      <c r="B148" s="18"/>
-      <c r="C148" s="18"/>
-      <c r="D148" s="18"/>
-      <c r="E148" s="18"/>
-    </row>
-    <row r="149" spans="1:5" ht="23">
-      <c r="A149" s="3"/>
-      <c r="B149" s="18"/>
-      <c r="C149" s="18"/>
-      <c r="D149" s="18"/>
-      <c r="E149" s="18"/>
-    </row>
-    <row r="150" spans="1:5" ht="23">
-      <c r="A150" s="3"/>
-      <c r="B150" s="18"/>
-      <c r="C150" s="18"/>
-      <c r="D150" s="18"/>
-      <c r="E150" s="18"/>
-    </row>
-    <row r="151" spans="1:5" ht="23">
-      <c r="A151" s="3"/>
-      <c r="B151" s="18"/>
-      <c r="C151" s="18"/>
-      <c r="D151" s="18"/>
-      <c r="E151" s="18"/>
-    </row>
-    <row r="152" spans="1:5" ht="23">
-      <c r="A152" s="3"/>
-      <c r="B152" s="18"/>
-      <c r="C152" s="18"/>
-      <c r="D152" s="18"/>
-      <c r="E152" s="18"/>
-    </row>
-    <row r="153" spans="1:5" ht="23">
-      <c r="A153" s="3"/>
-      <c r="B153" s="18"/>
-      <c r="C153" s="18"/>
-      <c r="D153" s="18"/>
-      <c r="E153" s="18"/>
-    </row>
-    <row r="154" spans="1:5" ht="23">
-      <c r="A154" s="3"/>
-      <c r="B154" s="18"/>
-      <c r="C154" s="18"/>
-      <c r="D154" s="18"/>
-      <c r="E154" s="18"/>
-    </row>
-    <row r="155" spans="1:5" ht="23">
-      <c r="A155" s="3"/>
-      <c r="B155" s="18"/>
-      <c r="C155" s="18"/>
-      <c r="D155" s="18"/>
-      <c r="E155" s="18"/>
-    </row>
-    <row r="156" spans="1:5" ht="23">
-      <c r="A156" s="3"/>
-      <c r="B156" s="18"/>
-      <c r="C156" s="18"/>
-      <c r="D156" s="18"/>
-      <c r="E156" s="18"/>
-    </row>
-    <row r="157" spans="1:5" ht="23">
-      <c r="A157" s="3"/>
-      <c r="B157" s="18"/>
-      <c r="C157" s="18"/>
-      <c r="D157" s="18"/>
-      <c r="E157" s="18"/>
-    </row>
-    <row r="158" spans="1:5" ht="23">
-      <c r="A158" s="3"/>
-      <c r="B158" s="18"/>
-      <c r="C158" s="18"/>
-      <c r="D158" s="18"/>
-      <c r="E158" s="18"/>
-    </row>
-    <row r="159" spans="1:5" ht="23">
-      <c r="A159" s="3"/>
-      <c r="B159" s="18"/>
-      <c r="C159" s="18"/>
-      <c r="D159" s="18"/>
-      <c r="E159" s="18"/>
-    </row>
-    <row r="160" spans="1:5" ht="23">
-      <c r="A160" s="3"/>
-      <c r="B160" s="18"/>
-      <c r="C160" s="18"/>
-      <c r="D160" s="18"/>
-      <c r="E160" s="18"/>
-    </row>
-    <row r="161" spans="1:5" ht="23">
-      <c r="A161" s="3"/>
-      <c r="B161" s="18"/>
-      <c r="C161" s="18"/>
-      <c r="D161" s="18"/>
-      <c r="E161" s="18"/>
-    </row>
-    <row r="162" spans="1:5" ht="23">
-      <c r="A162" s="3"/>
-      <c r="B162" s="18"/>
-      <c r="C162" s="18"/>
-      <c r="D162" s="18"/>
-      <c r="E162" s="18"/>
-    </row>
-    <row r="163" spans="1:5" ht="23">
-      <c r="A163" s="3"/>
-      <c r="B163" s="18"/>
-      <c r="C163" s="18"/>
-      <c r="D163" s="18"/>
-      <c r="E163" s="18"/>
-    </row>
-    <row r="164" spans="1:5" ht="23">
-      <c r="A164" s="3"/>
-      <c r="B164" s="18"/>
-      <c r="C164" s="18"/>
-      <c r="D164" s="18"/>
-      <c r="E164" s="18"/>
-    </row>
-    <row r="165" spans="1:5" ht="23">
-      <c r="A165" s="3"/>
-      <c r="B165" s="18"/>
-      <c r="C165" s="18"/>
-      <c r="D165" s="18"/>
-      <c r="E165" s="18"/>
-    </row>
-    <row r="166" spans="1:5" ht="23">
-      <c r="A166" s="3"/>
-      <c r="B166" s="18"/>
-      <c r="C166" s="18"/>
-      <c r="D166" s="18"/>
-      <c r="E166" s="18"/>
-    </row>
-    <row r="167" spans="1:5" ht="23">
-      <c r="A167" s="3"/>
-      <c r="B167" s="18"/>
-      <c r="C167" s="18"/>
-      <c r="D167" s="18"/>
-      <c r="E167" s="18"/>
-    </row>
-    <row r="168" spans="1:5" ht="23">
-      <c r="A168" s="3"/>
-      <c r="B168" s="18"/>
-      <c r="C168" s="18"/>
-      <c r="D168" s="18"/>
-      <c r="E168" s="18"/>
-    </row>
-    <row r="169" spans="1:5" ht="23">
-      <c r="A169" s="3"/>
-      <c r="B169" s="18"/>
-      <c r="C169" s="18"/>
-      <c r="D169" s="18"/>
-      <c r="E169" s="18"/>
-    </row>
-    <row r="170" spans="1:5" ht="23">
-      <c r="A170" s="3"/>
-      <c r="B170" s="18"/>
-      <c r="C170" s="18"/>
-      <c r="D170" s="18"/>
-      <c r="E170" s="18"/>
-    </row>
-    <row r="171" spans="1:5" ht="23">
-      <c r="A171" s="3"/>
-      <c r="B171" s="18"/>
-      <c r="C171" s="18"/>
-      <c r="D171" s="18"/>
-      <c r="E171" s="18"/>
-    </row>
-    <row r="172" spans="1:5" ht="23">
-      <c r="A172" s="3"/>
-      <c r="B172" s="18"/>
-      <c r="C172" s="18"/>
-      <c r="D172" s="18"/>
-      <c r="E172" s="18"/>
-    </row>
-    <row r="173" spans="1:5" ht="23">
-      <c r="A173" s="3"/>
-      <c r="B173" s="18"/>
-      <c r="C173" s="18"/>
-      <c r="D173" s="18"/>
-      <c r="E173" s="18"/>
-    </row>
-    <row r="174" spans="1:5" ht="23">
-      <c r="A174" s="3"/>
-      <c r="B174" s="18"/>
-      <c r="C174" s="18"/>
-      <c r="D174" s="18"/>
-      <c r="E174" s="18"/>
-    </row>
-    <row r="175" spans="1:5" ht="23">
-      <c r="A175" s="3"/>
-      <c r="B175" s="18"/>
-      <c r="C175" s="18"/>
-      <c r="D175" s="18"/>
-      <c r="E175" s="18"/>
-    </row>
-    <row r="176" spans="1:5" ht="23">
-      <c r="A176" s="3"/>
-      <c r="B176" s="18"/>
-      <c r="C176" s="18"/>
-      <c r="D176" s="18"/>
-      <c r="E176" s="18"/>
-    </row>
-    <row r="177" spans="1:5" ht="23">
-      <c r="A177" s="3"/>
-      <c r="B177" s="18"/>
-      <c r="C177" s="18"/>
-      <c r="D177" s="18"/>
-      <c r="E177" s="18"/>
-    </row>
-    <row r="178" spans="1:5" ht="23">
-      <c r="A178" s="3"/>
-      <c r="B178" s="18"/>
-      <c r="C178" s="18"/>
-      <c r="D178" s="18"/>
-      <c r="E178" s="18"/>
-    </row>
-    <row r="179" spans="1:5" ht="23">
-      <c r="A179" s="3"/>
-      <c r="B179" s="18"/>
-      <c r="C179" s="18"/>
-      <c r="D179" s="18"/>
-      <c r="E179" s="18"/>
-    </row>
-    <row r="180" spans="1:5" ht="23">
-      <c r="A180" s="3"/>
-      <c r="B180" s="18"/>
-      <c r="C180" s="18"/>
-      <c r="D180" s="18"/>
-      <c r="E180" s="18"/>
-    </row>
-    <row r="181" spans="1:5" ht="23">
-      <c r="A181" s="3"/>
-      <c r="B181" s="18"/>
-      <c r="C181" s="18"/>
-      <c r="D181" s="18"/>
-      <c r="E181" s="18"/>
-    </row>
-    <row r="182" spans="1:5" ht="23">
-      <c r="A182" s="3"/>
-      <c r="B182" s="18"/>
-      <c r="C182" s="18"/>
-      <c r="D182" s="18"/>
-      <c r="E182" s="18"/>
-    </row>
-    <row r="183" spans="1:5" ht="23">
+      <c r="A128" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="B128" s="60">
+        <v>1</v>
+      </c>
+      <c r="C128" s="60">
+        <v>1</v>
+      </c>
+      <c r="D128" s="60">
+        <v>1</v>
+      </c>
+      <c r="E128" s="31"/>
+      <c r="F128" s="30"/>
+      <c r="G128" s="30"/>
+      <c r="H128" s="30"/>
+      <c r="I128" s="30"/>
+    </row>
+    <row r="129" spans="1:9" ht="23">
+      <c r="A129" s="69" t="s">
+        <v>392</v>
+      </c>
+      <c r="B129" s="60">
+        <v>0</v>
+      </c>
+      <c r="C129" s="31">
+        <v>0</v>
+      </c>
+      <c r="D129" s="31">
+        <v>0</v>
+      </c>
+      <c r="E129" s="31"/>
+      <c r="F129" s="30"/>
+      <c r="G129" s="30"/>
+      <c r="H129" s="30"/>
+      <c r="I129" s="30"/>
+    </row>
+    <row r="130" spans="1:9" ht="13">
+      <c r="A130" s="69" t="s">
+        <v>301</v>
+      </c>
+      <c r="B130" s="31">
+        <v>0</v>
+      </c>
+      <c r="C130" s="31">
+        <v>0</v>
+      </c>
+      <c r="D130" s="31">
+        <v>0</v>
+      </c>
+      <c r="E130" s="31"/>
+      <c r="F130" s="30"/>
+      <c r="G130" s="30"/>
+      <c r="H130" s="30"/>
+      <c r="I130" s="30"/>
+    </row>
+    <row r="131" spans="1:9" ht="23">
+      <c r="A131" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="B131" s="60">
+        <v>0</v>
+      </c>
+      <c r="C131" s="60">
+        <v>0</v>
+      </c>
+      <c r="D131" s="60">
+        <v>0</v>
+      </c>
+      <c r="E131" s="31"/>
+      <c r="F131" s="30"/>
+      <c r="G131" s="30"/>
+      <c r="H131" s="30"/>
+      <c r="I131" s="30"/>
+    </row>
+    <row r="132" spans="1:9" ht="23">
+      <c r="A132" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="B132" s="60">
+        <v>0</v>
+      </c>
+      <c r="C132" s="60">
+        <v>0</v>
+      </c>
+      <c r="D132" s="60">
+        <v>0</v>
+      </c>
+      <c r="E132" s="31"/>
+      <c r="F132" s="30"/>
+      <c r="G132" s="30"/>
+      <c r="H132" s="30"/>
+      <c r="I132" s="30"/>
+    </row>
+    <row r="133" spans="1:9" ht="23">
+      <c r="A133" s="33"/>
+      <c r="B133" s="34">
+        <v>3</v>
+      </c>
+      <c r="C133" s="34">
+        <v>3</v>
+      </c>
+      <c r="D133" s="34">
+        <v>3</v>
+      </c>
+      <c r="E133" s="35">
+        <f>ROUND(1/3*(1/B133+1/C133+1/D133),2)</f>
+        <v>0.33</v>
+      </c>
+      <c r="F133" s="36"/>
+      <c r="G133" s="36"/>
+      <c r="H133" s="36"/>
+      <c r="I133" s="36"/>
+    </row>
+    <row r="134" spans="1:9" ht="23">
+      <c r="A134" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B134" s="12"/>
+      <c r="C134" s="12"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="37"/>
+      <c r="F134" s="38"/>
+      <c r="G134" s="38"/>
+      <c r="H134" s="38"/>
+      <c r="I134" s="38"/>
+    </row>
+    <row r="135" spans="1:9" ht="23">
+      <c r="A135" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="B135" s="7">
+        <v>0</v>
+      </c>
+      <c r="C135" s="7">
+        <v>0</v>
+      </c>
+      <c r="D135" s="7">
+        <v>0</v>
+      </c>
+      <c r="E135" s="46"/>
+    </row>
+    <row r="136" spans="1:9" ht="23">
+      <c r="A136" s="69" t="s">
+        <v>393</v>
+      </c>
+      <c r="B136" s="7">
+        <v>0</v>
+      </c>
+      <c r="C136" s="7">
+        <v>0</v>
+      </c>
+      <c r="D136" s="7">
+        <v>0</v>
+      </c>
+      <c r="E136" s="46"/>
+    </row>
+    <row r="137" spans="1:9" ht="23">
+      <c r="A137" s="69" t="s">
+        <v>318</v>
+      </c>
+      <c r="B137" s="7">
+        <v>0</v>
+      </c>
+      <c r="C137" s="7">
+        <v>1</v>
+      </c>
+      <c r="D137" s="7">
+        <v>0</v>
+      </c>
+      <c r="E137" s="46"/>
+    </row>
+    <row r="138" spans="1:9" ht="23">
+      <c r="A138" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="B138" s="7">
+        <v>0</v>
+      </c>
+      <c r="C138" s="7">
+        <v>0</v>
+      </c>
+      <c r="D138" s="7">
+        <v>0</v>
+      </c>
+      <c r="E138" s="46"/>
+    </row>
+    <row r="139" spans="1:9" ht="23">
+      <c r="A139" s="69" t="s">
+        <v>323</v>
+      </c>
+      <c r="B139" s="7">
+        <v>0</v>
+      </c>
+      <c r="C139" s="7">
+        <v>0</v>
+      </c>
+      <c r="D139" s="7">
+        <v>0</v>
+      </c>
+      <c r="E139" s="46"/>
+    </row>
+    <row r="140" spans="1:9" ht="23">
+      <c r="A140" s="69" t="s">
+        <v>394</v>
+      </c>
+      <c r="B140" s="7">
+        <v>0</v>
+      </c>
+      <c r="C140" s="7">
+        <v>0</v>
+      </c>
+      <c r="D140" s="7">
+        <v>0</v>
+      </c>
+      <c r="E140" s="46"/>
+    </row>
+    <row r="141" spans="1:9" ht="23">
+      <c r="A141" s="69" t="s">
+        <v>395</v>
+      </c>
+      <c r="B141" s="7">
+        <v>0</v>
+      </c>
+      <c r="C141" s="7">
+        <v>0</v>
+      </c>
+      <c r="D141" s="7">
+        <v>0</v>
+      </c>
+      <c r="E141" s="46"/>
+    </row>
+    <row r="142" spans="1:9" ht="23">
+      <c r="A142" s="69" t="s">
+        <v>396</v>
+      </c>
+      <c r="B142" s="7">
+        <v>0</v>
+      </c>
+      <c r="C142" s="7">
+        <v>0</v>
+      </c>
+      <c r="D142" s="7">
+        <v>0</v>
+      </c>
+      <c r="E142" s="46"/>
+    </row>
+    <row r="143" spans="1:9" ht="23">
+      <c r="A143" s="69" t="s">
+        <v>397</v>
+      </c>
+      <c r="B143" s="7">
+        <v>1</v>
+      </c>
+      <c r="C143" s="7">
+        <v>0</v>
+      </c>
+      <c r="D143" s="7">
+        <v>1</v>
+      </c>
+      <c r="E143" s="46"/>
+    </row>
+    <row r="144" spans="1:9" ht="23">
+      <c r="A144" s="69" t="s">
+        <v>255</v>
+      </c>
+      <c r="B144" s="7">
+        <v>0</v>
+      </c>
+      <c r="C144" s="7">
+        <v>0</v>
+      </c>
+      <c r="D144" s="7">
+        <v>0</v>
+      </c>
+      <c r="E144" s="46"/>
+    </row>
+    <row r="145" spans="1:9" ht="23">
+      <c r="A145" s="42"/>
+      <c r="B145" s="42">
+        <v>9</v>
+      </c>
+      <c r="C145" s="42">
+        <v>3</v>
+      </c>
+      <c r="D145" s="42">
+        <v>9</v>
+      </c>
+      <c r="E145" s="10">
+        <f>ROUND(1/3*(1/B145+1/C145+1/D145),2)</f>
+        <v>0.19</v>
+      </c>
+      <c r="F145" s="11"/>
+      <c r="G145" s="11"/>
+      <c r="H145" s="11"/>
+      <c r="I145" s="11"/>
+    </row>
+    <row r="146" spans="1:9" ht="23">
+      <c r="A146" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B146" s="12"/>
+      <c r="C146" s="12"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="37"/>
+      <c r="F146" s="38"/>
+      <c r="G146" s="43"/>
+      <c r="H146" s="38"/>
+      <c r="I146" s="38"/>
+    </row>
+    <row r="147" spans="1:9" ht="23">
+      <c r="A147" s="69" t="s">
+        <v>398</v>
+      </c>
+      <c r="B147" s="7">
+        <v>0</v>
+      </c>
+      <c r="C147" s="7">
+        <v>0</v>
+      </c>
+      <c r="D147" s="7">
+        <v>0</v>
+      </c>
+      <c r="E147" s="46"/>
+    </row>
+    <row r="148" spans="1:9" ht="23">
+      <c r="A148" s="69" t="s">
+        <v>353</v>
+      </c>
+      <c r="B148" s="7">
+        <v>1</v>
+      </c>
+      <c r="C148" s="7">
+        <v>1</v>
+      </c>
+      <c r="D148" s="7">
+        <v>1</v>
+      </c>
+      <c r="E148" s="46"/>
+    </row>
+    <row r="149" spans="1:9" ht="23">
+      <c r="A149" s="69" t="s">
+        <v>209</v>
+      </c>
+      <c r="B149" s="7">
+        <v>0</v>
+      </c>
+      <c r="C149" s="7">
+        <v>0</v>
+      </c>
+      <c r="D149" s="7">
+        <v>0</v>
+      </c>
+      <c r="E149" s="46"/>
+    </row>
+    <row r="150" spans="1:9" ht="23">
+      <c r="A150" s="69" t="s">
+        <v>269</v>
+      </c>
+      <c r="B150" s="7">
+        <v>0</v>
+      </c>
+      <c r="C150" s="7">
+        <v>0</v>
+      </c>
+      <c r="D150" s="7">
+        <v>0</v>
+      </c>
+      <c r="E150" s="46"/>
+    </row>
+    <row r="151" spans="1:9" ht="23">
+      <c r="A151" s="69" t="s">
+        <v>399</v>
+      </c>
+      <c r="B151" s="7">
+        <v>0</v>
+      </c>
+      <c r="C151" s="7">
+        <v>0</v>
+      </c>
+      <c r="D151" s="7">
+        <v>1</v>
+      </c>
+      <c r="E151" s="46"/>
+    </row>
+    <row r="152" spans="1:9" ht="23">
+      <c r="A152" s="69" t="s">
+        <v>400</v>
+      </c>
+      <c r="B152" s="7">
+        <v>0</v>
+      </c>
+      <c r="C152" s="7">
+        <v>0</v>
+      </c>
+      <c r="D152" s="7">
+        <v>0</v>
+      </c>
+      <c r="E152" s="46"/>
+    </row>
+    <row r="153" spans="1:9" ht="23">
+      <c r="A153" s="69" t="s">
+        <v>401</v>
+      </c>
+      <c r="B153" s="7">
+        <v>0</v>
+      </c>
+      <c r="C153" s="7">
+        <v>0</v>
+      </c>
+      <c r="D153" s="7">
+        <v>0</v>
+      </c>
+      <c r="E153" s="46"/>
+    </row>
+    <row r="154" spans="1:9" ht="23">
+      <c r="A154" s="69" t="s">
+        <v>402</v>
+      </c>
+      <c r="B154" s="7">
+        <v>0</v>
+      </c>
+      <c r="C154" s="7">
+        <v>1</v>
+      </c>
+      <c r="D154" s="7">
+        <v>0</v>
+      </c>
+      <c r="E154" s="46"/>
+    </row>
+    <row r="155" spans="1:9" ht="23">
+      <c r="A155" s="69" t="s">
+        <v>403</v>
+      </c>
+      <c r="B155" s="7">
+        <v>0</v>
+      </c>
+      <c r="C155" s="7">
+        <v>0</v>
+      </c>
+      <c r="D155" s="7">
+        <v>0</v>
+      </c>
+      <c r="E155" s="46"/>
+    </row>
+    <row r="156" spans="1:9" ht="23">
+      <c r="A156" s="69" t="s">
+        <v>404</v>
+      </c>
+      <c r="B156" s="7">
+        <v>0</v>
+      </c>
+      <c r="C156" s="46">
+        <v>0</v>
+      </c>
+      <c r="D156" s="46">
+        <v>0</v>
+      </c>
+      <c r="E156" s="46"/>
+    </row>
+    <row r="157" spans="1:9" ht="14">
+      <c r="A157" s="8"/>
+      <c r="B157" s="10">
+        <v>2</v>
+      </c>
+      <c r="C157" s="10">
+        <v>2</v>
+      </c>
+      <c r="D157" s="10">
+        <v>2</v>
+      </c>
+      <c r="E157" s="10">
+        <f>ROUND(1/3*(1/B157+1/C157+1/D157),2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F157" s="11"/>
+      <c r="G157" s="11"/>
+      <c r="H157" s="11"/>
+      <c r="I157" s="11"/>
+    </row>
+    <row r="158" spans="1:9" ht="23">
+      <c r="A158" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B158" s="37"/>
+      <c r="C158" s="37"/>
+      <c r="D158" s="37"/>
+      <c r="E158" s="37"/>
+      <c r="F158" s="38"/>
+      <c r="G158" s="38"/>
+      <c r="H158" s="38"/>
+      <c r="I158" s="38"/>
+    </row>
+    <row r="159" spans="1:9" ht="13">
+      <c r="A159" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B159" s="46">
+        <v>0</v>
+      </c>
+      <c r="C159" s="46">
+        <v>0</v>
+      </c>
+      <c r="D159" s="46">
+        <v>0</v>
+      </c>
+      <c r="E159" s="46"/>
+    </row>
+    <row r="160" spans="1:9" ht="14">
+      <c r="A160" s="69" t="s">
+        <v>405</v>
+      </c>
+      <c r="B160" s="46">
+        <v>0</v>
+      </c>
+      <c r="C160" s="46">
+        <v>0</v>
+      </c>
+      <c r="D160" s="46">
+        <v>0</v>
+      </c>
+      <c r="E160" s="48"/>
+    </row>
+    <row r="161" spans="1:9" ht="13">
+      <c r="A161" s="69" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161" s="46">
+        <v>0</v>
+      </c>
+      <c r="C161" s="46">
+        <v>0</v>
+      </c>
+      <c r="D161" s="46">
+        <v>0</v>
+      </c>
+      <c r="E161" s="46"/>
+    </row>
+    <row r="162" spans="1:9" ht="13">
+      <c r="A162" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="B162" s="46">
+        <v>0</v>
+      </c>
+      <c r="C162" s="46">
+        <v>0</v>
+      </c>
+      <c r="D162" s="46">
+        <v>0</v>
+      </c>
+      <c r="E162" s="46"/>
+    </row>
+    <row r="163" spans="1:9" ht="13">
+      <c r="A163" s="69" t="s">
+        <v>159</v>
+      </c>
+      <c r="B163" s="46">
+        <v>0</v>
+      </c>
+      <c r="C163" s="46">
+        <v>0</v>
+      </c>
+      <c r="D163" s="46">
+        <v>0</v>
+      </c>
+      <c r="E163" s="46"/>
+    </row>
+    <row r="164" spans="1:9" ht="13">
+      <c r="A164" s="69" t="s">
+        <v>406</v>
+      </c>
+      <c r="B164" s="46">
+        <v>0</v>
+      </c>
+      <c r="C164" s="46">
+        <v>0</v>
+      </c>
+      <c r="D164" s="46">
+        <v>0</v>
+      </c>
+      <c r="E164" s="46"/>
+    </row>
+    <row r="165" spans="1:9" ht="13">
+      <c r="A165" s="69" t="s">
+        <v>407</v>
+      </c>
+      <c r="B165" s="46">
+        <v>0</v>
+      </c>
+      <c r="C165" s="46">
+        <v>0</v>
+      </c>
+      <c r="D165" s="46">
+        <v>0</v>
+      </c>
+      <c r="E165" s="46"/>
+      <c r="F165" s="49" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="13">
+      <c r="A166" s="69" t="s">
+        <v>323</v>
+      </c>
+      <c r="B166" s="46">
+        <v>0</v>
+      </c>
+      <c r="C166" s="46">
+        <v>0</v>
+      </c>
+      <c r="D166" s="46">
+        <v>0</v>
+      </c>
+      <c r="E166" s="46"/>
+    </row>
+    <row r="167" spans="1:9" ht="13">
+      <c r="A167" s="69" t="s">
+        <v>395</v>
+      </c>
+      <c r="B167" s="46">
+        <v>1</v>
+      </c>
+      <c r="C167" s="46">
+        <v>1</v>
+      </c>
+      <c r="D167" s="46">
+        <v>1</v>
+      </c>
+      <c r="E167" s="46"/>
+    </row>
+    <row r="168" spans="1:9" ht="13">
+      <c r="A168" s="69" t="s">
+        <v>279</v>
+      </c>
+      <c r="B168" s="46">
+        <v>0</v>
+      </c>
+      <c r="C168" s="46">
+        <v>0</v>
+      </c>
+      <c r="D168" s="46">
+        <v>0</v>
+      </c>
+      <c r="E168" s="46"/>
+    </row>
+    <row r="169" spans="1:9" ht="14">
+      <c r="A169" s="8"/>
+      <c r="B169" s="10">
+        <v>9</v>
+      </c>
+      <c r="C169" s="10">
+        <v>9</v>
+      </c>
+      <c r="D169" s="10">
+        <v>9</v>
+      </c>
+      <c r="E169" s="10">
+        <f>ROUND(1/3*(1/B169+1/C169+1/D169),2)</f>
+        <v>0.11</v>
+      </c>
+      <c r="F169" s="11"/>
+      <c r="G169" s="11"/>
+      <c r="H169" s="11"/>
+      <c r="I169" s="11"/>
+    </row>
+    <row r="170" spans="1:9" ht="23">
+      <c r="A170" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B170" s="37"/>
+      <c r="C170" s="37"/>
+      <c r="D170" s="37"/>
+      <c r="E170" s="37"/>
+      <c r="F170" s="38"/>
+      <c r="G170" s="38"/>
+      <c r="H170" s="38"/>
+      <c r="I170" s="38"/>
+    </row>
+    <row r="171" spans="1:9" ht="13">
+      <c r="A171" s="69" t="s">
+        <v>408</v>
+      </c>
+      <c r="B171" s="46">
+        <v>0</v>
+      </c>
+      <c r="C171" s="46">
+        <v>0</v>
+      </c>
+      <c r="D171" s="46">
+        <v>0</v>
+      </c>
+      <c r="E171" s="46"/>
+    </row>
+    <row r="172" spans="1:9" ht="13">
+      <c r="A172" s="69" t="s">
+        <v>402</v>
+      </c>
+      <c r="B172" s="46">
+        <v>0</v>
+      </c>
+      <c r="C172" s="46">
+        <v>0</v>
+      </c>
+      <c r="D172" s="46">
+        <v>0</v>
+      </c>
+      <c r="E172" s="46"/>
+    </row>
+    <row r="173" spans="1:9" ht="13">
+      <c r="A173" s="69" t="s">
+        <v>409</v>
+      </c>
+      <c r="B173" s="46">
+        <v>0</v>
+      </c>
+      <c r="C173" s="46">
+        <v>0</v>
+      </c>
+      <c r="D173" s="46">
+        <v>0</v>
+      </c>
+      <c r="E173" s="46"/>
+    </row>
+    <row r="174" spans="1:9" ht="13">
+      <c r="A174" s="69" t="s">
+        <v>410</v>
+      </c>
+      <c r="B174" s="46">
+        <v>0</v>
+      </c>
+      <c r="C174" s="46">
+        <v>0</v>
+      </c>
+      <c r="D174" s="46">
+        <v>0</v>
+      </c>
+      <c r="E174" s="46"/>
+    </row>
+    <row r="175" spans="1:9" ht="14">
+      <c r="A175" s="69" t="s">
+        <v>347</v>
+      </c>
+      <c r="B175" s="46">
+        <v>0</v>
+      </c>
+      <c r="C175" s="46">
+        <v>0</v>
+      </c>
+      <c r="D175" s="46">
+        <v>0</v>
+      </c>
+      <c r="E175" s="48"/>
+    </row>
+    <row r="176" spans="1:9" ht="13">
+      <c r="A176" s="69" t="s">
+        <v>411</v>
+      </c>
+      <c r="B176" s="46">
+        <v>0</v>
+      </c>
+      <c r="C176" s="46">
+        <v>0</v>
+      </c>
+      <c r="D176" s="46">
+        <v>0</v>
+      </c>
+      <c r="E176" s="46"/>
+    </row>
+    <row r="177" spans="1:9" ht="13">
+      <c r="A177" s="69" t="s">
+        <v>412</v>
+      </c>
+      <c r="B177" s="46">
+        <v>0</v>
+      </c>
+      <c r="C177" s="46">
+        <v>0</v>
+      </c>
+      <c r="D177" s="46">
+        <v>0</v>
+      </c>
+      <c r="E177" s="46"/>
+    </row>
+    <row r="178" spans="1:9" ht="13">
+      <c r="A178" s="69" t="s">
+        <v>413</v>
+      </c>
+      <c r="B178" s="46">
+        <v>0</v>
+      </c>
+      <c r="C178" s="46">
+        <v>0</v>
+      </c>
+      <c r="D178" s="46">
+        <v>0</v>
+      </c>
+      <c r="E178" s="46"/>
+    </row>
+    <row r="179" spans="1:9" ht="13">
+      <c r="A179" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B179" s="46">
+        <v>1</v>
+      </c>
+      <c r="C179" s="46">
+        <v>1</v>
+      </c>
+      <c r="D179" s="46">
+        <v>1</v>
+      </c>
+      <c r="E179" s="46" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="13">
+      <c r="A180" s="69" t="s">
+        <v>414</v>
+      </c>
+      <c r="B180" s="46">
+        <v>0</v>
+      </c>
+      <c r="C180" s="46">
+        <v>0</v>
+      </c>
+      <c r="D180" s="46">
+        <v>0</v>
+      </c>
+      <c r="E180" s="46" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="14">
+      <c r="A181" s="8"/>
+      <c r="B181" s="10">
+        <v>9</v>
+      </c>
+      <c r="C181" s="10">
+        <v>9</v>
+      </c>
+      <c r="D181" s="10">
+        <v>9</v>
+      </c>
+      <c r="E181" s="10">
+        <f>ROUND(1/3*(1/B181+1/C181+1/D181),2)</f>
+        <v>0.11</v>
+      </c>
+      <c r="F181" s="11"/>
+      <c r="G181" s="11"/>
+      <c r="H181" s="11"/>
+      <c r="I181" s="11"/>
+    </row>
+    <row r="182" spans="1:9" ht="23">
+      <c r="A182" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B182" s="46">
+        <f>ROUND(AVERAGE(1/B133,1/B145,1/B157, 1/B169, 1/B181), 2)</f>
+        <v>0.23</v>
+      </c>
+      <c r="C182" s="46">
+        <f>ROUND(AVERAGE(1/C133,1/C145,1/C157, 1/C169, 1/C181), 2)</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D182" s="46">
+        <f>ROUND(AVERAGE(1/D133,1/D145,1/D157, 1/D169, 1/D181), 2)</f>
+        <v>0.23</v>
+      </c>
+      <c r="E182" s="46">
+        <f>ROUND(AVERAGE(B182:D182),2)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="23">
       <c r="A183" s="3"/>
       <c r="B183" s="18"/>
       <c r="C183" s="18"/>
       <c r="D183" s="18"/>
       <c r="E183" s="18"/>
     </row>
-    <row r="184" spans="1:5" ht="23">
+    <row r="184" spans="1:9" ht="23">
       <c r="A184" s="3"/>
       <c r="B184" s="18"/>
       <c r="C184" s="18"/>
       <c r="D184" s="18"/>
       <c r="E184" s="18"/>
     </row>
-    <row r="185" spans="1:5" ht="23">
+    <row r="185" spans="1:9" ht="23">
       <c r="A185" s="3"/>
       <c r="B185" s="18"/>
       <c r="C185" s="18"/>
       <c r="D185" s="18"/>
       <c r="E185" s="18"/>
     </row>
-    <row r="186" spans="1:5" ht="23">
+    <row r="186" spans="1:9" ht="23">
       <c r="A186" s="3"/>
       <c r="B186" s="18"/>
       <c r="C186" s="18"/>
       <c r="D186" s="18"/>
       <c r="E186" s="18"/>
     </row>
-    <row r="187" spans="1:5" ht="23">
+    <row r="187" spans="1:9" ht="23">
       <c r="A187" s="3"/>
       <c r="B187" s="18"/>
       <c r="C187" s="18"/>
       <c r="D187" s="18"/>
       <c r="E187" s="18"/>
     </row>
-    <row r="188" spans="1:5" ht="23">
+    <row r="188" spans="1:9" ht="23">
       <c r="A188" s="3"/>
       <c r="B188" s="18"/>
       <c r="C188" s="18"/>
       <c r="D188" s="18"/>
       <c r="E188" s="18"/>
     </row>
-    <row r="189" spans="1:5" ht="23">
+    <row r="189" spans="1:9" ht="23">
       <c r="A189" s="3"/>
       <c r="B189" s="18"/>
       <c r="C189" s="18"/>
       <c r="D189" s="18"/>
       <c r="E189" s="18"/>
     </row>
-    <row r="190" spans="1:5" ht="23">
+    <row r="190" spans="1:9" ht="23">
       <c r="A190" s="3"/>
       <c r="B190" s="18"/>
       <c r="C190" s="18"/>
       <c r="D190" s="18"/>
       <c r="E190" s="18"/>
     </row>
-    <row r="191" spans="1:5" ht="23">
+    <row r="191" spans="1:9" ht="23">
       <c r="A191" s="3"/>
       <c r="B191" s="18"/>
       <c r="C191" s="18"/>
       <c r="D191" s="18"/>
       <c r="E191" s="18"/>
     </row>
-    <row r="192" spans="1:5" ht="23">
+    <row r="192" spans="1:9" ht="23">
       <c r="A192" s="3"/>
       <c r="B192" s="18"/>
       <c r="C192" s="18"/>
@@ -38972,426 +38626,6 @@
       <c r="C949" s="18"/>
       <c r="D949" s="18"/>
       <c r="E949" s="18"/>
-    </row>
-    <row r="950" spans="1:5" ht="23">
-      <c r="A950" s="3"/>
-      <c r="B950" s="18"/>
-      <c r="C950" s="18"/>
-      <c r="D950" s="18"/>
-      <c r="E950" s="18"/>
-    </row>
-    <row r="951" spans="1:5" ht="23">
-      <c r="A951" s="3"/>
-      <c r="B951" s="18"/>
-      <c r="C951" s="18"/>
-      <c r="D951" s="18"/>
-      <c r="E951" s="18"/>
-    </row>
-    <row r="952" spans="1:5" ht="23">
-      <c r="A952" s="3"/>
-      <c r="B952" s="18"/>
-      <c r="C952" s="18"/>
-      <c r="D952" s="18"/>
-      <c r="E952" s="18"/>
-    </row>
-    <row r="953" spans="1:5" ht="23">
-      <c r="A953" s="3"/>
-      <c r="B953" s="18"/>
-      <c r="C953" s="18"/>
-      <c r="D953" s="18"/>
-      <c r="E953" s="18"/>
-    </row>
-    <row r="954" spans="1:5" ht="23">
-      <c r="A954" s="3"/>
-      <c r="B954" s="18"/>
-      <c r="C954" s="18"/>
-      <c r="D954" s="18"/>
-      <c r="E954" s="18"/>
-    </row>
-    <row r="955" spans="1:5" ht="23">
-      <c r="A955" s="3"/>
-      <c r="B955" s="18"/>
-      <c r="C955" s="18"/>
-      <c r="D955" s="18"/>
-      <c r="E955" s="18"/>
-    </row>
-    <row r="956" spans="1:5" ht="23">
-      <c r="A956" s="3"/>
-      <c r="B956" s="18"/>
-      <c r="C956" s="18"/>
-      <c r="D956" s="18"/>
-      <c r="E956" s="18"/>
-    </row>
-    <row r="957" spans="1:5" ht="23">
-      <c r="A957" s="3"/>
-      <c r="B957" s="18"/>
-      <c r="C957" s="18"/>
-      <c r="D957" s="18"/>
-      <c r="E957" s="18"/>
-    </row>
-    <row r="958" spans="1:5" ht="23">
-      <c r="A958" s="3"/>
-      <c r="B958" s="18"/>
-      <c r="C958" s="18"/>
-      <c r="D958" s="18"/>
-      <c r="E958" s="18"/>
-    </row>
-    <row r="959" spans="1:5" ht="23">
-      <c r="A959" s="3"/>
-      <c r="B959" s="18"/>
-      <c r="C959" s="18"/>
-      <c r="D959" s="18"/>
-      <c r="E959" s="18"/>
-    </row>
-    <row r="960" spans="1:5" ht="23">
-      <c r="A960" s="3"/>
-      <c r="B960" s="18"/>
-      <c r="C960" s="18"/>
-      <c r="D960" s="18"/>
-      <c r="E960" s="18"/>
-    </row>
-    <row r="961" spans="1:5" ht="23">
-      <c r="A961" s="3"/>
-      <c r="B961" s="18"/>
-      <c r="C961" s="18"/>
-      <c r="D961" s="18"/>
-      <c r="E961" s="18"/>
-    </row>
-    <row r="962" spans="1:5" ht="23">
-      <c r="A962" s="3"/>
-      <c r="B962" s="18"/>
-      <c r="C962" s="18"/>
-      <c r="D962" s="18"/>
-      <c r="E962" s="18"/>
-    </row>
-    <row r="963" spans="1:5" ht="23">
-      <c r="A963" s="3"/>
-      <c r="B963" s="18"/>
-      <c r="C963" s="18"/>
-      <c r="D963" s="18"/>
-      <c r="E963" s="18"/>
-    </row>
-    <row r="964" spans="1:5" ht="23">
-      <c r="A964" s="3"/>
-      <c r="B964" s="18"/>
-      <c r="C964" s="18"/>
-      <c r="D964" s="18"/>
-      <c r="E964" s="18"/>
-    </row>
-    <row r="965" spans="1:5" ht="23">
-      <c r="A965" s="3"/>
-      <c r="B965" s="18"/>
-      <c r="C965" s="18"/>
-      <c r="D965" s="18"/>
-      <c r="E965" s="18"/>
-    </row>
-    <row r="966" spans="1:5" ht="23">
-      <c r="A966" s="3"/>
-      <c r="B966" s="18"/>
-      <c r="C966" s="18"/>
-      <c r="D966" s="18"/>
-      <c r="E966" s="18"/>
-    </row>
-    <row r="967" spans="1:5" ht="23">
-      <c r="A967" s="3"/>
-      <c r="B967" s="18"/>
-      <c r="C967" s="18"/>
-      <c r="D967" s="18"/>
-      <c r="E967" s="18"/>
-    </row>
-    <row r="968" spans="1:5" ht="23">
-      <c r="A968" s="3"/>
-      <c r="B968" s="18"/>
-      <c r="C968" s="18"/>
-      <c r="D968" s="18"/>
-      <c r="E968" s="18"/>
-    </row>
-    <row r="969" spans="1:5" ht="23">
-      <c r="A969" s="3"/>
-      <c r="B969" s="18"/>
-      <c r="C969" s="18"/>
-      <c r="D969" s="18"/>
-      <c r="E969" s="18"/>
-    </row>
-    <row r="970" spans="1:5" ht="23">
-      <c r="A970" s="3"/>
-      <c r="B970" s="18"/>
-      <c r="C970" s="18"/>
-      <c r="D970" s="18"/>
-      <c r="E970" s="18"/>
-    </row>
-    <row r="971" spans="1:5" ht="23">
-      <c r="A971" s="3"/>
-      <c r="B971" s="18"/>
-      <c r="C971" s="18"/>
-      <c r="D971" s="18"/>
-      <c r="E971" s="18"/>
-    </row>
-    <row r="972" spans="1:5" ht="23">
-      <c r="A972" s="3"/>
-      <c r="B972" s="18"/>
-      <c r="C972" s="18"/>
-      <c r="D972" s="18"/>
-      <c r="E972" s="18"/>
-    </row>
-    <row r="973" spans="1:5" ht="23">
-      <c r="A973" s="3"/>
-      <c r="B973" s="18"/>
-      <c r="C973" s="18"/>
-      <c r="D973" s="18"/>
-      <c r="E973" s="18"/>
-    </row>
-    <row r="974" spans="1:5" ht="23">
-      <c r="A974" s="3"/>
-      <c r="B974" s="18"/>
-      <c r="C974" s="18"/>
-      <c r="D974" s="18"/>
-      <c r="E974" s="18"/>
-    </row>
-    <row r="975" spans="1:5" ht="23">
-      <c r="A975" s="3"/>
-      <c r="B975" s="18"/>
-      <c r="C975" s="18"/>
-      <c r="D975" s="18"/>
-      <c r="E975" s="18"/>
-    </row>
-    <row r="976" spans="1:5" ht="23">
-      <c r="A976" s="3"/>
-      <c r="B976" s="18"/>
-      <c r="C976" s="18"/>
-      <c r="D976" s="18"/>
-      <c r="E976" s="18"/>
-    </row>
-    <row r="977" spans="1:5" ht="23">
-      <c r="A977" s="3"/>
-      <c r="B977" s="18"/>
-      <c r="C977" s="18"/>
-      <c r="D977" s="18"/>
-      <c r="E977" s="18"/>
-    </row>
-    <row r="978" spans="1:5" ht="23">
-      <c r="A978" s="3"/>
-      <c r="B978" s="18"/>
-      <c r="C978" s="18"/>
-      <c r="D978" s="18"/>
-      <c r="E978" s="18"/>
-    </row>
-    <row r="979" spans="1:5" ht="23">
-      <c r="A979" s="3"/>
-      <c r="B979" s="18"/>
-      <c r="C979" s="18"/>
-      <c r="D979" s="18"/>
-      <c r="E979" s="18"/>
-    </row>
-    <row r="980" spans="1:5" ht="23">
-      <c r="A980" s="3"/>
-      <c r="B980" s="18"/>
-      <c r="C980" s="18"/>
-      <c r="D980" s="18"/>
-      <c r="E980" s="18"/>
-    </row>
-    <row r="981" spans="1:5" ht="23">
-      <c r="A981" s="3"/>
-      <c r="B981" s="18"/>
-      <c r="C981" s="18"/>
-      <c r="D981" s="18"/>
-      <c r="E981" s="18"/>
-    </row>
-    <row r="982" spans="1:5" ht="23">
-      <c r="A982" s="3"/>
-      <c r="B982" s="18"/>
-      <c r="C982" s="18"/>
-      <c r="D982" s="18"/>
-      <c r="E982" s="18"/>
-    </row>
-    <row r="983" spans="1:5" ht="23">
-      <c r="A983" s="3"/>
-      <c r="B983" s="18"/>
-      <c r="C983" s="18"/>
-      <c r="D983" s="18"/>
-      <c r="E983" s="18"/>
-    </row>
-    <row r="984" spans="1:5" ht="23">
-      <c r="A984" s="3"/>
-      <c r="B984" s="18"/>
-      <c r="C984" s="18"/>
-      <c r="D984" s="18"/>
-      <c r="E984" s="18"/>
-    </row>
-    <row r="985" spans="1:5" ht="23">
-      <c r="A985" s="3"/>
-      <c r="B985" s="18"/>
-      <c r="C985" s="18"/>
-      <c r="D985" s="18"/>
-      <c r="E985" s="18"/>
-    </row>
-    <row r="986" spans="1:5" ht="23">
-      <c r="A986" s="3"/>
-      <c r="B986" s="18"/>
-      <c r="C986" s="18"/>
-      <c r="D986" s="18"/>
-      <c r="E986" s="18"/>
-    </row>
-    <row r="987" spans="1:5" ht="23">
-      <c r="A987" s="3"/>
-      <c r="B987" s="18"/>
-      <c r="C987" s="18"/>
-      <c r="D987" s="18"/>
-      <c r="E987" s="18"/>
-    </row>
-    <row r="988" spans="1:5" ht="23">
-      <c r="A988" s="3"/>
-      <c r="B988" s="18"/>
-      <c r="C988" s="18"/>
-      <c r="D988" s="18"/>
-      <c r="E988" s="18"/>
-    </row>
-    <row r="989" spans="1:5" ht="23">
-      <c r="A989" s="3"/>
-      <c r="B989" s="18"/>
-      <c r="C989" s="18"/>
-      <c r="D989" s="18"/>
-      <c r="E989" s="18"/>
-    </row>
-    <row r="990" spans="1:5" ht="23">
-      <c r="A990" s="3"/>
-      <c r="B990" s="18"/>
-      <c r="C990" s="18"/>
-      <c r="D990" s="18"/>
-      <c r="E990" s="18"/>
-    </row>
-    <row r="991" spans="1:5" ht="23">
-      <c r="A991" s="3"/>
-      <c r="B991" s="18"/>
-      <c r="C991" s="18"/>
-      <c r="D991" s="18"/>
-      <c r="E991" s="18"/>
-    </row>
-    <row r="992" spans="1:5" ht="23">
-      <c r="A992" s="3"/>
-      <c r="B992" s="18"/>
-      <c r="C992" s="18"/>
-      <c r="D992" s="18"/>
-      <c r="E992" s="18"/>
-    </row>
-    <row r="993" spans="1:5" ht="23">
-      <c r="A993" s="3"/>
-      <c r="B993" s="18"/>
-      <c r="C993" s="18"/>
-      <c r="D993" s="18"/>
-      <c r="E993" s="18"/>
-    </row>
-    <row r="994" spans="1:5" ht="23">
-      <c r="A994" s="3"/>
-      <c r="B994" s="18"/>
-      <c r="C994" s="18"/>
-      <c r="D994" s="18"/>
-      <c r="E994" s="18"/>
-    </row>
-    <row r="995" spans="1:5" ht="23">
-      <c r="A995" s="3"/>
-      <c r="B995" s="18"/>
-      <c r="C995" s="18"/>
-      <c r="D995" s="18"/>
-      <c r="E995" s="18"/>
-    </row>
-    <row r="996" spans="1:5" ht="23">
-      <c r="A996" s="3"/>
-      <c r="B996" s="18"/>
-      <c r="C996" s="18"/>
-      <c r="D996" s="18"/>
-      <c r="E996" s="18"/>
-    </row>
-    <row r="997" spans="1:5" ht="23">
-      <c r="A997" s="3"/>
-      <c r="B997" s="18"/>
-      <c r="C997" s="18"/>
-      <c r="D997" s="18"/>
-      <c r="E997" s="18"/>
-    </row>
-    <row r="998" spans="1:5" ht="23">
-      <c r="A998" s="3"/>
-      <c r="B998" s="18"/>
-      <c r="C998" s="18"/>
-      <c r="D998" s="18"/>
-      <c r="E998" s="18"/>
-    </row>
-    <row r="999" spans="1:5" ht="23">
-      <c r="A999" s="3"/>
-      <c r="B999" s="18"/>
-      <c r="C999" s="18"/>
-      <c r="D999" s="18"/>
-      <c r="E999" s="18"/>
-    </row>
-    <row r="1000" spans="1:5" ht="23">
-      <c r="A1000" s="3"/>
-      <c r="B1000" s="18"/>
-      <c r="C1000" s="18"/>
-      <c r="D1000" s="18"/>
-      <c r="E1000" s="18"/>
-    </row>
-    <row r="1001" spans="1:5" ht="23">
-      <c r="A1001" s="3"/>
-      <c r="B1001" s="18"/>
-      <c r="C1001" s="18"/>
-      <c r="D1001" s="18"/>
-      <c r="E1001" s="18"/>
-    </row>
-    <row r="1002" spans="1:5" ht="23">
-      <c r="A1002" s="3"/>
-      <c r="B1002" s="18"/>
-      <c r="C1002" s="18"/>
-      <c r="D1002" s="18"/>
-      <c r="E1002" s="18"/>
-    </row>
-    <row r="1003" spans="1:5" ht="23">
-      <c r="A1003" s="3"/>
-      <c r="B1003" s="18"/>
-      <c r="C1003" s="18"/>
-      <c r="D1003" s="18"/>
-      <c r="E1003" s="18"/>
-    </row>
-    <row r="1004" spans="1:5" ht="23">
-      <c r="A1004" s="3"/>
-      <c r="B1004" s="18"/>
-      <c r="C1004" s="18"/>
-      <c r="D1004" s="18"/>
-      <c r="E1004" s="18"/>
-    </row>
-    <row r="1005" spans="1:5" ht="23">
-      <c r="A1005" s="3"/>
-      <c r="B1005" s="18"/>
-      <c r="C1005" s="18"/>
-      <c r="D1005" s="18"/>
-      <c r="E1005" s="18"/>
-    </row>
-    <row r="1006" spans="1:5" ht="23">
-      <c r="A1006" s="3"/>
-      <c r="B1006" s="18"/>
-      <c r="C1006" s="18"/>
-      <c r="D1006" s="18"/>
-      <c r="E1006" s="18"/>
-    </row>
-    <row r="1007" spans="1:5" ht="23">
-      <c r="A1007" s="3"/>
-      <c r="B1007" s="18"/>
-      <c r="C1007" s="18"/>
-      <c r="D1007" s="18"/>
-      <c r="E1007" s="18"/>
-    </row>
-    <row r="1008" spans="1:5" ht="23">
-      <c r="A1008" s="3"/>
-      <c r="B1008" s="18"/>
-      <c r="C1008" s="18"/>
-      <c r="D1008" s="18"/>
-      <c r="E1008" s="18"/>
-    </row>
-    <row r="1009" spans="1:5" ht="23">
-      <c r="A1009" s="3"/>
-      <c r="B1009" s="18"/>
-      <c r="C1009" s="18"/>
-      <c r="D1009" s="18"/>
-      <c r="E1009" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -39492,9 +38726,56 @@
     <hyperlink ref="A116" r:id="rId95" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
     <hyperlink ref="A117" r:id="rId96" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
     <hyperlink ref="A118" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
+    <hyperlink ref="A126" r:id="rId98" xr:uid="{9A5E4804-80E6-F440-BA1B-34C7A40E4357}"/>
+    <hyperlink ref="A127" r:id="rId99" xr:uid="{ABD7390A-ACBA-EA4F-B250-8C92D32007F0}"/>
+    <hyperlink ref="A128" r:id="rId100" xr:uid="{42959AC9-A4B8-4C45-BABC-ADE397283D00}"/>
+    <hyperlink ref="A129" r:id="rId101" xr:uid="{26FDE245-72E1-CB41-BA6F-E942CCB32C2E}"/>
+    <hyperlink ref="A130" r:id="rId102" xr:uid="{1BC06F9E-58B3-7D47-A4D5-0C1A0B788850}"/>
+    <hyperlink ref="A131" r:id="rId103" xr:uid="{61342749-885C-AA40-A55E-FF692CC3C879}"/>
+    <hyperlink ref="A132" r:id="rId104" xr:uid="{67173C39-E79E-6C4D-B866-C48EB3071ACD}"/>
+    <hyperlink ref="A135" r:id="rId105" xr:uid="{058B74C0-8946-FF49-ABB9-002D935A12C5}"/>
+    <hyperlink ref="A136" r:id="rId106" xr:uid="{52A0E9BF-D6C8-E141-AD2D-B642A8AC3584}"/>
+    <hyperlink ref="A137" r:id="rId107" xr:uid="{189D3AF5-55CF-E349-9625-AB91AF6CDE72}"/>
+    <hyperlink ref="A138" r:id="rId108" xr:uid="{5A44D61B-F172-C14D-B1E7-50AED1431FA5}"/>
+    <hyperlink ref="A139" r:id="rId109" xr:uid="{990902EF-BE82-094D-B53C-68C77F98D197}"/>
+    <hyperlink ref="A140" r:id="rId110" xr:uid="{A21FAEBC-7CC5-C042-BD89-EB728A85E5D9}"/>
+    <hyperlink ref="A141" r:id="rId111" xr:uid="{73BA9503-2E82-1A4A-8738-56F3DEAF24FB}"/>
+    <hyperlink ref="A142" r:id="rId112" xr:uid="{DB86C764-579E-0448-A4CC-13A2A0D7CED7}"/>
+    <hyperlink ref="A143" r:id="rId113" xr:uid="{A558E1B0-C7E9-E448-B263-AEE4E3B78928}"/>
+    <hyperlink ref="A144" r:id="rId114" xr:uid="{2AFDF30B-0970-FC4F-9B22-382BAD774E08}"/>
+    <hyperlink ref="A147" r:id="rId115" xr:uid="{717AE1FB-6713-2144-8F1A-80D878F82026}"/>
+    <hyperlink ref="A148" r:id="rId116" xr:uid="{E6E09A1C-5062-DC4E-9C77-B13322BB9C62}"/>
+    <hyperlink ref="A149" r:id="rId117" xr:uid="{039F250E-943E-184E-87AD-2645C80BA102}"/>
+    <hyperlink ref="A150" r:id="rId118" xr:uid="{631E08AC-6294-534D-A854-7AA3EA627BDB}"/>
+    <hyperlink ref="A151" r:id="rId119" xr:uid="{E5E9304A-F67F-6A44-890A-C0F9A7D3434F}"/>
+    <hyperlink ref="A152" r:id="rId120" xr:uid="{BB259B20-FFE4-514F-950A-6909EEF26EB6}"/>
+    <hyperlink ref="A153" r:id="rId121" xr:uid="{A4CCCA08-B82A-9549-A645-087B96F89212}"/>
+    <hyperlink ref="A154" r:id="rId122" xr:uid="{05B12FD8-A1DB-FB4B-B9FD-513302A6BAF7}"/>
+    <hyperlink ref="A155" r:id="rId123" xr:uid="{5F48B501-3A23-D641-AD4C-4DADA864295C}"/>
+    <hyperlink ref="A156" r:id="rId124" xr:uid="{03517564-7612-1646-8ADC-47CE238F6FEB}"/>
+    <hyperlink ref="A159" r:id="rId125" xr:uid="{A77A127D-02D3-0E4F-8D6A-2AFF2F147DD4}"/>
+    <hyperlink ref="A160" r:id="rId126" xr:uid="{63300BD5-4EB5-E240-B25B-64265893DF80}"/>
+    <hyperlink ref="A161" r:id="rId127" xr:uid="{D3842D31-E7F4-494F-9E40-29E8290533ED}"/>
+    <hyperlink ref="A162" r:id="rId128" xr:uid="{7696F61A-60F7-C64A-B746-B7C812D3E5D8}"/>
+    <hyperlink ref="A163" r:id="rId129" xr:uid="{E5AF35A1-EE16-0346-818C-B30114048DD1}"/>
+    <hyperlink ref="A164" r:id="rId130" xr:uid="{26246E48-70FC-584C-BF82-017ABED5B4C5}"/>
+    <hyperlink ref="A165" r:id="rId131" xr:uid="{152C714F-53CB-A14D-AF36-15B013856E52}"/>
+    <hyperlink ref="A166" r:id="rId132" xr:uid="{3954C3FE-F7A4-5044-B4AE-18E0BD44E04C}"/>
+    <hyperlink ref="A167" r:id="rId133" xr:uid="{F79795F0-8998-DC41-AF16-E558F64AD1FB}"/>
+    <hyperlink ref="A168" r:id="rId134" xr:uid="{5821A7A1-FB4A-7F42-A029-86D0158221B5}"/>
+    <hyperlink ref="A171" r:id="rId135" xr:uid="{D7212C4C-8F47-BE40-BE3C-34B6D67CA94D}"/>
+    <hyperlink ref="A172" r:id="rId136" xr:uid="{3C35B077-6F21-0D42-A9DB-2CE73FC26A39}"/>
+    <hyperlink ref="A173" r:id="rId137" xr:uid="{54CCBFE7-8FA3-5B43-8A58-420D6A4F8EE0}"/>
+    <hyperlink ref="A174" r:id="rId138" xr:uid="{4DD3EE90-824C-B848-8C99-32919C2A5F59}"/>
+    <hyperlink ref="A175" r:id="rId139" xr:uid="{D6B936C4-6C08-144D-82F8-F70F705EF00D}"/>
+    <hyperlink ref="A176" r:id="rId140" xr:uid="{EFFF170E-76F5-E84C-A6B1-515513E0FDCE}"/>
+    <hyperlink ref="A177" r:id="rId141" xr:uid="{C3E1C47D-B20B-FE4B-975B-942340FC7199}"/>
+    <hyperlink ref="A178" r:id="rId142" xr:uid="{6DC93B28-6CE3-B545-8560-5458E271CE40}"/>
+    <hyperlink ref="A179" r:id="rId143" xr:uid="{E5232F8C-E796-DF45-A765-CD7045579045}"/>
+    <hyperlink ref="A180" r:id="rId144" xr:uid="{B94622F3-B1D1-524C-BA63-0514549CE5E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId98"/>
+  <legacyDrawing r:id="rId145"/>
 </worksheet>
 </file>
 
@@ -39503,10 +38784,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1011"/>
+  <dimension ref="A1:Z950"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="A191" sqref="A191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -41648,390 +40929,1055 @@
       <c r="D127" s="3"/>
     </row>
     <row r="128" spans="1:26" ht="23">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
-      <c r="D128" s="3"/>
-    </row>
-    <row r="129" spans="1:4" ht="23">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-    </row>
-    <row r="130" spans="1:4" ht="23">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-    </row>
-    <row r="131" spans="1:4" ht="23">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
-      <c r="D131" s="3"/>
-    </row>
-    <row r="132" spans="1:4" ht="23">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
-    </row>
-    <row r="133" spans="1:4" ht="23">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-    </row>
-    <row r="134" spans="1:4" ht="23">
-      <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-    </row>
-    <row r="135" spans="1:4" ht="23">
-      <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-    </row>
-    <row r="136" spans="1:4" ht="23">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="3"/>
-      <c r="D136" s="3"/>
-    </row>
-    <row r="137" spans="1:4" ht="23">
-      <c r="A137" s="3"/>
-      <c r="B137" s="3"/>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
-    </row>
-    <row r="138" spans="1:4" ht="23">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
-    </row>
-    <row r="139" spans="1:4" ht="23">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
-    </row>
-    <row r="140" spans="1:4" ht="23">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
-      <c r="C140" s="3"/>
-      <c r="D140" s="3"/>
-    </row>
-    <row r="141" spans="1:4" ht="23">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="3"/>
-      <c r="D141" s="3"/>
-    </row>
-    <row r="142" spans="1:4" ht="23">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
-      <c r="D142" s="3"/>
-    </row>
-    <row r="143" spans="1:4" ht="23">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
-      <c r="D143" s="3"/>
-    </row>
-    <row r="144" spans="1:4" ht="23">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
-      <c r="D144" s="3"/>
-    </row>
-    <row r="145" spans="1:4" ht="23">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
-      <c r="D145" s="3"/>
-    </row>
-    <row r="146" spans="1:4" ht="23">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
-      <c r="D146" s="3"/>
-    </row>
-    <row r="147" spans="1:4" ht="23">
-      <c r="A147" s="3"/>
-      <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
-      <c r="D147" s="3"/>
-    </row>
-    <row r="148" spans="1:4" ht="23">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
-      <c r="D148" s="3"/>
-    </row>
-    <row r="149" spans="1:4" ht="23">
-      <c r="A149" s="3"/>
-      <c r="B149" s="3"/>
-      <c r="C149" s="3"/>
-      <c r="D149" s="3"/>
-    </row>
-    <row r="150" spans="1:4" ht="23">
-      <c r="A150" s="3"/>
-      <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
-      <c r="D150" s="3"/>
-    </row>
-    <row r="151" spans="1:4" ht="23">
-      <c r="A151" s="3"/>
-      <c r="B151" s="3"/>
-      <c r="C151" s="3"/>
-      <c r="D151" s="3"/>
-    </row>
-    <row r="152" spans="1:4" ht="23">
-      <c r="A152" s="3"/>
-      <c r="B152" s="3"/>
-      <c r="C152" s="3"/>
-      <c r="D152" s="3"/>
-    </row>
-    <row r="153" spans="1:4" ht="23">
-      <c r="A153" s="3"/>
-      <c r="B153" s="3"/>
-      <c r="C153" s="3"/>
-      <c r="D153" s="3"/>
-    </row>
-    <row r="154" spans="1:4" ht="23">
-      <c r="A154" s="3"/>
-      <c r="B154" s="3"/>
-      <c r="C154" s="3"/>
-      <c r="D154" s="3"/>
-    </row>
-    <row r="155" spans="1:4" ht="23">
-      <c r="A155" s="3"/>
-      <c r="B155" s="3"/>
-      <c r="C155" s="3"/>
-      <c r="D155" s="3"/>
-    </row>
-    <row r="156" spans="1:4" ht="23">
-      <c r="A156" s="3"/>
-      <c r="B156" s="3"/>
-      <c r="C156" s="3"/>
-      <c r="D156" s="3"/>
-    </row>
-    <row r="157" spans="1:4" ht="23">
-      <c r="A157" s="3"/>
-      <c r="B157" s="3"/>
-      <c r="C157" s="3"/>
-      <c r="D157" s="3"/>
-    </row>
-    <row r="158" spans="1:4" ht="23">
-      <c r="A158" s="3"/>
-      <c r="B158" s="3"/>
-      <c r="C158" s="3"/>
-      <c r="D158" s="3"/>
-    </row>
-    <row r="159" spans="1:4" ht="23">
-      <c r="A159" s="3"/>
-      <c r="B159" s="3"/>
-      <c r="C159" s="3"/>
-      <c r="D159" s="3"/>
-    </row>
-    <row r="160" spans="1:4" ht="23">
-      <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
-      <c r="C160" s="3"/>
-      <c r="D160" s="3"/>
-    </row>
-    <row r="161" spans="1:4" ht="23">
-      <c r="A161" s="3"/>
-      <c r="B161" s="3"/>
-      <c r="C161" s="3"/>
-      <c r="D161" s="3"/>
-    </row>
-    <row r="162" spans="1:4" ht="23">
-      <c r="A162" s="3"/>
-      <c r="B162" s="3"/>
-      <c r="C162" s="3"/>
-      <c r="D162" s="3"/>
-    </row>
-    <row r="163" spans="1:4" ht="23">
-      <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
-      <c r="C163" s="3"/>
-      <c r="D163" s="3"/>
-    </row>
-    <row r="164" spans="1:4" ht="23">
-      <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
-      <c r="C164" s="3"/>
-      <c r="D164" s="3"/>
-    </row>
-    <row r="165" spans="1:4" ht="23">
-      <c r="A165" s="3"/>
-      <c r="B165" s="3"/>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
-    </row>
-    <row r="166" spans="1:4" ht="23">
-      <c r="A166" s="3"/>
-      <c r="B166" s="3"/>
-      <c r="C166" s="3"/>
-      <c r="D166" s="3"/>
-    </row>
-    <row r="167" spans="1:4" ht="23">
-      <c r="A167" s="3"/>
-      <c r="B167" s="3"/>
-      <c r="C167" s="3"/>
-      <c r="D167" s="3"/>
-    </row>
-    <row r="168" spans="1:4" ht="23">
-      <c r="A168" s="3"/>
-      <c r="B168" s="3"/>
-      <c r="C168" s="3"/>
-      <c r="D168" s="3"/>
-    </row>
-    <row r="169" spans="1:4" ht="23">
-      <c r="A169" s="3"/>
-      <c r="B169" s="3"/>
-      <c r="C169" s="3"/>
-      <c r="D169" s="3"/>
-    </row>
-    <row r="170" spans="1:4" ht="23">
-      <c r="A170" s="3"/>
-      <c r="B170" s="3"/>
-      <c r="C170" s="3"/>
-      <c r="D170" s="3"/>
-    </row>
-    <row r="171" spans="1:4" ht="23">
-      <c r="A171" s="3"/>
-      <c r="B171" s="3"/>
-      <c r="C171" s="3"/>
-      <c r="D171" s="3"/>
-    </row>
-    <row r="172" spans="1:4" ht="23">
-      <c r="A172" s="3"/>
-      <c r="B172" s="3"/>
-      <c r="C172" s="3"/>
-      <c r="D172" s="3"/>
-    </row>
-    <row r="173" spans="1:4" ht="23">
-      <c r="A173" s="3"/>
-      <c r="B173" s="3"/>
-      <c r="C173" s="3"/>
-      <c r="D173" s="3"/>
-    </row>
-    <row r="174" spans="1:4" ht="23">
-      <c r="A174" s="3"/>
-      <c r="B174" s="3"/>
-      <c r="C174" s="3"/>
-      <c r="D174" s="3"/>
-    </row>
-    <row r="175" spans="1:4" ht="23">
-      <c r="A175" s="3"/>
-      <c r="B175" s="3"/>
-      <c r="C175" s="3"/>
-      <c r="D175" s="3"/>
-    </row>
-    <row r="176" spans="1:4" ht="23">
-      <c r="A176" s="3"/>
-      <c r="B176" s="3"/>
-      <c r="C176" s="3"/>
-      <c r="D176" s="3"/>
-    </row>
-    <row r="177" spans="1:4" ht="23">
-      <c r="A177" s="3"/>
-      <c r="B177" s="3"/>
-      <c r="C177" s="3"/>
-      <c r="D177" s="3"/>
-    </row>
-    <row r="178" spans="1:4" ht="23">
-      <c r="A178" s="3"/>
-      <c r="B178" s="3"/>
-      <c r="C178" s="3"/>
-      <c r="D178" s="3"/>
-    </row>
-    <row r="179" spans="1:4" ht="23">
-      <c r="A179" s="3"/>
-      <c r="B179" s="3"/>
-      <c r="C179" s="3"/>
-      <c r="D179" s="3"/>
-    </row>
-    <row r="180" spans="1:4" ht="23">
-      <c r="A180" s="3"/>
-      <c r="B180" s="3"/>
-      <c r="C180" s="3"/>
-      <c r="D180" s="3"/>
-    </row>
-    <row r="181" spans="1:4" ht="23">
-      <c r="A181" s="3"/>
-      <c r="B181" s="3"/>
-      <c r="C181" s="3"/>
-      <c r="D181" s="3"/>
-    </row>
-    <row r="182" spans="1:4" ht="23">
-      <c r="A182" s="3"/>
-      <c r="B182" s="3"/>
-      <c r="C182" s="3"/>
-      <c r="D182" s="3"/>
-    </row>
-    <row r="183" spans="1:4" ht="23">
-      <c r="A183" s="3"/>
-      <c r="B183" s="3"/>
-      <c r="C183" s="3"/>
-      <c r="D183" s="3"/>
-    </row>
-    <row r="184" spans="1:4" ht="23">
-      <c r="A184" s="3"/>
-      <c r="B184" s="3"/>
-      <c r="C184" s="3"/>
-      <c r="D184" s="3"/>
-    </row>
-    <row r="185" spans="1:4" ht="23">
-      <c r="A185" s="3"/>
-      <c r="B185" s="3"/>
-      <c r="C185" s="3"/>
-      <c r="D185" s="3"/>
-    </row>
-    <row r="186" spans="1:4" ht="23">
-      <c r="A186" s="3"/>
-      <c r="B186" s="3"/>
-      <c r="C186" s="3"/>
-      <c r="D186" s="3"/>
-    </row>
-    <row r="187" spans="1:4" ht="23">
-      <c r="A187" s="3"/>
-      <c r="B187" s="3"/>
-      <c r="C187" s="3"/>
-      <c r="D187" s="3"/>
-    </row>
-    <row r="188" spans="1:4" ht="23">
-      <c r="A188" s="3"/>
-      <c r="B188" s="3"/>
-      <c r="C188" s="3"/>
-      <c r="D188" s="3"/>
-    </row>
-    <row r="189" spans="1:4" ht="23">
-      <c r="A189" s="3"/>
-      <c r="B189" s="3"/>
-      <c r="C189" s="3"/>
-      <c r="D189" s="3"/>
-    </row>
-    <row r="190" spans="1:4" ht="23">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:26" ht="23">
+      <c r="A129" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B129" s="12"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="38"/>
+      <c r="F129" s="38"/>
+      <c r="G129" s="38"/>
+      <c r="H129" s="38"/>
+      <c r="I129" s="38"/>
+      <c r="J129" s="38"/>
+      <c r="K129" s="38"/>
+      <c r="L129" s="38"/>
+      <c r="M129" s="38"/>
+      <c r="N129" s="38"/>
+      <c r="O129" s="38"/>
+      <c r="P129" s="38"/>
+      <c r="Q129" s="38"/>
+      <c r="R129" s="38"/>
+      <c r="S129" s="38"/>
+      <c r="T129" s="38"/>
+      <c r="U129" s="38"/>
+      <c r="V129" s="38"/>
+      <c r="W129" s="38"/>
+      <c r="X129" s="38"/>
+      <c r="Y129" s="38"/>
+      <c r="Z129" s="38"/>
+    </row>
+    <row r="130" spans="1:26" ht="23">
+      <c r="A130" s="69" t="s">
+        <v>186</v>
+      </c>
+      <c r="B130" s="7">
+        <v>1</v>
+      </c>
+      <c r="C130" s="7">
+        <v>1</v>
+      </c>
+      <c r="D130" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:26" ht="23">
+      <c r="A131" s="69" t="s">
+        <v>184</v>
+      </c>
+      <c r="B131" s="7">
+        <v>1</v>
+      </c>
+      <c r="C131" s="7">
+        <v>1</v>
+      </c>
+      <c r="D131" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:26" ht="23">
+      <c r="A132" s="69" t="s">
+        <v>183</v>
+      </c>
+      <c r="B132" s="7">
+        <v>0</v>
+      </c>
+      <c r="C132" s="7">
+        <v>0</v>
+      </c>
+      <c r="D132" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:26" ht="23">
+      <c r="A133" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="B133" s="7">
+        <v>1</v>
+      </c>
+      <c r="C133" s="7">
+        <v>1</v>
+      </c>
+      <c r="D133" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:26" ht="23">
+      <c r="A134" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B134" s="7">
+        <v>1</v>
+      </c>
+      <c r="C134" s="7">
+        <v>1</v>
+      </c>
+      <c r="D134" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:26" ht="23">
+      <c r="A135" s="69" t="s">
+        <v>187</v>
+      </c>
+      <c r="B135" s="7">
+        <v>0</v>
+      </c>
+      <c r="C135" s="7">
+        <v>0</v>
+      </c>
+      <c r="D135" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:26" ht="23">
+      <c r="A136" s="69" t="s">
+        <v>386</v>
+      </c>
+      <c r="B136" s="7">
+        <v>1</v>
+      </c>
+      <c r="C136" s="7">
+        <v>1</v>
+      </c>
+      <c r="D136" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:26" ht="23">
+      <c r="A137" s="69" t="s">
+        <v>387</v>
+      </c>
+      <c r="B137" s="7">
+        <v>1</v>
+      </c>
+      <c r="C137" s="7">
+        <v>1</v>
+      </c>
+      <c r="D137" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:26" ht="23">
+      <c r="A138" s="69" t="s">
+        <v>189</v>
+      </c>
+      <c r="B138" s="7">
+        <v>1</v>
+      </c>
+      <c r="C138" s="7">
+        <v>0</v>
+      </c>
+      <c r="D138" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:26" ht="27" customHeight="1">
+      <c r="A139" s="70" t="s">
+        <v>190</v>
+      </c>
+      <c r="B139" s="7">
+        <v>0</v>
+      </c>
+      <c r="C139" s="7">
+        <v>0</v>
+      </c>
+      <c r="D139" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:26" ht="20.25" customHeight="1">
+      <c r="A140" s="8"/>
+      <c r="B140" s="42">
+        <v>1</v>
+      </c>
+      <c r="C140" s="42">
+        <v>1</v>
+      </c>
+      <c r="D140" s="42">
+        <v>1</v>
+      </c>
+      <c r="E140" s="10">
+        <f>ROUND(1/3*(1/B140+1/C140+1/D140),2)</f>
+        <v>1</v>
+      </c>
+      <c r="F140" s="11"/>
+      <c r="G140" s="11"/>
+      <c r="H140" s="11"/>
+      <c r="I140" s="11"/>
+      <c r="J140" s="11"/>
+      <c r="K140" s="11"/>
+      <c r="L140" s="11"/>
+      <c r="M140" s="11"/>
+      <c r="N140" s="11"/>
+      <c r="O140" s="11"/>
+      <c r="P140" s="11"/>
+      <c r="Q140" s="11"/>
+      <c r="R140" s="11"/>
+      <c r="S140" s="11"/>
+      <c r="T140" s="11"/>
+      <c r="U140" s="11"/>
+      <c r="V140" s="11"/>
+      <c r="W140" s="11"/>
+      <c r="X140" s="11"/>
+      <c r="Y140" s="11"/>
+      <c r="Z140" s="11"/>
+    </row>
+    <row r="141" spans="1:26" ht="23">
+      <c r="A141" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B141" s="12"/>
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="38"/>
+      <c r="F141" s="38"/>
+      <c r="G141" s="38"/>
+      <c r="H141" s="38"/>
+      <c r="I141" s="38"/>
+      <c r="J141" s="38"/>
+      <c r="K141" s="38"/>
+      <c r="L141" s="38"/>
+      <c r="M141" s="38"/>
+      <c r="N141" s="38"/>
+      <c r="O141" s="38"/>
+      <c r="P141" s="38"/>
+      <c r="Q141" s="38"/>
+      <c r="R141" s="38"/>
+      <c r="S141" s="38"/>
+      <c r="T141" s="38"/>
+      <c r="U141" s="38"/>
+      <c r="V141" s="38"/>
+      <c r="W141" s="38"/>
+      <c r="X141" s="38"/>
+      <c r="Y141" s="38"/>
+      <c r="Z141" s="38"/>
+    </row>
+    <row r="142" spans="1:26" ht="23">
+      <c r="A142" s="69" t="s">
+        <v>198</v>
+      </c>
+      <c r="B142" s="7">
+        <v>1</v>
+      </c>
+      <c r="C142" s="7">
+        <v>1</v>
+      </c>
+      <c r="D142" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:26" ht="23">
+      <c r="A143" s="69" t="s">
+        <v>192</v>
+      </c>
+      <c r="B143" s="7">
+        <v>0</v>
+      </c>
+      <c r="C143" s="71" t="s">
+        <v>388</v>
+      </c>
+      <c r="D143" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:26" ht="23">
+      <c r="A144" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="B144" s="7">
+        <v>1</v>
+      </c>
+      <c r="C144" s="7">
+        <v>1</v>
+      </c>
+      <c r="D144" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:26" ht="23">
+      <c r="A145" s="69" t="s">
+        <v>199</v>
+      </c>
+      <c r="B145" s="7">
+        <v>1</v>
+      </c>
+      <c r="C145" s="7">
+        <v>1</v>
+      </c>
+      <c r="D145" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:26" ht="23">
+      <c r="A146" s="69" t="s">
+        <v>194</v>
+      </c>
+      <c r="B146" s="7">
+        <v>1</v>
+      </c>
+      <c r="C146" s="7">
+        <v>1</v>
+      </c>
+      <c r="D146" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:26" ht="23">
+      <c r="A147" s="69" t="s">
+        <v>196</v>
+      </c>
+      <c r="B147" s="7">
+        <v>1</v>
+      </c>
+      <c r="C147" s="7">
+        <v>1</v>
+      </c>
+      <c r="D147" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:26" ht="23">
+      <c r="A148" s="69" t="s">
+        <v>201</v>
+      </c>
+      <c r="B148" s="7">
+        <v>1</v>
+      </c>
+      <c r="C148" s="7">
+        <v>1</v>
+      </c>
+      <c r="D148" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:26" ht="23">
+      <c r="A149" s="69" t="s">
+        <v>389</v>
+      </c>
+      <c r="B149" s="7">
+        <v>1</v>
+      </c>
+      <c r="C149" s="7">
+        <v>1</v>
+      </c>
+      <c r="D149" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:26" ht="23">
+      <c r="A150" s="69" t="s">
+        <v>368</v>
+      </c>
+      <c r="B150" s="7">
+        <v>1</v>
+      </c>
+      <c r="C150" s="7">
+        <v>1</v>
+      </c>
+      <c r="D150" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:26" ht="27.75" customHeight="1">
+      <c r="A151" s="70" t="s">
+        <v>201</v>
+      </c>
+      <c r="B151" s="7">
+        <v>1</v>
+      </c>
+      <c r="C151" s="7">
+        <v>1</v>
+      </c>
+      <c r="D151" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:26" ht="20.25" customHeight="1">
+      <c r="A152" s="8"/>
+      <c r="B152" s="42">
+        <v>1</v>
+      </c>
+      <c r="C152" s="42">
+        <v>1</v>
+      </c>
+      <c r="D152" s="42">
+        <v>1</v>
+      </c>
+      <c r="E152" s="10">
+        <f>ROUND(1/3*(1/B152+1/C152+1/D152),2)</f>
+        <v>1</v>
+      </c>
+      <c r="F152" s="11"/>
+      <c r="G152" s="11"/>
+      <c r="H152" s="11"/>
+      <c r="I152" s="11"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="11"/>
+      <c r="L152" s="11"/>
+      <c r="M152" s="11"/>
+      <c r="N152" s="11"/>
+      <c r="O152" s="11"/>
+      <c r="P152" s="11"/>
+      <c r="Q152" s="11"/>
+      <c r="R152" s="11"/>
+      <c r="S152" s="11"/>
+      <c r="T152" s="11"/>
+      <c r="U152" s="11"/>
+      <c r="V152" s="11"/>
+      <c r="W152" s="11"/>
+      <c r="X152" s="11"/>
+      <c r="Y152" s="11"/>
+      <c r="Z152" s="11"/>
+    </row>
+    <row r="153" spans="1:26" ht="23">
+      <c r="A153" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B153" s="12"/>
+      <c r="C153" s="12"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="38"/>
+      <c r="F153" s="38"/>
+      <c r="G153" s="38"/>
+      <c r="H153" s="38"/>
+      <c r="I153" s="38"/>
+      <c r="J153" s="38"/>
+      <c r="K153" s="38"/>
+      <c r="L153" s="38"/>
+      <c r="M153" s="38"/>
+      <c r="N153" s="38"/>
+      <c r="O153" s="38"/>
+      <c r="P153" s="38"/>
+      <c r="Q153" s="38"/>
+      <c r="R153" s="38"/>
+      <c r="S153" s="38"/>
+      <c r="T153" s="38"/>
+      <c r="U153" s="38"/>
+      <c r="V153" s="38"/>
+      <c r="W153" s="38"/>
+      <c r="X153" s="38"/>
+      <c r="Y153" s="38"/>
+      <c r="Z153" s="38"/>
+    </row>
+    <row r="154" spans="1:26" ht="23">
+      <c r="A154" s="69" t="s">
+        <v>203</v>
+      </c>
+      <c r="B154" s="7">
+        <v>0</v>
+      </c>
+      <c r="C154" s="7">
+        <v>0</v>
+      </c>
+      <c r="D154" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:26" ht="23">
+      <c r="A155" s="69" t="s">
+        <v>205</v>
+      </c>
+      <c r="B155" s="7">
+        <v>0</v>
+      </c>
+      <c r="C155" s="7">
+        <v>1</v>
+      </c>
+      <c r="D155" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:26" ht="23">
+      <c r="A156" s="69" t="s">
+        <v>204</v>
+      </c>
+      <c r="B156" s="7">
+        <v>1</v>
+      </c>
+      <c r="C156" s="7">
+        <v>0</v>
+      </c>
+      <c r="D156" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:26" ht="23">
+      <c r="A157" s="69" t="s">
+        <v>207</v>
+      </c>
+      <c r="B157" s="7">
+        <v>1</v>
+      </c>
+      <c r="C157" s="7">
+        <v>1</v>
+      </c>
+      <c r="D157" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:26" ht="23">
+      <c r="A158" s="69" t="s">
+        <v>206</v>
+      </c>
+      <c r="B158" s="7">
+        <v>0</v>
+      </c>
+      <c r="C158" s="7">
+        <v>0</v>
+      </c>
+      <c r="D158" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:26" ht="23">
+      <c r="A159" s="69" t="s">
+        <v>210</v>
+      </c>
+      <c r="B159" s="7">
+        <v>1</v>
+      </c>
+      <c r="C159" s="7">
+        <v>0</v>
+      </c>
+      <c r="D159" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:26" ht="23">
+      <c r="A160" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="B160" s="7">
+        <v>0</v>
+      </c>
+      <c r="C160" s="7">
+        <v>0</v>
+      </c>
+      <c r="D160" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:26" ht="23">
+      <c r="A161" s="69" t="s">
+        <v>116</v>
+      </c>
+      <c r="B161" s="7">
+        <v>0</v>
+      </c>
+      <c r="C161" s="7">
+        <v>0</v>
+      </c>
+      <c r="D161" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:26" ht="23">
+      <c r="A162" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="B162" s="7">
+        <v>0</v>
+      </c>
+      <c r="C162" s="7">
+        <v>0</v>
+      </c>
+      <c r="D162" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:26" ht="23">
+      <c r="A163" s="69" t="s">
+        <v>390</v>
+      </c>
+      <c r="B163" s="7">
+        <v>0</v>
+      </c>
+      <c r="C163" s="7">
+        <v>0</v>
+      </c>
+      <c r="D163" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:26" ht="20.25" customHeight="1">
+      <c r="A164" s="8"/>
+      <c r="B164" s="42">
+        <v>3</v>
+      </c>
+      <c r="C164" s="42">
+        <v>2</v>
+      </c>
+      <c r="D164" s="42">
+        <v>2</v>
+      </c>
+      <c r="E164" s="10">
+        <f>ROUND(1/3*(1/B164+1/C164+1/D164),2)</f>
+        <v>0.44</v>
+      </c>
+      <c r="F164" s="11"/>
+      <c r="G164" s="11"/>
+      <c r="H164" s="11"/>
+      <c r="I164" s="11"/>
+      <c r="J164" s="11"/>
+      <c r="K164" s="11"/>
+      <c r="L164" s="11"/>
+      <c r="M164" s="11"/>
+      <c r="N164" s="11"/>
+      <c r="O164" s="11"/>
+      <c r="P164" s="11"/>
+      <c r="Q164" s="11"/>
+      <c r="R164" s="11"/>
+      <c r="S164" s="11"/>
+      <c r="T164" s="11"/>
+      <c r="U164" s="11"/>
+      <c r="V164" s="11"/>
+      <c r="W164" s="11"/>
+      <c r="X164" s="11"/>
+      <c r="Y164" s="11"/>
+      <c r="Z164" s="11"/>
+    </row>
+    <row r="165" spans="1:26" ht="23">
+      <c r="A165" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B165" s="12"/>
+      <c r="C165" s="12"/>
+      <c r="D165" s="12"/>
+      <c r="E165" s="38"/>
+      <c r="F165" s="38"/>
+      <c r="G165" s="38"/>
+      <c r="H165" s="38"/>
+      <c r="I165" s="38"/>
+      <c r="J165" s="38"/>
+      <c r="K165" s="38"/>
+      <c r="L165" s="38"/>
+      <c r="M165" s="38"/>
+      <c r="N165" s="38"/>
+      <c r="O165" s="38"/>
+      <c r="P165" s="38"/>
+      <c r="Q165" s="38"/>
+      <c r="R165" s="38"/>
+      <c r="S165" s="38"/>
+      <c r="T165" s="38"/>
+      <c r="U165" s="38"/>
+      <c r="V165" s="38"/>
+      <c r="W165" s="38"/>
+      <c r="X165" s="38"/>
+      <c r="Y165" s="38"/>
+      <c r="Z165" s="38"/>
+    </row>
+    <row r="166" spans="1:26" ht="23">
+      <c r="A166" s="69" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166" s="7">
+        <v>1</v>
+      </c>
+      <c r="C166" s="7">
+        <v>1</v>
+      </c>
+      <c r="D166" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:26" ht="23">
+      <c r="A167" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="B167" s="7">
+        <v>1</v>
+      </c>
+      <c r="C167" s="7">
+        <v>1</v>
+      </c>
+      <c r="D167" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:26" ht="23">
+      <c r="A168" s="69" t="s">
+        <v>212</v>
+      </c>
+      <c r="B168" s="7">
+        <v>1</v>
+      </c>
+      <c r="C168" s="7">
+        <v>1</v>
+      </c>
+      <c r="D168" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:26" ht="23">
+      <c r="A169" s="69" t="s">
+        <v>214</v>
+      </c>
+      <c r="B169" s="7">
+        <v>1</v>
+      </c>
+      <c r="C169" s="7">
+        <v>1</v>
+      </c>
+      <c r="D169" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:26" ht="23">
+      <c r="A170" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="B170" s="7">
+        <v>1</v>
+      </c>
+      <c r="C170" s="7">
+        <v>1</v>
+      </c>
+      <c r="D170" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:26" ht="23">
+      <c r="A171" s="69" t="s">
+        <v>218</v>
+      </c>
+      <c r="B171" s="7">
+        <v>1</v>
+      </c>
+      <c r="C171" s="7">
+        <v>1</v>
+      </c>
+      <c r="D171" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:26" ht="23">
+      <c r="A172" s="69" t="s">
+        <v>217</v>
+      </c>
+      <c r="B172" s="7">
+        <v>1</v>
+      </c>
+      <c r="C172" s="7">
+        <v>1</v>
+      </c>
+      <c r="D172" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:26" ht="23">
+      <c r="A173" s="69" t="s">
+        <v>291</v>
+      </c>
+      <c r="B173" s="7">
+        <v>1</v>
+      </c>
+      <c r="C173" s="7">
+        <v>1</v>
+      </c>
+      <c r="D173" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:26" ht="23">
+      <c r="A174" s="69" t="s">
+        <v>178</v>
+      </c>
+      <c r="B174" s="7">
+        <v>1</v>
+      </c>
+      <c r="C174" s="7">
+        <v>1</v>
+      </c>
+      <c r="D174" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:26" ht="23">
+      <c r="A175" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="B175" s="7">
+        <v>1</v>
+      </c>
+      <c r="C175" s="7">
+        <v>1</v>
+      </c>
+      <c r="D175" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:26" ht="20.25" customHeight="1">
+      <c r="A176" s="8"/>
+      <c r="B176" s="42">
+        <v>1</v>
+      </c>
+      <c r="C176" s="42">
+        <v>1</v>
+      </c>
+      <c r="D176" s="42">
+        <v>1</v>
+      </c>
+      <c r="E176" s="10">
+        <f>ROUND(1/3*(1/B176+1/C176+1/D176),2)</f>
+        <v>1</v>
+      </c>
+      <c r="F176" s="11"/>
+      <c r="G176" s="11"/>
+      <c r="H176" s="11"/>
+      <c r="I176" s="11"/>
+      <c r="J176" s="11"/>
+      <c r="K176" s="11"/>
+      <c r="L176" s="11"/>
+      <c r="M176" s="11"/>
+      <c r="N176" s="11"/>
+      <c r="O176" s="11"/>
+      <c r="P176" s="11"/>
+      <c r="Q176" s="11"/>
+      <c r="R176" s="11"/>
+      <c r="S176" s="11"/>
+      <c r="T176" s="11"/>
+      <c r="U176" s="11"/>
+      <c r="V176" s="11"/>
+      <c r="W176" s="11"/>
+      <c r="X176" s="11"/>
+      <c r="Y176" s="11"/>
+      <c r="Z176" s="11"/>
+    </row>
+    <row r="177" spans="1:26" ht="23">
+      <c r="A177" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B177" s="12"/>
+      <c r="C177" s="12"/>
+      <c r="D177" s="12"/>
+      <c r="E177" s="38"/>
+      <c r="F177" s="38"/>
+      <c r="G177" s="38"/>
+      <c r="H177" s="38"/>
+      <c r="I177" s="38"/>
+      <c r="J177" s="38"/>
+      <c r="K177" s="38"/>
+      <c r="L177" s="38"/>
+      <c r="M177" s="38"/>
+      <c r="N177" s="38"/>
+      <c r="O177" s="38"/>
+      <c r="P177" s="38"/>
+      <c r="Q177" s="38"/>
+      <c r="R177" s="38"/>
+      <c r="S177" s="38"/>
+      <c r="T177" s="38"/>
+      <c r="U177" s="38"/>
+      <c r="V177" s="38"/>
+      <c r="W177" s="38"/>
+      <c r="X177" s="38"/>
+      <c r="Y177" s="38"/>
+      <c r="Z177" s="38"/>
+    </row>
+    <row r="178" spans="1:26" ht="23">
+      <c r="A178" s="69" t="s">
+        <v>223</v>
+      </c>
+      <c r="B178" s="7">
+        <v>1</v>
+      </c>
+      <c r="C178" s="7">
+        <v>1</v>
+      </c>
+      <c r="D178" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:26" ht="23">
+      <c r="A179" s="69" t="s">
+        <v>223</v>
+      </c>
+      <c r="B179" s="7">
+        <v>1</v>
+      </c>
+      <c r="C179" s="7">
+        <v>1</v>
+      </c>
+      <c r="D179" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:26" ht="23">
+      <c r="A180" s="69" t="s">
+        <v>221</v>
+      </c>
+      <c r="B180" s="7">
+        <v>1</v>
+      </c>
+      <c r="C180" s="7">
+        <v>1</v>
+      </c>
+      <c r="D180" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:26" ht="23">
+      <c r="A181" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="B181" s="7">
+        <v>1</v>
+      </c>
+      <c r="C181" s="7">
+        <v>1</v>
+      </c>
+      <c r="D181" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:26" ht="23">
+      <c r="A182" s="69" t="s">
+        <v>225</v>
+      </c>
+      <c r="B182" s="7">
+        <v>1</v>
+      </c>
+      <c r="C182" s="7">
+        <v>1</v>
+      </c>
+      <c r="D182" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:26" ht="23">
+      <c r="A183" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="B183" s="7">
+        <v>1</v>
+      </c>
+      <c r="C183" s="7">
+        <v>1</v>
+      </c>
+      <c r="D183" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:26" ht="23">
+      <c r="A184" s="69" t="s">
+        <v>224</v>
+      </c>
+      <c r="B184" s="7">
+        <v>1</v>
+      </c>
+      <c r="C184" s="7">
+        <v>1</v>
+      </c>
+      <c r="D184" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:26" ht="23">
+      <c r="A185" s="69" t="s">
+        <v>228</v>
+      </c>
+      <c r="B185" s="7">
+        <v>1</v>
+      </c>
+      <c r="C185" s="7">
+        <v>1</v>
+      </c>
+      <c r="D185" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:26" ht="23">
+      <c r="A186" s="69" t="s">
+        <v>391</v>
+      </c>
+      <c r="B186" s="7">
+        <v>1</v>
+      </c>
+      <c r="C186" s="7">
+        <v>0</v>
+      </c>
+      <c r="D186" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:26" ht="23">
+      <c r="A187" s="69" t="s">
+        <v>357</v>
+      </c>
+      <c r="B187" s="7">
+        <v>1</v>
+      </c>
+      <c r="C187" s="7">
+        <v>1</v>
+      </c>
+      <c r="D187" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:26" ht="23">
+      <c r="A188" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B188" s="7">
+        <f>ROUND(AVERAGE(1/B140,1/B152,1/B164, 1/B176), 2)</f>
+        <v>0.83</v>
+      </c>
+      <c r="C188" s="7">
+        <f>ROUND(AVERAGE(1/C140,1/C152,1/C164, 1/C176), 2)</f>
+        <v>0.88</v>
+      </c>
+      <c r="D188" s="7">
+        <f>ROUND(AVERAGE(1/D140,1/D152,1/D164, 1/D176), 2)</f>
+        <v>0.88</v>
+      </c>
+      <c r="E188" s="46">
+        <f>ROUND(AVERAGE(B188:D188),2)</f>
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="189" spans="1:26" ht="23">
+      <c r="A189" s="7"/>
+      <c r="B189" s="7"/>
+      <c r="C189" s="7"/>
+      <c r="D189" s="7"/>
+    </row>
+    <row r="190" spans="1:26" ht="23">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
     </row>
-    <row r="191" spans="1:4" ht="23">
+    <row r="191" spans="1:26" ht="23">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
     </row>
-    <row r="192" spans="1:4" ht="23">
+    <row r="192" spans="1:26" ht="23">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -46584,372 +46530,6 @@
       <c r="B950" s="3"/>
       <c r="C950" s="3"/>
       <c r="D950" s="3"/>
-    </row>
-    <row r="951" spans="1:4" ht="23">
-      <c r="A951" s="3"/>
-      <c r="B951" s="3"/>
-      <c r="C951" s="3"/>
-      <c r="D951" s="3"/>
-    </row>
-    <row r="952" spans="1:4" ht="23">
-      <c r="A952" s="3"/>
-      <c r="B952" s="3"/>
-      <c r="C952" s="3"/>
-      <c r="D952" s="3"/>
-    </row>
-    <row r="953" spans="1:4" ht="23">
-      <c r="A953" s="3"/>
-      <c r="B953" s="3"/>
-      <c r="C953" s="3"/>
-      <c r="D953" s="3"/>
-    </row>
-    <row r="954" spans="1:4" ht="23">
-      <c r="A954" s="3"/>
-      <c r="B954" s="3"/>
-      <c r="C954" s="3"/>
-      <c r="D954" s="3"/>
-    </row>
-    <row r="955" spans="1:4" ht="23">
-      <c r="A955" s="3"/>
-      <c r="B955" s="3"/>
-      <c r="C955" s="3"/>
-      <c r="D955" s="3"/>
-    </row>
-    <row r="956" spans="1:4" ht="23">
-      <c r="A956" s="3"/>
-      <c r="B956" s="3"/>
-      <c r="C956" s="3"/>
-      <c r="D956" s="3"/>
-    </row>
-    <row r="957" spans="1:4" ht="23">
-      <c r="A957" s="3"/>
-      <c r="B957" s="3"/>
-      <c r="C957" s="3"/>
-      <c r="D957" s="3"/>
-    </row>
-    <row r="958" spans="1:4" ht="23">
-      <c r="A958" s="3"/>
-      <c r="B958" s="3"/>
-      <c r="C958" s="3"/>
-      <c r="D958" s="3"/>
-    </row>
-    <row r="959" spans="1:4" ht="23">
-      <c r="A959" s="3"/>
-      <c r="B959" s="3"/>
-      <c r="C959" s="3"/>
-      <c r="D959" s="3"/>
-    </row>
-    <row r="960" spans="1:4" ht="23">
-      <c r="A960" s="3"/>
-      <c r="B960" s="3"/>
-      <c r="C960" s="3"/>
-      <c r="D960" s="3"/>
-    </row>
-    <row r="961" spans="1:4" ht="23">
-      <c r="A961" s="3"/>
-      <c r="B961" s="3"/>
-      <c r="C961" s="3"/>
-      <c r="D961" s="3"/>
-    </row>
-    <row r="962" spans="1:4" ht="23">
-      <c r="A962" s="3"/>
-      <c r="B962" s="3"/>
-      <c r="C962" s="3"/>
-      <c r="D962" s="3"/>
-    </row>
-    <row r="963" spans="1:4" ht="23">
-      <c r="A963" s="3"/>
-      <c r="B963" s="3"/>
-      <c r="C963" s="3"/>
-      <c r="D963" s="3"/>
-    </row>
-    <row r="964" spans="1:4" ht="23">
-      <c r="A964" s="3"/>
-      <c r="B964" s="3"/>
-      <c r="C964" s="3"/>
-      <c r="D964" s="3"/>
-    </row>
-    <row r="965" spans="1:4" ht="23">
-      <c r="A965" s="3"/>
-      <c r="B965" s="3"/>
-      <c r="C965" s="3"/>
-      <c r="D965" s="3"/>
-    </row>
-    <row r="966" spans="1:4" ht="23">
-      <c r="A966" s="3"/>
-      <c r="B966" s="3"/>
-      <c r="C966" s="3"/>
-      <c r="D966" s="3"/>
-    </row>
-    <row r="967" spans="1:4" ht="23">
-      <c r="A967" s="3"/>
-      <c r="B967" s="3"/>
-      <c r="C967" s="3"/>
-      <c r="D967" s="3"/>
-    </row>
-    <row r="968" spans="1:4" ht="23">
-      <c r="A968" s="3"/>
-      <c r="B968" s="3"/>
-      <c r="C968" s="3"/>
-      <c r="D968" s="3"/>
-    </row>
-    <row r="969" spans="1:4" ht="23">
-      <c r="A969" s="3"/>
-      <c r="B969" s="3"/>
-      <c r="C969" s="3"/>
-      <c r="D969" s="3"/>
-    </row>
-    <row r="970" spans="1:4" ht="23">
-      <c r="A970" s="3"/>
-      <c r="B970" s="3"/>
-      <c r="C970" s="3"/>
-      <c r="D970" s="3"/>
-    </row>
-    <row r="971" spans="1:4" ht="23">
-      <c r="A971" s="3"/>
-      <c r="B971" s="3"/>
-      <c r="C971" s="3"/>
-      <c r="D971" s="3"/>
-    </row>
-    <row r="972" spans="1:4" ht="23">
-      <c r="A972" s="3"/>
-      <c r="B972" s="3"/>
-      <c r="C972" s="3"/>
-      <c r="D972" s="3"/>
-    </row>
-    <row r="973" spans="1:4" ht="23">
-      <c r="A973" s="3"/>
-      <c r="B973" s="3"/>
-      <c r="C973" s="3"/>
-      <c r="D973" s="3"/>
-    </row>
-    <row r="974" spans="1:4" ht="23">
-      <c r="A974" s="3"/>
-      <c r="B974" s="3"/>
-      <c r="C974" s="3"/>
-      <c r="D974" s="3"/>
-    </row>
-    <row r="975" spans="1:4" ht="23">
-      <c r="A975" s="3"/>
-      <c r="B975" s="3"/>
-      <c r="C975" s="3"/>
-      <c r="D975" s="3"/>
-    </row>
-    <row r="976" spans="1:4" ht="23">
-      <c r="A976" s="3"/>
-      <c r="B976" s="3"/>
-      <c r="C976" s="3"/>
-      <c r="D976" s="3"/>
-    </row>
-    <row r="977" spans="1:4" ht="23">
-      <c r="A977" s="3"/>
-      <c r="B977" s="3"/>
-      <c r="C977" s="3"/>
-      <c r="D977" s="3"/>
-    </row>
-    <row r="978" spans="1:4" ht="23">
-      <c r="A978" s="3"/>
-      <c r="B978" s="3"/>
-      <c r="C978" s="3"/>
-      <c r="D978" s="3"/>
-    </row>
-    <row r="979" spans="1:4" ht="23">
-      <c r="A979" s="3"/>
-      <c r="B979" s="3"/>
-      <c r="C979" s="3"/>
-      <c r="D979" s="3"/>
-    </row>
-    <row r="980" spans="1:4" ht="23">
-      <c r="A980" s="3"/>
-      <c r="B980" s="3"/>
-      <c r="C980" s="3"/>
-      <c r="D980" s="3"/>
-    </row>
-    <row r="981" spans="1:4" ht="23">
-      <c r="A981" s="3"/>
-      <c r="B981" s="3"/>
-      <c r="C981" s="3"/>
-      <c r="D981" s="3"/>
-    </row>
-    <row r="982" spans="1:4" ht="23">
-      <c r="A982" s="3"/>
-      <c r="B982" s="3"/>
-      <c r="C982" s="3"/>
-      <c r="D982" s="3"/>
-    </row>
-    <row r="983" spans="1:4" ht="23">
-      <c r="A983" s="3"/>
-      <c r="B983" s="3"/>
-      <c r="C983" s="3"/>
-      <c r="D983" s="3"/>
-    </row>
-    <row r="984" spans="1:4" ht="23">
-      <c r="A984" s="3"/>
-      <c r="B984" s="3"/>
-      <c r="C984" s="3"/>
-      <c r="D984" s="3"/>
-    </row>
-    <row r="985" spans="1:4" ht="23">
-      <c r="A985" s="3"/>
-      <c r="B985" s="3"/>
-      <c r="C985" s="3"/>
-      <c r="D985" s="3"/>
-    </row>
-    <row r="986" spans="1:4" ht="23">
-      <c r="A986" s="3"/>
-      <c r="B986" s="3"/>
-      <c r="C986" s="3"/>
-      <c r="D986" s="3"/>
-    </row>
-    <row r="987" spans="1:4" ht="23">
-      <c r="A987" s="3"/>
-      <c r="B987" s="3"/>
-      <c r="C987" s="3"/>
-      <c r="D987" s="3"/>
-    </row>
-    <row r="988" spans="1:4" ht="23">
-      <c r="A988" s="3"/>
-      <c r="B988" s="3"/>
-      <c r="C988" s="3"/>
-      <c r="D988" s="3"/>
-    </row>
-    <row r="989" spans="1:4" ht="23">
-      <c r="A989" s="3"/>
-      <c r="B989" s="3"/>
-      <c r="C989" s="3"/>
-      <c r="D989" s="3"/>
-    </row>
-    <row r="990" spans="1:4" ht="23">
-      <c r="A990" s="3"/>
-      <c r="B990" s="3"/>
-      <c r="C990" s="3"/>
-      <c r="D990" s="3"/>
-    </row>
-    <row r="991" spans="1:4" ht="23">
-      <c r="A991" s="3"/>
-      <c r="B991" s="3"/>
-      <c r="C991" s="3"/>
-      <c r="D991" s="3"/>
-    </row>
-    <row r="992" spans="1:4" ht="23">
-      <c r="A992" s="3"/>
-      <c r="B992" s="3"/>
-      <c r="C992" s="3"/>
-      <c r="D992" s="3"/>
-    </row>
-    <row r="993" spans="1:4" ht="23">
-      <c r="A993" s="3"/>
-      <c r="B993" s="3"/>
-      <c r="C993" s="3"/>
-      <c r="D993" s="3"/>
-    </row>
-    <row r="994" spans="1:4" ht="23">
-      <c r="A994" s="3"/>
-      <c r="B994" s="3"/>
-      <c r="C994" s="3"/>
-      <c r="D994" s="3"/>
-    </row>
-    <row r="995" spans="1:4" ht="23">
-      <c r="A995" s="3"/>
-      <c r="B995" s="3"/>
-      <c r="C995" s="3"/>
-      <c r="D995" s="3"/>
-    </row>
-    <row r="996" spans="1:4" ht="23">
-      <c r="A996" s="3"/>
-      <c r="B996" s="3"/>
-      <c r="C996" s="3"/>
-      <c r="D996" s="3"/>
-    </row>
-    <row r="997" spans="1:4" ht="23">
-      <c r="A997" s="3"/>
-      <c r="B997" s="3"/>
-      <c r="C997" s="3"/>
-      <c r="D997" s="3"/>
-    </row>
-    <row r="998" spans="1:4" ht="23">
-      <c r="A998" s="3"/>
-      <c r="B998" s="3"/>
-      <c r="C998" s="3"/>
-      <c r="D998" s="3"/>
-    </row>
-    <row r="999" spans="1:4" ht="23">
-      <c r="A999" s="3"/>
-      <c r="B999" s="3"/>
-      <c r="C999" s="3"/>
-      <c r="D999" s="3"/>
-    </row>
-    <row r="1000" spans="1:4" ht="23">
-      <c r="A1000" s="3"/>
-      <c r="B1000" s="3"/>
-      <c r="C1000" s="3"/>
-      <c r="D1000" s="3"/>
-    </row>
-    <row r="1001" spans="1:4" ht="23">
-      <c r="A1001" s="3"/>
-      <c r="B1001" s="3"/>
-      <c r="C1001" s="3"/>
-      <c r="D1001" s="3"/>
-    </row>
-    <row r="1002" spans="1:4" ht="23">
-      <c r="A1002" s="3"/>
-      <c r="B1002" s="3"/>
-      <c r="C1002" s="3"/>
-      <c r="D1002" s="3"/>
-    </row>
-    <row r="1003" spans="1:4" ht="23">
-      <c r="A1003" s="3"/>
-      <c r="B1003" s="3"/>
-      <c r="C1003" s="3"/>
-      <c r="D1003" s="3"/>
-    </row>
-    <row r="1004" spans="1:4" ht="23">
-      <c r="A1004" s="3"/>
-      <c r="B1004" s="3"/>
-      <c r="C1004" s="3"/>
-      <c r="D1004" s="3"/>
-    </row>
-    <row r="1005" spans="1:4" ht="23">
-      <c r="A1005" s="3"/>
-      <c r="B1005" s="3"/>
-      <c r="C1005" s="3"/>
-      <c r="D1005" s="3"/>
-    </row>
-    <row r="1006" spans="1:4" ht="23">
-      <c r="A1006" s="3"/>
-      <c r="B1006" s="3"/>
-      <c r="C1006" s="3"/>
-      <c r="D1006" s="3"/>
-    </row>
-    <row r="1007" spans="1:4" ht="23">
-      <c r="A1007" s="3"/>
-      <c r="B1007" s="3"/>
-      <c r="C1007" s="3"/>
-      <c r="D1007" s="3"/>
-    </row>
-    <row r="1008" spans="1:4" ht="23">
-      <c r="A1008" s="3"/>
-      <c r="B1008" s="3"/>
-      <c r="C1008" s="3"/>
-      <c r="D1008" s="3"/>
-    </row>
-    <row r="1009" spans="1:4" ht="23">
-      <c r="A1009" s="3"/>
-      <c r="B1009" s="3"/>
-      <c r="C1009" s="3"/>
-      <c r="D1009" s="3"/>
-    </row>
-    <row r="1010" spans="1:4" ht="23">
-      <c r="A1010" s="3"/>
-      <c r="B1010" s="3"/>
-      <c r="C1010" s="3"/>
-      <c r="D1010" s="3"/>
-    </row>
-    <row r="1011" spans="1:4" ht="23">
-      <c r="A1011" s="3"/>
-      <c r="B1011" s="3"/>
-      <c r="C1011" s="3"/>
-      <c r="D1011" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -47053,6 +46633,55 @@
     <hyperlink ref="A118" r:id="rId98" xr:uid="{00000000-0004-0000-0200-000061000000}"/>
     <hyperlink ref="A119" r:id="rId99" xr:uid="{00000000-0004-0000-0200-000062000000}"/>
     <hyperlink ref="A120" r:id="rId100" xr:uid="{00000000-0004-0000-0200-000063000000}"/>
+    <hyperlink ref="A162" r:id="rId101" xr:uid="{856DBD2D-81E0-7344-826E-84A1968F54EA}"/>
+    <hyperlink ref="A130" r:id="rId102" xr:uid="{D9B0A868-8877-8A44-B6D2-9C457CC59561}"/>
+    <hyperlink ref="A131" r:id="rId103" xr:uid="{36EFDE8D-F62F-FF4E-BFE5-5C07A2B6D835}"/>
+    <hyperlink ref="A132" r:id="rId104" xr:uid="{9050C939-6083-6348-ADBC-C87590A46BFC}"/>
+    <hyperlink ref="A133" r:id="rId105" xr:uid="{32FCDFD9-DDA8-1842-94CF-27420F782B0C}"/>
+    <hyperlink ref="A134" r:id="rId106" xr:uid="{13A6F3B6-6CE7-5C43-BF84-1F2A5F63785A}"/>
+    <hyperlink ref="A135" r:id="rId107" xr:uid="{BDCB0110-AB06-AC4C-82E3-AEEB499DE16F}"/>
+    <hyperlink ref="A136" r:id="rId108" xr:uid="{56626E5D-E8D7-4746-A495-FACBECABB0EC}"/>
+    <hyperlink ref="A137" r:id="rId109" xr:uid="{E5DC1074-222C-A549-90E9-9CFB6F209AB5}"/>
+    <hyperlink ref="A138" r:id="rId110" xr:uid="{FD1A0447-29C5-1141-A8F6-5C6A7481E3E5}"/>
+    <hyperlink ref="A142" r:id="rId111" xr:uid="{8416CD9A-E731-2E43-AFE7-250B3B523C14}"/>
+    <hyperlink ref="A143" r:id="rId112" xr:uid="{E50008F0-74D7-8740-85F0-9FF5551CF16C}"/>
+    <hyperlink ref="A144" r:id="rId113" xr:uid="{969442BF-4AD2-9E4E-BC8E-112E0FE86EBE}"/>
+    <hyperlink ref="A145" r:id="rId114" xr:uid="{3EA75C0A-CB38-7546-9B6D-0200399C45D1}"/>
+    <hyperlink ref="A146" r:id="rId115" xr:uid="{7A12B948-D52A-924A-AEDA-879FC5052AE5}"/>
+    <hyperlink ref="A147" r:id="rId116" xr:uid="{10C71E15-5A50-6842-8D2C-A265C1B0B55A}"/>
+    <hyperlink ref="A148" r:id="rId117" xr:uid="{D9802A6D-909B-0945-938A-2F01188543F3}"/>
+    <hyperlink ref="A149" r:id="rId118" xr:uid="{CF4939FF-2B06-474A-A3D2-3F08ED207E1E}"/>
+    <hyperlink ref="A150" r:id="rId119" xr:uid="{878D9F72-055A-7E46-AA81-BC6C2A1205B8}"/>
+    <hyperlink ref="A151" r:id="rId120" xr:uid="{91D79292-D36E-8A49-A56F-D3162895D8E7}"/>
+    <hyperlink ref="A154" r:id="rId121" xr:uid="{357AF160-AADB-9E4E-B70E-9634D117AB37}"/>
+    <hyperlink ref="A155" r:id="rId122" xr:uid="{7BED70F7-8CC5-334F-937A-E4C7C4BCD8E2}"/>
+    <hyperlink ref="A156" r:id="rId123" xr:uid="{1F87B0E9-C21A-634D-A2EA-784F0DEE2140}"/>
+    <hyperlink ref="A157" r:id="rId124" xr:uid="{9608891E-6129-634F-B356-2D8C81C6EBDF}"/>
+    <hyperlink ref="A158" r:id="rId125" xr:uid="{4669D260-3C0D-8A4C-9C2C-0578CAF9D578}"/>
+    <hyperlink ref="A159" r:id="rId126" xr:uid="{C227F263-2727-0146-BA64-DA2F5C07D54E}"/>
+    <hyperlink ref="A160" r:id="rId127" xr:uid="{C3024ACB-F4A4-2F44-A857-67CFAB4CF10D}"/>
+    <hyperlink ref="A161" r:id="rId128" xr:uid="{8547754F-0408-7143-A913-EEC2D92D19DD}"/>
+    <hyperlink ref="A163" r:id="rId129" xr:uid="{E74D813E-6F09-7446-9C25-7F3CBDEB6613}"/>
+    <hyperlink ref="A166" r:id="rId130" xr:uid="{3374535C-6E22-1A48-B9D7-3CAAE4C74C9A}"/>
+    <hyperlink ref="A167" r:id="rId131" xr:uid="{2CF1E09D-E24E-9B4D-855B-2C2E3B19BB00}"/>
+    <hyperlink ref="A168" r:id="rId132" xr:uid="{51FFE57A-4B68-6749-9F9E-71798FC65E6A}"/>
+    <hyperlink ref="A169" r:id="rId133" xr:uid="{2196E771-E96E-1148-AE7E-DE9D8BA48460}"/>
+    <hyperlink ref="A170" r:id="rId134" xr:uid="{EE623E84-7766-724A-B9F1-0445B6075AFE}"/>
+    <hyperlink ref="A171" r:id="rId135" xr:uid="{8B2FE789-7540-0248-9FF5-23A2890B3BAB}"/>
+    <hyperlink ref="A172" r:id="rId136" xr:uid="{49F2DAD4-1A06-3A4F-975E-E2F7B57B2AFF}"/>
+    <hyperlink ref="A173" r:id="rId137" xr:uid="{259E24DF-532C-1A42-980F-7E6FC417120B}"/>
+    <hyperlink ref="A174" r:id="rId138" xr:uid="{637FEEB1-D482-DB4A-A88F-5D5305EAD2E7}"/>
+    <hyperlink ref="A175" r:id="rId139" xr:uid="{B1548712-DC37-2F4A-AE02-F5249E9978B1}"/>
+    <hyperlink ref="A178" r:id="rId140" xr:uid="{4BDC82DD-C4CA-F948-8F70-DEC94BDB9C58}"/>
+    <hyperlink ref="A179" r:id="rId141" xr:uid="{BD96BC1B-DA16-EC42-8E3E-C707D78812FB}"/>
+    <hyperlink ref="A180" r:id="rId142" xr:uid="{7C5512D3-1E17-A348-A952-0271072FB92D}"/>
+    <hyperlink ref="A181" r:id="rId143" xr:uid="{59FBF403-F9D4-994C-8ECC-FEA6356FA5B8}"/>
+    <hyperlink ref="A182" r:id="rId144" xr:uid="{2E7DAB4E-FBDE-3947-93F7-487CC689E7DE}"/>
+    <hyperlink ref="A183" r:id="rId145" xr:uid="{68E01CD1-47BD-4A48-B9E1-7179594EC383}"/>
+    <hyperlink ref="A184" r:id="rId146" xr:uid="{6053AE6A-E648-314F-8646-DE5CCECB658D}"/>
+    <hyperlink ref="A185" r:id="rId147" xr:uid="{27098F27-4A2C-FB49-998A-396EA88BCE5B}"/>
+    <hyperlink ref="A186" r:id="rId148" xr:uid="{AB3C4832-FCBC-3140-A2A9-45A440666F88}"/>
+    <hyperlink ref="A187" r:id="rId149" xr:uid="{40A7C6E5-9128-5F4C-A90C-961DAC062516}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -47065,7 +46694,9 @@
   </sheetPr>
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0"/>
+    <sheetView topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="C176" sqref="C176"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -49035,385 +48666,861 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="23">
+    <row r="113" spans="1:8" ht="23">
       <c r="A113" s="3"/>
       <c r="B113" s="18"/>
       <c r="C113" s="18"/>
       <c r="D113" s="18"/>
     </row>
-    <row r="114" spans="1:4" ht="23">
+    <row r="114" spans="1:8" ht="23">
       <c r="A114" s="3"/>
       <c r="B114" s="18"/>
       <c r="C114" s="18"/>
       <c r="D114" s="18"/>
     </row>
-    <row r="115" spans="1:4" ht="23">
+    <row r="115" spans="1:8" ht="23">
       <c r="A115" s="3"/>
       <c r="B115" s="18"/>
       <c r="C115" s="18"/>
       <c r="D115" s="18"/>
     </row>
-    <row r="116" spans="1:4" ht="23">
-      <c r="A116" s="3"/>
-      <c r="B116" s="18"/>
-      <c r="C116" s="18"/>
-      <c r="D116" s="18"/>
-    </row>
-    <row r="117" spans="1:4" ht="23">
-      <c r="A117" s="3"/>
-      <c r="B117" s="18"/>
-      <c r="C117" s="18"/>
-      <c r="D117" s="18"/>
-    </row>
-    <row r="118" spans="1:4" ht="23">
-      <c r="A118" s="3"/>
-      <c r="B118" s="18"/>
-      <c r="C118" s="18"/>
-      <c r="D118" s="18"/>
-    </row>
-    <row r="119" spans="1:4" ht="23">
-      <c r="A119" s="3"/>
-      <c r="B119" s="18"/>
-      <c r="C119" s="18"/>
-      <c r="D119" s="18"/>
-    </row>
-    <row r="120" spans="1:4" ht="23">
-      <c r="A120" s="3"/>
-      <c r="B120" s="18"/>
-      <c r="C120" s="18"/>
-      <c r="D120" s="18"/>
-    </row>
-    <row r="121" spans="1:4" ht="23">
-      <c r="A121" s="3"/>
-      <c r="B121" s="18"/>
-      <c r="C121" s="18"/>
-      <c r="D121" s="18"/>
-    </row>
-    <row r="122" spans="1:4" ht="23">
-      <c r="A122" s="3"/>
-      <c r="B122" s="18"/>
-      <c r="C122" s="18"/>
-      <c r="D122" s="18"/>
-    </row>
-    <row r="123" spans="1:4" ht="23">
-      <c r="A123" s="3"/>
-      <c r="B123" s="18"/>
-      <c r="C123" s="18"/>
-      <c r="D123" s="18"/>
-    </row>
-    <row r="124" spans="1:4" ht="23">
-      <c r="A124" s="3"/>
-      <c r="B124" s="18"/>
-      <c r="C124" s="18"/>
-      <c r="D124" s="18"/>
-    </row>
-    <row r="125" spans="1:4" ht="23">
-      <c r="A125" s="3"/>
-      <c r="B125" s="18"/>
-      <c r="C125" s="18"/>
-      <c r="D125" s="18"/>
-    </row>
-    <row r="126" spans="1:4" ht="23">
-      <c r="A126" s="3"/>
-      <c r="B126" s="18"/>
-      <c r="C126" s="18"/>
-      <c r="D126" s="18"/>
-    </row>
-    <row r="127" spans="1:4" ht="23">
-      <c r="A127" s="3"/>
-      <c r="B127" s="18"/>
-      <c r="C127" s="18"/>
-      <c r="D127" s="18"/>
-    </row>
-    <row r="128" spans="1:4" ht="23">
-      <c r="A128" s="3"/>
-      <c r="B128" s="18"/>
-      <c r="C128" s="18"/>
-      <c r="D128" s="18"/>
-    </row>
-    <row r="129" spans="1:4" ht="23">
-      <c r="A129" s="3"/>
-      <c r="B129" s="18"/>
-      <c r="C129" s="18"/>
-      <c r="D129" s="18"/>
-    </row>
-    <row r="130" spans="1:4" ht="23">
-      <c r="A130" s="3"/>
-      <c r="B130" s="18"/>
-      <c r="C130" s="18"/>
-      <c r="D130" s="18"/>
-    </row>
-    <row r="131" spans="1:4" ht="23">
-      <c r="A131" s="3"/>
-      <c r="B131" s="18"/>
-      <c r="C131" s="18"/>
-      <c r="D131" s="18"/>
-    </row>
-    <row r="132" spans="1:4" ht="23">
-      <c r="A132" s="3"/>
-      <c r="B132" s="18"/>
-      <c r="C132" s="18"/>
-      <c r="D132" s="18"/>
-    </row>
-    <row r="133" spans="1:4" ht="23">
-      <c r="A133" s="3"/>
-      <c r="B133" s="18"/>
-      <c r="C133" s="18"/>
-      <c r="D133" s="18"/>
-    </row>
-    <row r="134" spans="1:4" ht="23">
-      <c r="A134" s="3"/>
-      <c r="B134" s="18"/>
-      <c r="C134" s="18"/>
-      <c r="D134" s="18"/>
-    </row>
-    <row r="135" spans="1:4" ht="23">
-      <c r="A135" s="3"/>
-      <c r="B135" s="18"/>
-      <c r="C135" s="18"/>
-      <c r="D135" s="18"/>
-    </row>
-    <row r="136" spans="1:4" ht="23">
-      <c r="A136" s="3"/>
-      <c r="B136" s="18"/>
-      <c r="C136" s="18"/>
-      <c r="D136" s="18"/>
-    </row>
-    <row r="137" spans="1:4" ht="23">
-      <c r="A137" s="3"/>
-      <c r="B137" s="18"/>
-      <c r="C137" s="18"/>
-      <c r="D137" s="18"/>
-    </row>
-    <row r="138" spans="1:4" ht="23">
-      <c r="A138" s="3"/>
-      <c r="B138" s="18"/>
-      <c r="C138" s="18"/>
-      <c r="D138" s="18"/>
-    </row>
-    <row r="139" spans="1:4" ht="23">
-      <c r="A139" s="3"/>
-      <c r="B139" s="18"/>
-      <c r="C139" s="18"/>
-      <c r="D139" s="18"/>
-    </row>
-    <row r="140" spans="1:4" ht="23">
-      <c r="A140" s="3"/>
-      <c r="B140" s="18"/>
-      <c r="C140" s="18"/>
-      <c r="D140" s="18"/>
-    </row>
-    <row r="141" spans="1:4" ht="23">
-      <c r="A141" s="3"/>
-      <c r="B141" s="18"/>
-      <c r="C141" s="18"/>
-      <c r="D141" s="18"/>
-    </row>
-    <row r="142" spans="1:4" ht="23">
-      <c r="A142" s="3"/>
-      <c r="B142" s="18"/>
-      <c r="C142" s="18"/>
-      <c r="D142" s="18"/>
-    </row>
-    <row r="143" spans="1:4" ht="23">
-      <c r="A143" s="3"/>
-      <c r="B143" s="18"/>
-      <c r="C143" s="18"/>
-      <c r="D143" s="18"/>
-    </row>
-    <row r="144" spans="1:4" ht="23">
-      <c r="A144" s="3"/>
-      <c r="B144" s="18"/>
-      <c r="C144" s="18"/>
-      <c r="D144" s="18"/>
-    </row>
-    <row r="145" spans="1:4" ht="23">
-      <c r="A145" s="3"/>
-      <c r="B145" s="18"/>
-      <c r="C145" s="18"/>
-      <c r="D145" s="18"/>
-    </row>
-    <row r="146" spans="1:4" ht="23">
-      <c r="A146" s="3"/>
-      <c r="B146" s="18"/>
-      <c r="C146" s="18"/>
-      <c r="D146" s="18"/>
-    </row>
-    <row r="147" spans="1:4" ht="23">
-      <c r="A147" s="3"/>
-      <c r="B147" s="18"/>
-      <c r="C147" s="18"/>
-      <c r="D147" s="18"/>
-    </row>
-    <row r="148" spans="1:4" ht="23">
-      <c r="A148" s="3"/>
-      <c r="B148" s="18"/>
-      <c r="C148" s="18"/>
-      <c r="D148" s="18"/>
-    </row>
-    <row r="149" spans="1:4" ht="23">
-      <c r="A149" s="3"/>
-      <c r="B149" s="18"/>
-      <c r="C149" s="18"/>
-      <c r="D149" s="18"/>
-    </row>
-    <row r="150" spans="1:4" ht="23">
-      <c r="A150" s="3"/>
-      <c r="B150" s="18"/>
-      <c r="C150" s="18"/>
-      <c r="D150" s="18"/>
-    </row>
-    <row r="151" spans="1:4" ht="23">
-      <c r="A151" s="3"/>
-      <c r="B151" s="18"/>
-      <c r="C151" s="18"/>
-      <c r="D151" s="18"/>
-    </row>
-    <row r="152" spans="1:4" ht="23">
-      <c r="A152" s="3"/>
-      <c r="B152" s="18"/>
-      <c r="C152" s="18"/>
-      <c r="D152" s="18"/>
-    </row>
-    <row r="153" spans="1:4" ht="23">
-      <c r="A153" s="3"/>
-      <c r="B153" s="18"/>
-      <c r="C153" s="18"/>
-      <c r="D153" s="18"/>
-    </row>
-    <row r="154" spans="1:4" ht="23">
-      <c r="A154" s="3"/>
-      <c r="B154" s="18"/>
-      <c r="C154" s="18"/>
-      <c r="D154" s="18"/>
-    </row>
-    <row r="155" spans="1:4" ht="23">
-      <c r="A155" s="3"/>
-      <c r="B155" s="18"/>
-      <c r="C155" s="18"/>
-      <c r="D155" s="18"/>
-    </row>
-    <row r="156" spans="1:4" ht="23">
-      <c r="A156" s="3"/>
-      <c r="B156" s="18"/>
-      <c r="C156" s="18"/>
-      <c r="D156" s="18"/>
-    </row>
-    <row r="157" spans="1:4" ht="23">
-      <c r="A157" s="3"/>
-      <c r="B157" s="18"/>
-      <c r="C157" s="18"/>
-      <c r="D157" s="18"/>
-    </row>
-    <row r="158" spans="1:4" ht="23">
-      <c r="A158" s="3"/>
-      <c r="B158" s="18"/>
-      <c r="C158" s="18"/>
-      <c r="D158" s="18"/>
-    </row>
-    <row r="159" spans="1:4" ht="23">
-      <c r="A159" s="3"/>
-      <c r="B159" s="18"/>
-      <c r="C159" s="18"/>
-      <c r="D159" s="18"/>
-    </row>
-    <row r="160" spans="1:4" ht="23">
-      <c r="A160" s="3"/>
-      <c r="B160" s="18"/>
-      <c r="C160" s="18"/>
-      <c r="D160" s="18"/>
-    </row>
-    <row r="161" spans="1:4" ht="23">
-      <c r="A161" s="3"/>
-      <c r="B161" s="18"/>
-      <c r="C161" s="18"/>
-      <c r="D161" s="18"/>
-    </row>
-    <row r="162" spans="1:4" ht="23">
-      <c r="A162" s="3"/>
-      <c r="B162" s="18"/>
-      <c r="C162" s="18"/>
-      <c r="D162" s="18"/>
-    </row>
-    <row r="163" spans="1:4" ht="23">
-      <c r="A163" s="3"/>
-      <c r="B163" s="18"/>
-      <c r="C163" s="18"/>
-      <c r="D163" s="18"/>
-    </row>
-    <row r="164" spans="1:4" ht="23">
-      <c r="A164" s="3"/>
-      <c r="B164" s="18"/>
-      <c r="C164" s="18"/>
-      <c r="D164" s="18"/>
-    </row>
-    <row r="165" spans="1:4" ht="23">
-      <c r="A165" s="3"/>
-      <c r="B165" s="18"/>
-      <c r="C165" s="18"/>
-      <c r="D165" s="18"/>
-    </row>
-    <row r="166" spans="1:4" ht="23">
-      <c r="A166" s="3"/>
-      <c r="B166" s="18"/>
-      <c r="C166" s="18"/>
-      <c r="D166" s="18"/>
-    </row>
-    <row r="167" spans="1:4" ht="23">
-      <c r="A167" s="3"/>
-      <c r="B167" s="18"/>
-      <c r="C167" s="18"/>
-      <c r="D167" s="18"/>
-    </row>
-    <row r="168" spans="1:4" ht="23">
-      <c r="A168" s="3"/>
-      <c r="B168" s="18"/>
-      <c r="C168" s="18"/>
-      <c r="D168" s="18"/>
-    </row>
-    <row r="169" spans="1:4" ht="23">
-      <c r="A169" s="3"/>
-      <c r="B169" s="18"/>
-      <c r="C169" s="18"/>
-      <c r="D169" s="18"/>
-    </row>
-    <row r="170" spans="1:4" ht="23">
-      <c r="A170" s="3"/>
-      <c r="B170" s="18"/>
-      <c r="C170" s="18"/>
-      <c r="D170" s="18"/>
-    </row>
-    <row r="171" spans="1:4" ht="23">
-      <c r="A171" s="3"/>
-      <c r="B171" s="18"/>
-      <c r="C171" s="18"/>
-      <c r="D171" s="18"/>
-    </row>
-    <row r="172" spans="1:4" ht="23">
-      <c r="A172" s="3"/>
-      <c r="B172" s="18"/>
-      <c r="C172" s="18"/>
-      <c r="D172" s="18"/>
-    </row>
-    <row r="173" spans="1:4" ht="23">
+    <row r="116" spans="1:8" ht="23">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="23">
+      <c r="A117" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B117" s="12"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="37"/>
+      <c r="F117" s="37"/>
+      <c r="G117" s="37"/>
+      <c r="H117" s="37"/>
+    </row>
+    <row r="118" spans="1:8" ht="23">
+      <c r="A118" s="69" t="s">
+        <v>279</v>
+      </c>
+      <c r="B118" s="7">
+        <v>1</v>
+      </c>
+      <c r="C118" s="7">
+        <v>1</v>
+      </c>
+      <c r="D118" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="23">
+      <c r="A119" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="B119" s="7">
+        <v>1</v>
+      </c>
+      <c r="C119" s="7">
+        <v>1</v>
+      </c>
+      <c r="D119" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="23">
+      <c r="A120" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="B120" s="7">
+        <v>1</v>
+      </c>
+      <c r="C120" s="7">
+        <v>1</v>
+      </c>
+      <c r="D120" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="23">
+      <c r="A121" s="69" t="s">
+        <v>281</v>
+      </c>
+      <c r="B121" s="7">
+        <v>0</v>
+      </c>
+      <c r="C121" s="7">
+        <v>0</v>
+      </c>
+      <c r="D121" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="23">
+      <c r="A122" s="69" t="s">
+        <v>280</v>
+      </c>
+      <c r="B122" s="7">
+        <v>0</v>
+      </c>
+      <c r="C122" s="7">
+        <v>0</v>
+      </c>
+      <c r="D122" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="23">
+      <c r="A123" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="B123" s="7">
+        <v>0</v>
+      </c>
+      <c r="C123" s="7">
+        <v>0</v>
+      </c>
+      <c r="D123" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="23">
+      <c r="A124" s="69" t="s">
+        <v>379</v>
+      </c>
+      <c r="B124" s="7">
+        <v>0</v>
+      </c>
+      <c r="C124" s="7">
+        <v>1</v>
+      </c>
+      <c r="D124" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="23">
+      <c r="A125" s="69" t="s">
+        <v>380</v>
+      </c>
+      <c r="B125" s="7">
+        <v>0</v>
+      </c>
+      <c r="C125" s="7">
+        <v>0</v>
+      </c>
+      <c r="D125" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="23">
+      <c r="A126" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="B126" s="7">
+        <v>1</v>
+      </c>
+      <c r="C126" s="7">
+        <v>1</v>
+      </c>
+      <c r="D126" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="14">
+      <c r="A127" s="8"/>
+      <c r="B127" s="10">
+        <v>1</v>
+      </c>
+      <c r="C127" s="10">
+        <v>1</v>
+      </c>
+      <c r="D127" s="10">
+        <v>1</v>
+      </c>
+      <c r="E127" s="10">
+        <f>ROUND(1/3*(1/B127+1/C127+1/D127),2)</f>
+        <v>1</v>
+      </c>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
+    </row>
+    <row r="128" spans="1:8" ht="23">
+      <c r="A128" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B128" s="12"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="37"/>
+      <c r="F128" s="37"/>
+      <c r="G128" s="37"/>
+      <c r="H128" s="37"/>
+    </row>
+    <row r="129" spans="1:8" ht="23">
+      <c r="A129" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="B129" s="7">
+        <v>1</v>
+      </c>
+      <c r="C129" s="7">
+        <v>1</v>
+      </c>
+      <c r="D129" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="23">
+      <c r="A130" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="B130" s="7">
+        <v>1</v>
+      </c>
+      <c r="C130" s="7">
+        <v>0</v>
+      </c>
+      <c r="D130" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="23">
+      <c r="A131" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="B131" s="7">
+        <v>1</v>
+      </c>
+      <c r="C131" s="7">
+        <v>0</v>
+      </c>
+      <c r="D131" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="23">
+      <c r="A132" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="B132" s="7">
+        <v>0</v>
+      </c>
+      <c r="C132" s="7">
+        <v>0</v>
+      </c>
+      <c r="D132" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="23">
+      <c r="A133" s="69" t="s">
+        <v>196</v>
+      </c>
+      <c r="B133" s="7">
+        <v>0</v>
+      </c>
+      <c r="C133" s="7">
+        <v>0</v>
+      </c>
+      <c r="D133" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="23">
+      <c r="A134" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="B134" s="7">
+        <v>0</v>
+      </c>
+      <c r="C134" s="7">
+        <v>0</v>
+      </c>
+      <c r="D134" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="23">
+      <c r="A135" s="69" t="s">
+        <v>194</v>
+      </c>
+      <c r="B135" s="7">
+        <v>0</v>
+      </c>
+      <c r="C135" s="7">
+        <v>0</v>
+      </c>
+      <c r="D135" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="23">
+      <c r="A136" s="69" t="s">
+        <v>286</v>
+      </c>
+      <c r="B136" s="7">
+        <v>0</v>
+      </c>
+      <c r="C136" s="7">
+        <v>0</v>
+      </c>
+      <c r="D136" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="23">
+      <c r="A137" s="69" t="s">
+        <v>269</v>
+      </c>
+      <c r="B137" s="7">
+        <v>0</v>
+      </c>
+      <c r="C137" s="7">
+        <v>0</v>
+      </c>
+      <c r="D137" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="14">
+      <c r="A138" s="8"/>
+      <c r="B138" s="10">
+        <v>1</v>
+      </c>
+      <c r="C138" s="10">
+        <v>1</v>
+      </c>
+      <c r="D138" s="10">
+        <v>1</v>
+      </c>
+      <c r="E138" s="10">
+        <f>ROUND(1/3*(1/B138+1/C138+1/D138),2)</f>
+        <v>1</v>
+      </c>
+      <c r="F138" s="11"/>
+      <c r="G138" s="11"/>
+      <c r="H138" s="11"/>
+    </row>
+    <row r="139" spans="1:8" ht="23">
+      <c r="A139" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B139" s="12"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="37"/>
+      <c r="F139" s="37"/>
+      <c r="G139" s="37"/>
+      <c r="H139" s="37"/>
+    </row>
+    <row r="140" spans="1:8" ht="23">
+      <c r="A140" s="69" t="s">
+        <v>218</v>
+      </c>
+      <c r="B140" s="7">
+        <v>0</v>
+      </c>
+      <c r="C140" s="7">
+        <v>1</v>
+      </c>
+      <c r="D140" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="23">
+      <c r="A141" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="B141" s="7">
+        <v>1</v>
+      </c>
+      <c r="C141" s="7">
+        <v>0</v>
+      </c>
+      <c r="D141" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="23">
+      <c r="A142" s="69" t="s">
+        <v>290</v>
+      </c>
+      <c r="B142" s="7">
+        <v>1</v>
+      </c>
+      <c r="C142" s="7">
+        <v>1</v>
+      </c>
+      <c r="D142" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="23">
+      <c r="A143" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="B143" s="7">
+        <v>1</v>
+      </c>
+      <c r="C143" s="7">
+        <v>1</v>
+      </c>
+      <c r="D143" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="23">
+      <c r="A144" s="69" t="s">
+        <v>178</v>
+      </c>
+      <c r="B144" s="7">
+        <v>1</v>
+      </c>
+      <c r="C144" s="7">
+        <v>1</v>
+      </c>
+      <c r="D144" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="23">
+      <c r="A145" s="69" t="s">
+        <v>292</v>
+      </c>
+      <c r="B145" s="7">
+        <v>1</v>
+      </c>
+      <c r="C145" s="7">
+        <v>1</v>
+      </c>
+      <c r="D145" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="23">
+      <c r="A146" s="69" t="s">
+        <v>291</v>
+      </c>
+      <c r="B146" s="7">
+        <v>1</v>
+      </c>
+      <c r="C146" s="7">
+        <v>1</v>
+      </c>
+      <c r="D146" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="23">
+      <c r="A147" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="B147" s="7">
+        <v>1</v>
+      </c>
+      <c r="C147" s="7">
+        <v>1</v>
+      </c>
+      <c r="D147" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="23">
+      <c r="A148" s="69" t="s">
+        <v>381</v>
+      </c>
+      <c r="B148" s="7">
+        <v>1</v>
+      </c>
+      <c r="C148" s="7">
+        <v>1</v>
+      </c>
+      <c r="D148" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="14">
+      <c r="A149" s="8"/>
+      <c r="B149" s="10">
+        <v>2</v>
+      </c>
+      <c r="C149" s="10">
+        <v>1</v>
+      </c>
+      <c r="D149" s="10">
+        <v>1</v>
+      </c>
+      <c r="E149" s="10">
+        <f>ROUND(1/3*(1/B149+1/C149+1/D149),2)</f>
+        <v>0.83</v>
+      </c>
+      <c r="F149" s="11"/>
+      <c r="G149" s="11"/>
+      <c r="H149" s="11"/>
+    </row>
+    <row r="150" spans="1:8" ht="23">
+      <c r="A150" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B150" s="37"/>
+      <c r="C150" s="37"/>
+      <c r="D150" s="37"/>
+      <c r="E150" s="37"/>
+      <c r="F150" s="37"/>
+      <c r="G150" s="37"/>
+      <c r="H150" s="37"/>
+    </row>
+    <row r="151" spans="1:8" ht="13">
+      <c r="A151" s="69" t="s">
+        <v>295</v>
+      </c>
+      <c r="B151" s="46">
+        <v>1</v>
+      </c>
+      <c r="C151" s="46">
+        <v>1</v>
+      </c>
+      <c r="D151" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="13">
+      <c r="A152" s="69" t="s">
+        <v>184</v>
+      </c>
+      <c r="B152" s="46">
+        <v>1</v>
+      </c>
+      <c r="C152" s="46">
+        <v>1</v>
+      </c>
+      <c r="D152" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="13">
+      <c r="A153" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="B153" s="46">
+        <v>1</v>
+      </c>
+      <c r="C153" s="46">
+        <v>1</v>
+      </c>
+      <c r="D153" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="13">
+      <c r="A154" s="69" t="s">
+        <v>296</v>
+      </c>
+      <c r="B154" s="46">
+        <v>1</v>
+      </c>
+      <c r="C154" s="46">
+        <v>1</v>
+      </c>
+      <c r="D154" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="13">
+      <c r="A155" s="69" t="s">
+        <v>183</v>
+      </c>
+      <c r="B155" s="46">
+        <v>0</v>
+      </c>
+      <c r="C155" s="46">
+        <v>1</v>
+      </c>
+      <c r="D155" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="13">
+      <c r="A156" s="69" t="s">
+        <v>297</v>
+      </c>
+      <c r="B156" s="46">
+        <v>1</v>
+      </c>
+      <c r="C156" s="46">
+        <v>1</v>
+      </c>
+      <c r="D156" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="13">
+      <c r="A157" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="B157" s="46">
+        <v>1</v>
+      </c>
+      <c r="C157" s="46">
+        <v>1</v>
+      </c>
+      <c r="D157" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="13">
+      <c r="A158" s="69" t="s">
+        <v>299</v>
+      </c>
+      <c r="B158" s="46">
+        <v>1</v>
+      </c>
+      <c r="C158" s="46">
+        <v>1</v>
+      </c>
+      <c r="D158" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="13">
+      <c r="A159" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="B159" s="46">
+        <v>1</v>
+      </c>
+      <c r="C159" s="46">
+        <v>1</v>
+      </c>
+      <c r="D159" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="14">
+      <c r="A160" s="8"/>
+      <c r="B160" s="10">
+        <v>1</v>
+      </c>
+      <c r="C160" s="10">
+        <v>1</v>
+      </c>
+      <c r="D160" s="10">
+        <v>1</v>
+      </c>
+      <c r="E160" s="10">
+        <f>ROUND(1/3*(1/B160+1/C160+1/D160),2)</f>
+        <v>1</v>
+      </c>
+      <c r="F160" s="11"/>
+      <c r="G160" s="11"/>
+      <c r="H160" s="11"/>
+    </row>
+    <row r="161" spans="1:8" ht="23">
+      <c r="A161" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="B161" s="37"/>
+      <c r="C161" s="37"/>
+      <c r="D161" s="37"/>
+      <c r="E161" s="37"/>
+      <c r="F161" s="37"/>
+      <c r="G161" s="37"/>
+      <c r="H161" s="37"/>
+    </row>
+    <row r="162" spans="1:8" ht="13">
+      <c r="A162" s="69" t="s">
+        <v>306</v>
+      </c>
+      <c r="B162" s="46">
+        <v>1</v>
+      </c>
+      <c r="C162" s="46">
+        <v>1</v>
+      </c>
+      <c r="D162" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="13">
+      <c r="A163" s="69" t="s">
+        <v>305</v>
+      </c>
+      <c r="B163" s="46">
+        <v>1</v>
+      </c>
+      <c r="C163" s="46">
+        <v>1</v>
+      </c>
+      <c r="D163" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="13">
+      <c r="A164" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="B164" s="46">
+        <v>0</v>
+      </c>
+      <c r="C164" s="46">
+        <v>1</v>
+      </c>
+      <c r="D164" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="13">
+      <c r="A165" s="69" t="s">
+        <v>308</v>
+      </c>
+      <c r="B165" s="46">
+        <v>0</v>
+      </c>
+      <c r="C165" s="46">
+        <v>0</v>
+      </c>
+      <c r="D165" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="13">
+      <c r="A166" s="69" t="s">
+        <v>382</v>
+      </c>
+      <c r="B166" s="46">
+        <v>0</v>
+      </c>
+      <c r="C166" s="46">
+        <v>0</v>
+      </c>
+      <c r="D166" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="13">
+      <c r="A167" s="69" t="s">
+        <v>307</v>
+      </c>
+      <c r="B167" s="46">
+        <v>0</v>
+      </c>
+      <c r="C167" s="46">
+        <v>0</v>
+      </c>
+      <c r="D167" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="13">
+      <c r="A168" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="B168" s="46">
+        <v>0</v>
+      </c>
+      <c r="C168" s="46">
+        <v>0</v>
+      </c>
+      <c r="D168" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="13">
+      <c r="A169" s="69" t="s">
+        <v>383</v>
+      </c>
+      <c r="B169" s="46">
+        <v>0</v>
+      </c>
+      <c r="C169" s="46">
+        <v>0</v>
+      </c>
+      <c r="D169" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="13">
+      <c r="A170" s="69" t="s">
+        <v>384</v>
+      </c>
+      <c r="B170" s="46">
+        <v>0</v>
+      </c>
+      <c r="C170" s="46">
+        <v>0</v>
+      </c>
+      <c r="D170" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="14">
+      <c r="A171" s="8"/>
+      <c r="B171" s="10">
+        <v>1</v>
+      </c>
+      <c r="C171" s="10">
+        <v>1</v>
+      </c>
+      <c r="D171" s="10">
+        <v>1</v>
+      </c>
+      <c r="E171" s="10">
+        <f>ROUND(1/3*(1/B171+1/C171+1/D171),2)</f>
+        <v>1</v>
+      </c>
+      <c r="F171" s="11"/>
+      <c r="G171" s="11"/>
+      <c r="H171" s="11"/>
+    </row>
+    <row r="172" spans="1:8" ht="23">
+      <c r="A172" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B172" s="46">
+        <f>ROUND(AVERAGE(1/B127,1/B138,1/B149, 1/B160,1/B171), 2)</f>
+        <v>0.9</v>
+      </c>
+      <c r="C172" s="46">
+        <f>ROUND(AVERAGE(1/C127,1/C138,1/C149, 1/C160,1/C171), 2)</f>
+        <v>1</v>
+      </c>
+      <c r="D172" s="46">
+        <f>ROUND(AVERAGE(1/D127,1/D138,1/D149, 1/D160,1/D171), 2)</f>
+        <v>1</v>
+      </c>
+      <c r="E172" s="46">
+        <f>ROUND(AVERAGE(B172:D172),2)</f>
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="23">
       <c r="A173" s="3"/>
       <c r="B173" s="18"/>
       <c r="C173" s="18"/>
       <c r="D173" s="18"/>
     </row>
-    <row r="174" spans="1:4" ht="23">
+    <row r="174" spans="1:8" ht="23">
       <c r="A174" s="3"/>
       <c r="B174" s="18"/>
       <c r="C174" s="18"/>
       <c r="D174" s="18"/>
     </row>
-    <row r="175" spans="1:4" ht="23">
+    <row r="175" spans="1:8" ht="23">
       <c r="A175" s="3"/>
       <c r="B175" s="18"/>
       <c r="C175" s="18"/>
       <c r="D175" s="18"/>
     </row>
-    <row r="176" spans="1:4" ht="23">
+    <row r="176" spans="1:8" ht="23">
       <c r="A176" s="3"/>
       <c r="B176" s="18"/>
       <c r="C176" s="18"/>
@@ -54045,336 +54152,61 @@
       <c r="C947" s="18"/>
       <c r="D947" s="18"/>
     </row>
-    <row r="948" spans="1:4" ht="23">
-      <c r="A948" s="3"/>
-      <c r="B948" s="18"/>
-      <c r="C948" s="18"/>
-      <c r="D948" s="18"/>
-    </row>
-    <row r="949" spans="1:4" ht="23">
-      <c r="A949" s="3"/>
-      <c r="B949" s="18"/>
-      <c r="C949" s="18"/>
-      <c r="D949" s="18"/>
-    </row>
-    <row r="950" spans="1:4" ht="23">
-      <c r="A950" s="3"/>
-      <c r="B950" s="18"/>
-      <c r="C950" s="18"/>
-      <c r="D950" s="18"/>
-    </row>
-    <row r="951" spans="1:4" ht="23">
-      <c r="A951" s="3"/>
-      <c r="B951" s="18"/>
-      <c r="C951" s="18"/>
-      <c r="D951" s="18"/>
-    </row>
-    <row r="952" spans="1:4" ht="23">
-      <c r="A952" s="3"/>
-      <c r="B952" s="18"/>
-      <c r="C952" s="18"/>
-      <c r="D952" s="18"/>
-    </row>
-    <row r="953" spans="1:4" ht="23">
-      <c r="A953" s="3"/>
-      <c r="B953" s="18"/>
-      <c r="C953" s="18"/>
-      <c r="D953" s="18"/>
-    </row>
-    <row r="954" spans="1:4" ht="23">
-      <c r="A954" s="3"/>
-      <c r="B954" s="18"/>
-      <c r="C954" s="18"/>
-      <c r="D954" s="18"/>
-    </row>
-    <row r="955" spans="1:4" ht="23">
-      <c r="A955" s="3"/>
-      <c r="B955" s="18"/>
-      <c r="C955" s="18"/>
-      <c r="D955" s="18"/>
-    </row>
-    <row r="956" spans="1:4" ht="23">
-      <c r="A956" s="3"/>
-      <c r="B956" s="18"/>
-      <c r="C956" s="18"/>
-      <c r="D956" s="18"/>
-    </row>
-    <row r="957" spans="1:4" ht="23">
-      <c r="A957" s="3"/>
-      <c r="B957" s="18"/>
-      <c r="C957" s="18"/>
-      <c r="D957" s="18"/>
-    </row>
-    <row r="958" spans="1:4" ht="23">
-      <c r="A958" s="3"/>
-      <c r="B958" s="18"/>
-      <c r="C958" s="18"/>
-      <c r="D958" s="18"/>
-    </row>
-    <row r="959" spans="1:4" ht="23">
-      <c r="A959" s="3"/>
-      <c r="B959" s="18"/>
-      <c r="C959" s="18"/>
-      <c r="D959" s="18"/>
-    </row>
-    <row r="960" spans="1:4" ht="23">
-      <c r="A960" s="3"/>
-      <c r="B960" s="18"/>
-      <c r="C960" s="18"/>
-      <c r="D960" s="18"/>
-    </row>
-    <row r="961" spans="1:4" ht="23">
-      <c r="A961" s="3"/>
-      <c r="B961" s="18"/>
-      <c r="C961" s="18"/>
-      <c r="D961" s="18"/>
-    </row>
-    <row r="962" spans="1:4" ht="23">
-      <c r="A962" s="3"/>
-      <c r="B962" s="18"/>
-      <c r="C962" s="18"/>
-      <c r="D962" s="18"/>
-    </row>
-    <row r="963" spans="1:4" ht="23">
-      <c r="A963" s="3"/>
-      <c r="B963" s="18"/>
-      <c r="C963" s="18"/>
-      <c r="D963" s="18"/>
-    </row>
-    <row r="964" spans="1:4" ht="23">
-      <c r="A964" s="3"/>
-      <c r="B964" s="18"/>
-      <c r="C964" s="18"/>
-      <c r="D964" s="18"/>
-    </row>
-    <row r="965" spans="1:4" ht="23">
-      <c r="A965" s="3"/>
-      <c r="B965" s="18"/>
-      <c r="C965" s="18"/>
-      <c r="D965" s="18"/>
-    </row>
-    <row r="966" spans="1:4" ht="23">
-      <c r="A966" s="3"/>
-      <c r="B966" s="18"/>
-      <c r="C966" s="18"/>
-      <c r="D966" s="18"/>
-    </row>
-    <row r="967" spans="1:4" ht="23">
-      <c r="A967" s="3"/>
-      <c r="B967" s="18"/>
-      <c r="C967" s="18"/>
-      <c r="D967" s="18"/>
-    </row>
-    <row r="968" spans="1:4" ht="23">
-      <c r="A968" s="3"/>
-      <c r="B968" s="18"/>
-      <c r="C968" s="18"/>
-      <c r="D968" s="18"/>
-    </row>
-    <row r="969" spans="1:4" ht="23">
-      <c r="A969" s="3"/>
-      <c r="B969" s="18"/>
-      <c r="C969" s="18"/>
-      <c r="D969" s="18"/>
-    </row>
-    <row r="970" spans="1:4" ht="23">
-      <c r="A970" s="3"/>
-      <c r="B970" s="18"/>
-      <c r="C970" s="18"/>
-      <c r="D970" s="18"/>
-    </row>
-    <row r="971" spans="1:4" ht="23">
-      <c r="A971" s="3"/>
-      <c r="B971" s="18"/>
-      <c r="C971" s="18"/>
-      <c r="D971" s="18"/>
-    </row>
-    <row r="972" spans="1:4" ht="23">
-      <c r="A972" s="3"/>
-      <c r="B972" s="18"/>
-      <c r="C972" s="18"/>
-      <c r="D972" s="18"/>
-    </row>
-    <row r="973" spans="1:4" ht="23">
-      <c r="A973" s="3"/>
-      <c r="B973" s="18"/>
-      <c r="C973" s="18"/>
-      <c r="D973" s="18"/>
-    </row>
-    <row r="974" spans="1:4" ht="23">
-      <c r="A974" s="3"/>
-      <c r="B974" s="18"/>
-      <c r="C974" s="18"/>
-      <c r="D974" s="18"/>
-    </row>
-    <row r="975" spans="1:4" ht="23">
-      <c r="A975" s="3"/>
-      <c r="B975" s="18"/>
-      <c r="C975" s="18"/>
-      <c r="D975" s="18"/>
-    </row>
-    <row r="976" spans="1:4" ht="23">
-      <c r="A976" s="3"/>
-      <c r="B976" s="18"/>
-      <c r="C976" s="18"/>
-      <c r="D976" s="18"/>
-    </row>
-    <row r="977" spans="1:4" ht="23">
-      <c r="A977" s="3"/>
-      <c r="B977" s="18"/>
-      <c r="C977" s="18"/>
-      <c r="D977" s="18"/>
-    </row>
-    <row r="978" spans="1:4" ht="23">
-      <c r="A978" s="3"/>
-      <c r="B978" s="18"/>
-      <c r="C978" s="18"/>
-      <c r="D978" s="18"/>
-    </row>
-    <row r="979" spans="1:4" ht="23">
-      <c r="A979" s="3"/>
-      <c r="B979" s="18"/>
-      <c r="C979" s="18"/>
-      <c r="D979" s="18"/>
-    </row>
-    <row r="980" spans="1:4" ht="23">
-      <c r="A980" s="3"/>
-      <c r="B980" s="18"/>
-      <c r="C980" s="18"/>
-      <c r="D980" s="18"/>
-    </row>
-    <row r="981" spans="1:4" ht="23">
-      <c r="A981" s="3"/>
-      <c r="B981" s="18"/>
-      <c r="C981" s="18"/>
-      <c r="D981" s="18"/>
-    </row>
-    <row r="982" spans="1:4" ht="23">
-      <c r="A982" s="3"/>
-      <c r="B982" s="18"/>
-      <c r="C982" s="18"/>
-      <c r="D982" s="18"/>
-    </row>
-    <row r="983" spans="1:4" ht="23">
-      <c r="A983" s="3"/>
-      <c r="B983" s="18"/>
-      <c r="C983" s="18"/>
-      <c r="D983" s="18"/>
-    </row>
-    <row r="984" spans="1:4" ht="23">
-      <c r="A984" s="3"/>
-      <c r="B984" s="18"/>
-      <c r="C984" s="18"/>
-      <c r="D984" s="18"/>
-    </row>
-    <row r="985" spans="1:4" ht="23">
-      <c r="A985" s="3"/>
-      <c r="B985" s="18"/>
-      <c r="C985" s="18"/>
-      <c r="D985" s="18"/>
-    </row>
-    <row r="986" spans="1:4" ht="23">
-      <c r="A986" s="3"/>
-      <c r="B986" s="18"/>
-      <c r="C986" s="18"/>
-      <c r="D986" s="18"/>
-    </row>
-    <row r="987" spans="1:4" ht="23">
-      <c r="A987" s="3"/>
-      <c r="B987" s="18"/>
-      <c r="C987" s="18"/>
-      <c r="D987" s="18"/>
-    </row>
-    <row r="988" spans="1:4" ht="23">
-      <c r="A988" s="3"/>
-      <c r="B988" s="18"/>
-      <c r="C988" s="18"/>
-      <c r="D988" s="18"/>
-    </row>
-    <row r="989" spans="1:4" ht="23">
-      <c r="A989" s="3"/>
-      <c r="B989" s="18"/>
-      <c r="C989" s="18"/>
-      <c r="D989" s="18"/>
-    </row>
-    <row r="990" spans="1:4" ht="23">
-      <c r="A990" s="3"/>
-      <c r="B990" s="18"/>
-      <c r="C990" s="18"/>
-      <c r="D990" s="18"/>
-    </row>
-    <row r="991" spans="1:4" ht="23">
-      <c r="A991" s="3"/>
-      <c r="B991" s="18"/>
-      <c r="C991" s="18"/>
-      <c r="D991" s="18"/>
-    </row>
-    <row r="992" spans="1:4" ht="23">
-      <c r="A992" s="3"/>
-      <c r="B992" s="18"/>
-      <c r="C992" s="18"/>
-      <c r="D992" s="18"/>
-    </row>
-    <row r="993" spans="1:4" ht="23">
-      <c r="A993" s="3"/>
-      <c r="B993" s="18"/>
-      <c r="C993" s="18"/>
-      <c r="D993" s="18"/>
-    </row>
-    <row r="994" spans="1:4" ht="23">
-      <c r="A994" s="3"/>
-      <c r="B994" s="18"/>
-      <c r="C994" s="18"/>
-      <c r="D994" s="18"/>
-    </row>
-    <row r="995" spans="1:4" ht="23">
-      <c r="A995" s="3"/>
-      <c r="B995" s="18"/>
-      <c r="C995" s="18"/>
-      <c r="D995" s="18"/>
-    </row>
-    <row r="996" spans="1:4" ht="23">
-      <c r="A996" s="3"/>
-      <c r="B996" s="18"/>
-      <c r="C996" s="18"/>
-      <c r="D996" s="18"/>
-    </row>
-    <row r="997" spans="1:4" ht="23">
-      <c r="A997" s="3"/>
-      <c r="B997" s="18"/>
-      <c r="C997" s="18"/>
-      <c r="D997" s="18"/>
-    </row>
-    <row r="998" spans="1:4" ht="23">
-      <c r="A998" s="3"/>
-      <c r="B998" s="18"/>
-      <c r="C998" s="18"/>
-      <c r="D998" s="18"/>
-    </row>
-    <row r="999" spans="1:4" ht="23">
-      <c r="A999" s="3"/>
-      <c r="B999" s="18"/>
-      <c r="C999" s="18"/>
-      <c r="D999" s="18"/>
-    </row>
-    <row r="1000" spans="1:4" ht="23">
-      <c r="A1000" s="3"/>
-      <c r="B1000" s="18"/>
-      <c r="C1000" s="18"/>
-      <c r="D1000" s="18"/>
-    </row>
-    <row r="1001" spans="1:4" ht="23">
-      <c r="A1001" s="3"/>
-      <c r="B1001" s="18"/>
-      <c r="C1001" s="18"/>
-      <c r="D1001" s="18"/>
-    </row>
-    <row r="1002" spans="1:4" ht="23">
-      <c r="A1002" s="3"/>
-      <c r="B1002" s="18"/>
-      <c r="C1002" s="18"/>
-      <c r="D1002" s="18"/>
-    </row>
+    <row r="948" spans="1:4" ht="13"/>
+    <row r="949" spans="1:4" ht="13"/>
+    <row r="950" spans="1:4" ht="13"/>
+    <row r="951" spans="1:4" ht="13"/>
+    <row r="952" spans="1:4" ht="13"/>
+    <row r="953" spans="1:4" ht="13"/>
+    <row r="954" spans="1:4" ht="13"/>
+    <row r="955" spans="1:4" ht="13"/>
+    <row r="956" spans="1:4" ht="13"/>
+    <row r="957" spans="1:4" ht="13"/>
+    <row r="958" spans="1:4" ht="13"/>
+    <row r="959" spans="1:4" ht="13"/>
+    <row r="960" spans="1:4" ht="13"/>
+    <row r="961" ht="13"/>
+    <row r="962" ht="13"/>
+    <row r="963" ht="13"/>
+    <row r="964" ht="13"/>
+    <row r="965" ht="13"/>
+    <row r="966" ht="13"/>
+    <row r="967" ht="13"/>
+    <row r="968" ht="13"/>
+    <row r="969" ht="13"/>
+    <row r="970" ht="13"/>
+    <row r="971" ht="13"/>
+    <row r="972" ht="13"/>
+    <row r="973" ht="13"/>
+    <row r="974" ht="13"/>
+    <row r="975" ht="13"/>
+    <row r="976" ht="13"/>
+    <row r="977" ht="13"/>
+    <row r="978" ht="13"/>
+    <row r="979" ht="13"/>
+    <row r="980" ht="13"/>
+    <row r="981" ht="13"/>
+    <row r="982" ht="13"/>
+    <row r="983" ht="13"/>
+    <row r="984" ht="13"/>
+    <row r="985" ht="13"/>
+    <row r="986" ht="13"/>
+    <row r="987" ht="13"/>
+    <row r="988" ht="13"/>
+    <row r="989" ht="13"/>
+    <row r="990" ht="13"/>
+    <row r="991" ht="13"/>
+    <row r="992" ht="13"/>
+    <row r="993" ht="13"/>
+    <row r="994" ht="13"/>
+    <row r="995" ht="13"/>
+    <row r="996" ht="13"/>
+    <row r="997" ht="13"/>
+    <row r="998" ht="13"/>
+    <row r="999" ht="13"/>
+    <row r="1000" ht="13"/>
+    <row r="1001" ht="13"/>
+    <row r="1002" ht="13"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -54467,6 +54299,51 @@
     <hyperlink ref="A108" r:id="rId88" xr:uid="{00000000-0004-0000-0300-000057000000}"/>
     <hyperlink ref="A109" r:id="rId89" xr:uid="{00000000-0004-0000-0300-000058000000}"/>
     <hyperlink ref="A110" r:id="rId90" xr:uid="{00000000-0004-0000-0300-000059000000}"/>
+    <hyperlink ref="A119" r:id="rId91" xr:uid="{4A8AB519-8184-F042-82C9-0E96870323F2}"/>
+    <hyperlink ref="A120" r:id="rId92" xr:uid="{9523EEBC-A1E6-2449-95FC-729E660A0917}"/>
+    <hyperlink ref="A118" r:id="rId93" xr:uid="{CEB6DE1C-E160-484A-B9F4-37E86574155B}"/>
+    <hyperlink ref="A121" r:id="rId94" xr:uid="{0C81A993-2636-7843-9669-C3DE83AC23D7}"/>
+    <hyperlink ref="A122" r:id="rId95" xr:uid="{8EDB9B77-C434-8A4A-AF30-BF93BDC83283}"/>
+    <hyperlink ref="A123" r:id="rId96" xr:uid="{BC9064CF-F64E-6A4C-8EF4-C74755E58B3D}"/>
+    <hyperlink ref="A124" r:id="rId97" xr:uid="{94F039D8-2BB0-CD46-A736-BD0F213D40CC}"/>
+    <hyperlink ref="A125" r:id="rId98" xr:uid="{7F00EB05-FA95-8442-B33B-66C530FE99A3}"/>
+    <hyperlink ref="A126" r:id="rId99" xr:uid="{CE8AB5AC-6452-E34A-9266-8AFD81CEDA85}"/>
+    <hyperlink ref="A129" r:id="rId100" xr:uid="{F2536169-8AD2-1842-A4B2-7B3BC74AD350}"/>
+    <hyperlink ref="A130" r:id="rId101" xr:uid="{9556AA69-25AF-C441-A430-0A00CF2C16B0}"/>
+    <hyperlink ref="A131" r:id="rId102" xr:uid="{0626D6AE-BA33-3943-A14B-85A2F99E9672}"/>
+    <hyperlink ref="A132" r:id="rId103" xr:uid="{58DEFA91-1B1D-1A4D-B4B8-156EDB08C532}"/>
+    <hyperlink ref="A133" r:id="rId104" xr:uid="{F68B228C-090E-E54E-8BED-C5FE1A6AC559}"/>
+    <hyperlink ref="A134" r:id="rId105" xr:uid="{4217A877-BD35-8743-94F3-F2FFB324DC85}"/>
+    <hyperlink ref="A135" r:id="rId106" xr:uid="{BD3CCA95-089D-1E49-888B-5DF6815B588E}"/>
+    <hyperlink ref="A136" r:id="rId107" xr:uid="{44FA28F5-3F61-2A43-A753-3E40FA040A57}"/>
+    <hyperlink ref="A137" r:id="rId108" xr:uid="{DE97C35F-4A5A-C846-A0EA-C597648F1E5A}"/>
+    <hyperlink ref="A140" r:id="rId109" xr:uid="{1AFE24BD-09D9-824F-8471-678367D7ABA7}"/>
+    <hyperlink ref="A141" r:id="rId110" xr:uid="{089921AD-CAB5-DB45-B6B4-A725214FB4B5}"/>
+    <hyperlink ref="A142" r:id="rId111" xr:uid="{50F0F959-A2CA-244E-8998-B8998875FA5C}"/>
+    <hyperlink ref="A143" r:id="rId112" xr:uid="{7D77BDE8-B19F-AB40-A37B-782D89B9FF35}"/>
+    <hyperlink ref="A144" r:id="rId113" xr:uid="{A669DEF7-7ACA-2948-8177-6320992300D5}"/>
+    <hyperlink ref="A145" r:id="rId114" xr:uid="{F7A78D8B-C1D9-D148-8C01-8E43D84D3F6D}"/>
+    <hyperlink ref="A146" r:id="rId115" xr:uid="{A6A9E396-97FC-3248-A96E-7FD06FFA2A43}"/>
+    <hyperlink ref="A147" r:id="rId116" xr:uid="{790B32B7-037B-384D-9387-285A2F6516CC}"/>
+    <hyperlink ref="A148" r:id="rId117" xr:uid="{160D5B9C-FEFE-9D40-AA1A-20E9814BDD2C}"/>
+    <hyperlink ref="A152" r:id="rId118" xr:uid="{1A0F3A49-6BA4-104C-A5DE-43AABD7C5C2E}"/>
+    <hyperlink ref="A153" r:id="rId119" xr:uid="{8DB6B823-8388-AC45-82D3-44D5D754EEF5}"/>
+    <hyperlink ref="A154" r:id="rId120" xr:uid="{EDB2FAC5-0F0E-8B4C-9C7A-A35D232F1B85}"/>
+    <hyperlink ref="A155" r:id="rId121" xr:uid="{DACCD55D-AF44-1C49-BF20-A1C86598220A}"/>
+    <hyperlink ref="A156" r:id="rId122" xr:uid="{21B1774A-E3DC-524A-BB0F-82C3EFD82168}"/>
+    <hyperlink ref="A157" r:id="rId123" xr:uid="{44868BF7-BB76-9245-9C3A-FF4A82C1679E}"/>
+    <hyperlink ref="A158" r:id="rId124" xr:uid="{27F5B186-01D4-8149-9458-35B5DF144DC0}"/>
+    <hyperlink ref="A159" r:id="rId125" xr:uid="{DB029889-A71F-9549-B66C-71CC22E5CE53}"/>
+    <hyperlink ref="A151" r:id="rId126" xr:uid="{44F7EAF9-0365-BC47-9903-A436173B4FCA}"/>
+    <hyperlink ref="A162" r:id="rId127" xr:uid="{3ED5DC12-2C73-EA49-B29F-E56C53AB883F}"/>
+    <hyperlink ref="A163" r:id="rId128" xr:uid="{6A932B84-EDE8-794C-B178-D36A3CCA5A21}"/>
+    <hyperlink ref="A164" r:id="rId129" xr:uid="{53F5CDBF-5D5E-7F40-9EFE-FFF11CE52CE3}"/>
+    <hyperlink ref="A165" r:id="rId130" xr:uid="{92293528-B28D-B448-8C81-660A29FDA46E}"/>
+    <hyperlink ref="A166" r:id="rId131" xr:uid="{F3A05321-C113-6649-84A7-053744D9ABA4}"/>
+    <hyperlink ref="A167" r:id="rId132" xr:uid="{CEF3AF75-C5CC-6241-962F-AF2F3691FD99}"/>
+    <hyperlink ref="A168" r:id="rId133" xr:uid="{28133126-9D26-B14B-8777-07A7B133A5C5}"/>
+    <hyperlink ref="A169" r:id="rId134" xr:uid="{F505473D-D0A4-2B49-A69E-9708925EE0EE}"/>
+    <hyperlink ref="A170" r:id="rId135" xr:uid="{E1350F81-C65A-944F-937A-C3F1C72BE16E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -54479,7 +54356,7 @@
   </sheetPr>
   <dimension ref="A1:Z1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
